--- a/Code/Results/Cases/Case_3_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_35/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9883978694435419</v>
+        <v>0.9883978694435434</v>
       </c>
       <c r="D2">
-        <v>1.008546576798886</v>
+        <v>1.008546576798888</v>
       </c>
       <c r="E2">
-        <v>0.9939618101832849</v>
+        <v>0.9939618101832867</v>
       </c>
       <c r="F2">
-        <v>0.9628294280690979</v>
+        <v>0.9628294280690988</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.037596809728421</v>
       </c>
       <c r="J2">
-        <v>1.010931223867921</v>
+        <v>1.010931223867923</v>
       </c>
       <c r="K2">
-        <v>1.019888114614777</v>
+        <v>1.019888114614778</v>
       </c>
       <c r="L2">
-        <v>1.005505912531569</v>
+        <v>1.00550591253157</v>
       </c>
       <c r="M2">
-        <v>0.9748321025030058</v>
+        <v>0.9748321025030067</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9972395506425308</v>
+        <v>0.9972395506425309</v>
       </c>
       <c r="D3">
         <v>1.015588125735962</v>
       </c>
       <c r="E3">
-        <v>1.001632725993165</v>
+        <v>1.001632725993166</v>
       </c>
       <c r="F3">
-        <v>0.977185215870311</v>
+        <v>0.9771852158703116</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,13 +480,13 @@
         <v>1.017805752215486</v>
       </c>
       <c r="K3">
-        <v>1.026025364261564</v>
+        <v>1.026025364261565</v>
       </c>
       <c r="L3">
-        <v>1.012244758326166</v>
+        <v>1.012244758326167</v>
       </c>
       <c r="M3">
-        <v>0.9881185861262693</v>
+        <v>0.9881185861262699</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002730985945372</v>
+        <v>1.00273098594537</v>
       </c>
       <c r="D4">
-        <v>1.019960905610393</v>
+        <v>1.019960905610392</v>
       </c>
       <c r="E4">
-        <v>1.006396655362701</v>
+        <v>1.006396655362699</v>
       </c>
       <c r="F4">
-        <v>0.9859884800048263</v>
+        <v>0.9859884800048252</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043882626888329</v>
+        <v>1.043882626888328</v>
       </c>
       <c r="J4">
-        <v>1.022065089875551</v>
+        <v>1.022065089875549</v>
       </c>
       <c r="K4">
-        <v>1.029824244344259</v>
+        <v>1.029824244344258</v>
       </c>
       <c r="L4">
-        <v>1.016418486606497</v>
+        <v>1.016418486606496</v>
       </c>
       <c r="M4">
-        <v>0.9962590060216658</v>
+        <v>0.9962590060216646</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004988789556018</v>
+        <v>1.004988789556017</v>
       </c>
       <c r="D5">
-        <v>1.021758588894171</v>
+        <v>1.02175858889417</v>
       </c>
       <c r="E5">
-        <v>1.008355175095829</v>
+        <v>1.008355175095828</v>
       </c>
       <c r="F5">
-        <v>0.9895847061735262</v>
+        <v>0.9895847061735242</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044860670842399</v>
+        <v>1.044860670842398</v>
       </c>
       <c r="J5">
-        <v>1.023813854484033</v>
+        <v>1.023813854484032</v>
       </c>
       <c r="K5">
-        <v>1.031383112579805</v>
+        <v>1.031383112579804</v>
       </c>
       <c r="L5">
-        <v>1.018131698187188</v>
+        <v>1.018131698187187</v>
       </c>
       <c r="M5">
-        <v>0.9995826795794316</v>
+        <v>0.9995826795794296</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -576,13 +576,13 @@
         <v>1.00536501814438</v>
       </c>
       <c r="D6">
-        <v>1.022058133383076</v>
+        <v>1.022058133383077</v>
       </c>
       <c r="E6">
         <v>1.008681520313519</v>
       </c>
       <c r="F6">
-        <v>0.9901826943893406</v>
+        <v>0.9901826943893417</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>1.018417012505826</v>
       </c>
       <c r="M6">
-        <v>1.000135241088153</v>
+        <v>1.000135241088154</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002761349270643</v>
+        <v>1.00276134927064</v>
       </c>
       <c r="D7">
-        <v>1.019985081946103</v>
+        <v>1.0199850819461</v>
       </c>
       <c r="E7">
-        <v>1.006422994645832</v>
+        <v>1.006422994645829</v>
       </c>
       <c r="F7">
-        <v>0.9860369302332133</v>
+        <v>0.9860369302332114</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043895802527416</v>
+        <v>1.043895802527415</v>
       </c>
       <c r="J7">
-        <v>1.022088617309012</v>
+        <v>1.022088617309009</v>
       </c>
       <c r="K7">
-        <v>1.029845220280858</v>
+        <v>1.029845220280856</v>
       </c>
       <c r="L7">
-        <v>1.016441537363408</v>
+        <v>1.016441537363406</v>
       </c>
       <c r="M7">
-        <v>0.9963037914081343</v>
+        <v>0.9963037914081326</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9914362343369366</v>
+        <v>0.9914362343369391</v>
       </c>
       <c r="D8">
-        <v>1.010966453789109</v>
+        <v>1.010966453789111</v>
       </c>
       <c r="E8">
-        <v>0.9965978745575435</v>
+        <v>0.9965978745575457</v>
       </c>
       <c r="F8">
-        <v>0.9677893123311652</v>
+        <v>0.9677893123311663</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03894002546013</v>
+        <v>1.038940025460131</v>
       </c>
       <c r="J8">
-        <v>1.013295803680647</v>
+        <v>1.013295803680649</v>
       </c>
       <c r="K8">
-        <v>1.021999898561457</v>
+        <v>1.021999898561459</v>
       </c>
       <c r="L8">
-        <v>1.007824127864679</v>
+        <v>1.007824127864681</v>
       </c>
       <c r="M8">
-        <v>0.9794240286718189</v>
+        <v>0.9794240286718201</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9694957756682421</v>
+        <v>0.9694957756682435</v>
       </c>
       <c r="D9">
-        <v>0.9934904595235061</v>
+        <v>0.9934904595235075</v>
       </c>
       <c r="E9">
-        <v>0.977564951592006</v>
+        <v>0.9775649515920072</v>
       </c>
       <c r="F9">
-        <v>0.9312549853339981</v>
+        <v>0.9312549853339998</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029118240203369</v>
+        <v>1.02911824020337</v>
       </c>
       <c r="J9">
-        <v>0.9961736909592054</v>
+        <v>0.9961736909592068</v>
       </c>
       <c r="K9">
-        <v>1.006690039824131</v>
+        <v>1.006690039824132</v>
       </c>
       <c r="L9">
-        <v>0.9910328207931108</v>
+        <v>0.9910328207931123</v>
       </c>
       <c r="M9">
-        <v>0.9455714180104681</v>
+        <v>0.9455714180104696</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,19 +722,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>0.9531426480625559</v>
+        <v>0.9531426480625561</v>
       </c>
       <c r="D10">
-        <v>0.9804621542670285</v>
+        <v>0.980462154267029</v>
       </c>
       <c r="E10">
-        <v>0.963387621852022</v>
+        <v>0.9633876218520225</v>
       </c>
       <c r="F10">
-        <v>0.9027182652174749</v>
+        <v>0.9027182652174748</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,13 +743,13 @@
         <v>1.021617729979801</v>
       </c>
       <c r="J10">
-        <v>0.9833471280087184</v>
+        <v>0.9833471280087189</v>
       </c>
       <c r="K10">
-        <v>0.9951933642505375</v>
+        <v>0.9951933642505377</v>
       </c>
       <c r="L10">
-        <v>0.9784509595747398</v>
+        <v>0.9784509595747405</v>
       </c>
       <c r="M10">
         <v>0.9190981702349893</v>
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9455314511427095</v>
+        <v>0.9455314511427124</v>
       </c>
       <c r="D11">
-        <v>0.9743967917345013</v>
+        <v>0.9743967917345037</v>
       </c>
       <c r="E11">
-        <v>0.956793263509753</v>
+        <v>0.9567932635097556</v>
       </c>
       <c r="F11">
-        <v>0.8889486804120079</v>
+        <v>0.8889486804120104</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018073614427751</v>
+        <v>1.018073614427752</v>
       </c>
       <c r="J11">
-        <v>0.977359874919558</v>
+        <v>0.9773598749195607</v>
       </c>
       <c r="K11">
-        <v>0.9898182567784727</v>
+        <v>0.9898182567784749</v>
       </c>
       <c r="L11">
-        <v>0.9725787375611091</v>
+        <v>0.9725787375611115</v>
       </c>
       <c r="M11">
-        <v>0.9063200026538755</v>
+        <v>0.9063200026538778</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9426106487990441</v>
+        <v>0.9426106487990424</v>
       </c>
       <c r="D12">
-        <v>0.9720687393754498</v>
+        <v>0.9720687393754481</v>
       </c>
       <c r="E12">
-        <v>0.9542635097947809</v>
+        <v>0.9542635097947791</v>
       </c>
       <c r="F12">
-        <v>0.8835681700379969</v>
+        <v>0.8835681700379945</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.016704193821709</v>
+        <v>1.016704193821708</v>
       </c>
       <c r="J12">
-        <v>0.9750593478162167</v>
+        <v>0.9750593478162151</v>
       </c>
       <c r="K12">
-        <v>0.9877513622567802</v>
+        <v>0.9877513622567784</v>
       </c>
       <c r="L12">
-        <v>0.9703227331456267</v>
+        <v>0.9703227331456251</v>
       </c>
       <c r="M12">
-        <v>0.9013266784150433</v>
+        <v>0.9013266784150411</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9432416813597898</v>
+        <v>0.9432416813597897</v>
       </c>
       <c r="D13">
-        <v>0.9725717360948845</v>
+        <v>0.9725717360948842</v>
       </c>
       <c r="E13">
-        <v>0.9548100158701728</v>
+        <v>0.9548100158701723</v>
       </c>
       <c r="F13">
-        <v>0.884735435968717</v>
+        <v>0.8847354359687161</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.017000504228996</v>
       </c>
       <c r="J13">
-        <v>0.9755565091067105</v>
+        <v>0.9755565091067103</v>
       </c>
       <c r="K13">
-        <v>0.9881981107032117</v>
+        <v>0.9881981107032113</v>
       </c>
       <c r="L13">
-        <v>0.9708102540377402</v>
+        <v>0.9708102540377399</v>
       </c>
       <c r="M13">
-        <v>0.9024099477353476</v>
+        <v>0.902409947735347</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9452920237404818</v>
+        <v>0.945292023740483</v>
       </c>
       <c r="D14">
-        <v>0.9742059651980591</v>
+        <v>0.9742059651980601</v>
       </c>
       <c r="E14">
-        <v>0.9565858734158698</v>
+        <v>0.9565858734158704</v>
       </c>
       <c r="F14">
-        <v>0.8885097360034447</v>
+        <v>0.8885097360034453</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.017961557677434</v>
       </c>
       <c r="J14">
-        <v>0.9771713545280607</v>
+        <v>0.9771713545280617</v>
       </c>
       <c r="K14">
-        <v>0.9896489156654612</v>
+        <v>0.989648915665462</v>
       </c>
       <c r="L14">
-        <v>0.9723938576756362</v>
+        <v>0.9723938576756371</v>
       </c>
       <c r="M14">
-        <v>0.9059126462903812</v>
+        <v>0.9059126462903817</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9465424050253332</v>
+        <v>0.9465424050253325</v>
       </c>
       <c r="D15">
-        <v>0.9752025136830605</v>
+        <v>0.9752025136830601</v>
       </c>
       <c r="E15">
-        <v>0.9576689787500804</v>
+        <v>0.9576689787500797</v>
       </c>
       <c r="F15">
-        <v>0.8907980146101547</v>
+        <v>0.8907980146101556</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.018546372864594</v>
       </c>
       <c r="J15">
-        <v>0.9781557600708066</v>
+        <v>0.9781557600708061</v>
       </c>
       <c r="K15">
-        <v>0.9905331062392194</v>
+        <v>0.9905331062392191</v>
       </c>
       <c r="L15">
-        <v>0.9733592678842914</v>
+        <v>0.9733592678842909</v>
       </c>
       <c r="M15">
-        <v>0.9080362463881171</v>
+        <v>0.908036246388118</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9536355024030236</v>
+        <v>0.9536355024030246</v>
       </c>
       <c r="D16">
-        <v>0.9808548618444418</v>
+        <v>0.9808548618444424</v>
       </c>
       <c r="E16">
-        <v>0.9638147338558595</v>
+        <v>0.9638147338558601</v>
       </c>
       <c r="F16">
-        <v>0.9035982108788524</v>
+        <v>0.9035982108788529</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02184603677314</v>
+        <v>1.021846036773141</v>
       </c>
       <c r="J16">
-        <v>0.9837344483489038</v>
+        <v>0.9837344483489046</v>
       </c>
       <c r="K16">
-        <v>0.9955408877374528</v>
+        <v>0.9955408877374533</v>
       </c>
       <c r="L16">
-        <v>0.9788308699821768</v>
+        <v>0.9788308699821778</v>
       </c>
       <c r="M16">
-        <v>0.9199147050205951</v>
+        <v>0.9199147050205957</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9579341728658387</v>
+        <v>0.9579341728658393</v>
       </c>
       <c r="D17">
-        <v>0.9842798639819872</v>
+        <v>0.9842798639819877</v>
       </c>
       <c r="E17">
-        <v>0.9675404843579569</v>
+        <v>0.9675404843579577</v>
       </c>
       <c r="F17">
-        <v>0.9112171653577857</v>
+        <v>0.911217165357786</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02383131986079</v>
+        <v>1.023831319860791</v>
       </c>
       <c r="J17">
-        <v>0.9871106991130658</v>
+        <v>0.9871106991130664</v>
       </c>
       <c r="K17">
-        <v>0.9985692551206828</v>
+        <v>0.9985692551206832</v>
       </c>
       <c r="L17">
-        <v>0.9821426337617142</v>
+        <v>0.982142633761715</v>
       </c>
       <c r="M17">
-        <v>0.9269841897015886</v>
+        <v>0.9269841897015888</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9603914798560161</v>
+        <v>0.960391479856016</v>
       </c>
       <c r="D18">
-        <v>0.9862376136236422</v>
+        <v>0.9862376136236424</v>
       </c>
       <c r="E18">
-        <v>0.9696706548435785</v>
+        <v>0.9696706548435786</v>
       </c>
       <c r="F18">
-        <v>0.9155292777114681</v>
+        <v>0.9155292777114673</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.02496139452141</v>
       </c>
       <c r="J18">
-        <v>0.9890391275864681</v>
+        <v>0.9890391275864682</v>
       </c>
       <c r="K18">
         <v>1.000298208980754</v>
       </c>
       <c r="L18">
-        <v>0.9840342875586259</v>
+        <v>0.9840342875586261</v>
       </c>
       <c r="M18">
-        <v>0.9309849016528641</v>
+        <v>0.9309849016528633</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9612212342066685</v>
+        <v>0.9612212342066672</v>
       </c>
       <c r="D19">
-        <v>0.986898665234197</v>
+        <v>0.9868986652341961</v>
       </c>
       <c r="E19">
-        <v>0.9703900026476937</v>
+        <v>0.9703900026476924</v>
       </c>
       <c r="F19">
-        <v>0.9169785453797266</v>
+        <v>0.9169785453797269</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.025342202062082</v>
       </c>
       <c r="J19">
-        <v>0.9896900343357904</v>
+        <v>0.9896900343357888</v>
       </c>
       <c r="K19">
         <v>1.000881661877602</v>
       </c>
       <c r="L19">
-        <v>0.9846727869263252</v>
+        <v>0.9846727869263239</v>
       </c>
       <c r="M19">
-        <v>0.9323294298243583</v>
+        <v>0.9323294298243585</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9574782300822496</v>
+        <v>0.9574782300822512</v>
       </c>
       <c r="D20">
-        <v>0.9839166023513053</v>
+        <v>0.983916602351307</v>
       </c>
       <c r="E20">
-        <v>0.9671452690207811</v>
+        <v>0.9671452690207826</v>
       </c>
       <c r="F20">
-        <v>0.9104136906846191</v>
+        <v>0.9104136906846202</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023621256931097</v>
+        <v>1.023621256931098</v>
       </c>
       <c r="J20">
-        <v>0.9867527603462334</v>
+        <v>0.986752760346235</v>
       </c>
       <c r="K20">
-        <v>0.9982482798998438</v>
+        <v>0.9982482798998453</v>
       </c>
       <c r="L20">
-        <v>0.9817915244071103</v>
+        <v>0.9817915244071116</v>
       </c>
       <c r="M20">
-        <v>0.9262387017741982</v>
+        <v>0.9262387017741994</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.944690968521413</v>
+        <v>0.9446909685214138</v>
       </c>
       <c r="D21">
-        <v>0.9737269084055782</v>
+        <v>0.9737269084055787</v>
       </c>
       <c r="E21">
-        <v>0.9560652583716568</v>
+        <v>0.9560652583716576</v>
       </c>
       <c r="F21">
-        <v>0.8874061756114335</v>
+        <v>0.8874061756114338</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.01768009623043</v>
       </c>
       <c r="J21">
-        <v>0.9766980475789477</v>
+        <v>0.9766980475789485</v>
       </c>
       <c r="K21">
-        <v>0.9892237345553863</v>
+        <v>0.989223734555387</v>
       </c>
       <c r="L21">
-        <v>0.9719296967416968</v>
+        <v>0.9719296967416974</v>
       </c>
       <c r="M21">
-        <v>0.9048885004909658</v>
+        <v>0.904888500490966</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9360986935651782</v>
+        <v>0.9360986935651765</v>
       </c>
       <c r="D22">
-        <v>0.9668770309477867</v>
+        <v>0.9668770309477852</v>
       </c>
       <c r="E22">
-        <v>0.9486252162213503</v>
+        <v>0.9486252162213482</v>
       </c>
       <c r="F22">
-        <v>0.8713573516089047</v>
+        <v>0.8713573516089028</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.013631510790377</v>
+        <v>1.013631510790376</v>
       </c>
       <c r="J22">
-        <v>0.9699243901852184</v>
+        <v>0.9699243901852167</v>
       </c>
       <c r="K22">
-        <v>0.9831345113916354</v>
+        <v>0.9831345113916342</v>
       </c>
       <c r="L22">
-        <v>0.9652880654919804</v>
+        <v>0.9652880654919787</v>
       </c>
       <c r="M22">
-        <v>0.8899948216867762</v>
+        <v>0.8899948216867744</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9407118940373832</v>
+        <v>0.9407118940373831</v>
       </c>
       <c r="D23">
-        <v>0.9705551435699239</v>
+        <v>0.9705551435699238</v>
       </c>
       <c r="E23">
-        <v>0.9526192328091854</v>
+        <v>0.9526192328091853</v>
       </c>
       <c r="F23">
-        <v>0.8800393750436782</v>
+        <v>0.8800393750436786</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.01581108928652</v>
       </c>
       <c r="J23">
-        <v>0.9735629465618766</v>
+        <v>0.9735629465618765</v>
       </c>
       <c r="K23">
-        <v>0.9864064370328326</v>
+        <v>0.9864064370328324</v>
       </c>
       <c r="L23">
-        <v>0.9688554166344006</v>
+        <v>0.9688554166344002</v>
       </c>
       <c r="M23">
-        <v>0.8980518284909867</v>
+        <v>0.898051828490987</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.957684404612909</v>
+        <v>0.957684404612907</v>
       </c>
       <c r="D24">
-        <v>0.9840808674263437</v>
+        <v>0.9840808674263416</v>
       </c>
       <c r="E24">
-        <v>0.9673239818363992</v>
+        <v>0.9673239818363973</v>
       </c>
       <c r="F24">
-        <v>0.9107771501145082</v>
+        <v>0.9107771501145074</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023716260964366</v>
+        <v>1.023716260964364</v>
       </c>
       <c r="J24">
-        <v>0.9869146229761744</v>
+        <v>0.9869146229761725</v>
       </c>
       <c r="K24">
-        <v>0.9983934297229505</v>
+        <v>0.9983934297229485</v>
       </c>
       <c r="L24">
-        <v>0.9819502985557462</v>
+        <v>0.9819502985557448</v>
       </c>
       <c r="M24">
-        <v>0.9265759316766978</v>
+        <v>0.9265759316766972</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9754385103353326</v>
+        <v>0.9754385103353301</v>
       </c>
       <c r="D25">
-        <v>0.998224308831215</v>
+        <v>0.9982243088312129</v>
       </c>
       <c r="E25">
-        <v>0.9827192954839434</v>
+        <v>0.9827192954839417</v>
       </c>
       <c r="F25">
-        <v>0.9413261429286264</v>
+        <v>0.9413261429286249</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031806121191635</v>
+        <v>1.031806121191634</v>
       </c>
       <c r="J25">
-        <v>1.000821713559821</v>
+        <v>1.000821713559819</v>
       </c>
       <c r="K25">
-        <v>1.010850252801355</v>
+        <v>1.010850252801353</v>
       </c>
       <c r="L25">
-        <v>0.9955919295129676</v>
+        <v>0.995591929512966</v>
       </c>
       <c r="M25">
-        <v>0.9549091312261592</v>
+        <v>0.9549091312261576</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_35/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9883978694435434</v>
+        <v>0.9883978694435419</v>
       </c>
       <c r="D2">
-        <v>1.008546576798888</v>
+        <v>1.008546576798886</v>
       </c>
       <c r="E2">
-        <v>0.9939618101832867</v>
+        <v>0.9939618101832849</v>
       </c>
       <c r="F2">
-        <v>0.9628294280690988</v>
+        <v>0.9628294280690979</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.037596809728421</v>
       </c>
       <c r="J2">
-        <v>1.010931223867923</v>
+        <v>1.010931223867921</v>
       </c>
       <c r="K2">
-        <v>1.019888114614778</v>
+        <v>1.019888114614777</v>
       </c>
       <c r="L2">
-        <v>1.00550591253157</v>
+        <v>1.005505912531569</v>
       </c>
       <c r="M2">
-        <v>0.9748321025030067</v>
+        <v>0.9748321025030058</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9972395506425309</v>
+        <v>0.9972395506425308</v>
       </c>
       <c r="D3">
         <v>1.015588125735962</v>
       </c>
       <c r="E3">
-        <v>1.001632725993166</v>
+        <v>1.001632725993165</v>
       </c>
       <c r="F3">
-        <v>0.9771852158703116</v>
+        <v>0.977185215870311</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,13 +480,13 @@
         <v>1.017805752215486</v>
       </c>
       <c r="K3">
-        <v>1.026025364261565</v>
+        <v>1.026025364261564</v>
       </c>
       <c r="L3">
-        <v>1.012244758326167</v>
+        <v>1.012244758326166</v>
       </c>
       <c r="M3">
-        <v>0.9881185861262699</v>
+        <v>0.9881185861262693</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00273098594537</v>
+        <v>1.002730985945372</v>
       </c>
       <c r="D4">
-        <v>1.019960905610392</v>
+        <v>1.019960905610393</v>
       </c>
       <c r="E4">
-        <v>1.006396655362699</v>
+        <v>1.006396655362701</v>
       </c>
       <c r="F4">
-        <v>0.9859884800048252</v>
+        <v>0.9859884800048263</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043882626888328</v>
+        <v>1.043882626888329</v>
       </c>
       <c r="J4">
-        <v>1.022065089875549</v>
+        <v>1.022065089875551</v>
       </c>
       <c r="K4">
-        <v>1.029824244344258</v>
+        <v>1.029824244344259</v>
       </c>
       <c r="L4">
-        <v>1.016418486606496</v>
+        <v>1.016418486606497</v>
       </c>
       <c r="M4">
-        <v>0.9962590060216646</v>
+        <v>0.9962590060216658</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004988789556017</v>
+        <v>1.004988789556018</v>
       </c>
       <c r="D5">
-        <v>1.02175858889417</v>
+        <v>1.021758588894171</v>
       </c>
       <c r="E5">
-        <v>1.008355175095828</v>
+        <v>1.008355175095829</v>
       </c>
       <c r="F5">
-        <v>0.9895847061735242</v>
+        <v>0.9895847061735262</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044860670842398</v>
+        <v>1.044860670842399</v>
       </c>
       <c r="J5">
-        <v>1.023813854484032</v>
+        <v>1.023813854484033</v>
       </c>
       <c r="K5">
-        <v>1.031383112579804</v>
+        <v>1.031383112579805</v>
       </c>
       <c r="L5">
-        <v>1.018131698187187</v>
+        <v>1.018131698187188</v>
       </c>
       <c r="M5">
-        <v>0.9995826795794296</v>
+        <v>0.9995826795794316</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -576,13 +576,13 @@
         <v>1.00536501814438</v>
       </c>
       <c r="D6">
-        <v>1.022058133383077</v>
+        <v>1.022058133383076</v>
       </c>
       <c r="E6">
         <v>1.008681520313519</v>
       </c>
       <c r="F6">
-        <v>0.9901826943893417</v>
+        <v>0.9901826943893406</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>1.018417012505826</v>
       </c>
       <c r="M6">
-        <v>1.000135241088154</v>
+        <v>1.000135241088153</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00276134927064</v>
+        <v>1.002761349270643</v>
       </c>
       <c r="D7">
-        <v>1.0199850819461</v>
+        <v>1.019985081946103</v>
       </c>
       <c r="E7">
-        <v>1.006422994645829</v>
+        <v>1.006422994645832</v>
       </c>
       <c r="F7">
-        <v>0.9860369302332114</v>
+        <v>0.9860369302332133</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043895802527415</v>
+        <v>1.043895802527416</v>
       </c>
       <c r="J7">
-        <v>1.022088617309009</v>
+        <v>1.022088617309012</v>
       </c>
       <c r="K7">
-        <v>1.029845220280856</v>
+        <v>1.029845220280858</v>
       </c>
       <c r="L7">
-        <v>1.016441537363406</v>
+        <v>1.016441537363408</v>
       </c>
       <c r="M7">
-        <v>0.9963037914081326</v>
+        <v>0.9963037914081343</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9914362343369391</v>
+        <v>0.9914362343369366</v>
       </c>
       <c r="D8">
-        <v>1.010966453789111</v>
+        <v>1.010966453789109</v>
       </c>
       <c r="E8">
-        <v>0.9965978745575457</v>
+        <v>0.9965978745575435</v>
       </c>
       <c r="F8">
-        <v>0.9677893123311663</v>
+        <v>0.9677893123311652</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038940025460131</v>
+        <v>1.03894002546013</v>
       </c>
       <c r="J8">
-        <v>1.013295803680649</v>
+        <v>1.013295803680647</v>
       </c>
       <c r="K8">
-        <v>1.021999898561459</v>
+        <v>1.021999898561457</v>
       </c>
       <c r="L8">
-        <v>1.007824127864681</v>
+        <v>1.007824127864679</v>
       </c>
       <c r="M8">
-        <v>0.9794240286718201</v>
+        <v>0.9794240286718189</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9694957756682435</v>
+        <v>0.9694957756682421</v>
       </c>
       <c r="D9">
-        <v>0.9934904595235075</v>
+        <v>0.9934904595235061</v>
       </c>
       <c r="E9">
-        <v>0.9775649515920072</v>
+        <v>0.977564951592006</v>
       </c>
       <c r="F9">
-        <v>0.9312549853339998</v>
+        <v>0.9312549853339981</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02911824020337</v>
+        <v>1.029118240203369</v>
       </c>
       <c r="J9">
-        <v>0.9961736909592068</v>
+        <v>0.9961736909592054</v>
       </c>
       <c r="K9">
-        <v>1.006690039824132</v>
+        <v>1.006690039824131</v>
       </c>
       <c r="L9">
-        <v>0.9910328207931123</v>
+        <v>0.9910328207931108</v>
       </c>
       <c r="M9">
-        <v>0.9455714180104696</v>
+        <v>0.9455714180104681</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,19 +722,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9531426480625561</v>
+        <v>0.9531426480625559</v>
       </c>
       <c r="D10">
-        <v>0.980462154267029</v>
+        <v>0.9804621542670285</v>
       </c>
       <c r="E10">
-        <v>0.9633876218520225</v>
+        <v>0.963387621852022</v>
       </c>
       <c r="F10">
-        <v>0.9027182652174748</v>
+        <v>0.9027182652174749</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,13 +743,13 @@
         <v>1.021617729979801</v>
       </c>
       <c r="J10">
-        <v>0.9833471280087189</v>
+        <v>0.9833471280087184</v>
       </c>
       <c r="K10">
-        <v>0.9951933642505377</v>
+        <v>0.9951933642505375</v>
       </c>
       <c r="L10">
-        <v>0.9784509595747405</v>
+        <v>0.9784509595747398</v>
       </c>
       <c r="M10">
         <v>0.9190981702349893</v>
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9455314511427124</v>
+        <v>0.9455314511427095</v>
       </c>
       <c r="D11">
-        <v>0.9743967917345037</v>
+        <v>0.9743967917345013</v>
       </c>
       <c r="E11">
-        <v>0.9567932635097556</v>
+        <v>0.956793263509753</v>
       </c>
       <c r="F11">
-        <v>0.8889486804120104</v>
+        <v>0.8889486804120079</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018073614427752</v>
+        <v>1.018073614427751</v>
       </c>
       <c r="J11">
-        <v>0.9773598749195607</v>
+        <v>0.977359874919558</v>
       </c>
       <c r="K11">
-        <v>0.9898182567784749</v>
+        <v>0.9898182567784727</v>
       </c>
       <c r="L11">
-        <v>0.9725787375611115</v>
+        <v>0.9725787375611091</v>
       </c>
       <c r="M11">
-        <v>0.9063200026538778</v>
+        <v>0.9063200026538755</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9426106487990424</v>
+        <v>0.9426106487990441</v>
       </c>
       <c r="D12">
-        <v>0.9720687393754481</v>
+        <v>0.9720687393754498</v>
       </c>
       <c r="E12">
-        <v>0.9542635097947791</v>
+        <v>0.9542635097947809</v>
       </c>
       <c r="F12">
-        <v>0.8835681700379945</v>
+        <v>0.8835681700379969</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.016704193821708</v>
+        <v>1.016704193821709</v>
       </c>
       <c r="J12">
-        <v>0.9750593478162151</v>
+        <v>0.9750593478162167</v>
       </c>
       <c r="K12">
-        <v>0.9877513622567784</v>
+        <v>0.9877513622567802</v>
       </c>
       <c r="L12">
-        <v>0.9703227331456251</v>
+        <v>0.9703227331456267</v>
       </c>
       <c r="M12">
-        <v>0.9013266784150411</v>
+        <v>0.9013266784150433</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9432416813597897</v>
+        <v>0.9432416813597898</v>
       </c>
       <c r="D13">
-        <v>0.9725717360948842</v>
+        <v>0.9725717360948845</v>
       </c>
       <c r="E13">
-        <v>0.9548100158701723</v>
+        <v>0.9548100158701728</v>
       </c>
       <c r="F13">
-        <v>0.8847354359687161</v>
+        <v>0.884735435968717</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.017000504228996</v>
       </c>
       <c r="J13">
-        <v>0.9755565091067103</v>
+        <v>0.9755565091067105</v>
       </c>
       <c r="K13">
-        <v>0.9881981107032113</v>
+        <v>0.9881981107032117</v>
       </c>
       <c r="L13">
-        <v>0.9708102540377399</v>
+        <v>0.9708102540377402</v>
       </c>
       <c r="M13">
-        <v>0.902409947735347</v>
+        <v>0.9024099477353476</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.945292023740483</v>
+        <v>0.9452920237404818</v>
       </c>
       <c r="D14">
-        <v>0.9742059651980601</v>
+        <v>0.9742059651980591</v>
       </c>
       <c r="E14">
-        <v>0.9565858734158704</v>
+        <v>0.9565858734158698</v>
       </c>
       <c r="F14">
-        <v>0.8885097360034453</v>
+        <v>0.8885097360034447</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.017961557677434</v>
       </c>
       <c r="J14">
-        <v>0.9771713545280617</v>
+        <v>0.9771713545280607</v>
       </c>
       <c r="K14">
-        <v>0.989648915665462</v>
+        <v>0.9896489156654612</v>
       </c>
       <c r="L14">
-        <v>0.9723938576756371</v>
+        <v>0.9723938576756362</v>
       </c>
       <c r="M14">
-        <v>0.9059126462903817</v>
+        <v>0.9059126462903812</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9465424050253325</v>
+        <v>0.9465424050253332</v>
       </c>
       <c r="D15">
-        <v>0.9752025136830601</v>
+        <v>0.9752025136830605</v>
       </c>
       <c r="E15">
-        <v>0.9576689787500797</v>
+        <v>0.9576689787500804</v>
       </c>
       <c r="F15">
-        <v>0.8907980146101556</v>
+        <v>0.8907980146101547</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.018546372864594</v>
       </c>
       <c r="J15">
-        <v>0.9781557600708061</v>
+        <v>0.9781557600708066</v>
       </c>
       <c r="K15">
-        <v>0.9905331062392191</v>
+        <v>0.9905331062392194</v>
       </c>
       <c r="L15">
-        <v>0.9733592678842909</v>
+        <v>0.9733592678842914</v>
       </c>
       <c r="M15">
-        <v>0.908036246388118</v>
+        <v>0.9080362463881171</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9536355024030246</v>
+        <v>0.9536355024030236</v>
       </c>
       <c r="D16">
-        <v>0.9808548618444424</v>
+        <v>0.9808548618444418</v>
       </c>
       <c r="E16">
-        <v>0.9638147338558601</v>
+        <v>0.9638147338558595</v>
       </c>
       <c r="F16">
-        <v>0.9035982108788529</v>
+        <v>0.9035982108788524</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021846036773141</v>
+        <v>1.02184603677314</v>
       </c>
       <c r="J16">
-        <v>0.9837344483489046</v>
+        <v>0.9837344483489038</v>
       </c>
       <c r="K16">
-        <v>0.9955408877374533</v>
+        <v>0.9955408877374528</v>
       </c>
       <c r="L16">
-        <v>0.9788308699821778</v>
+        <v>0.9788308699821768</v>
       </c>
       <c r="M16">
-        <v>0.9199147050205957</v>
+        <v>0.9199147050205951</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9579341728658393</v>
+        <v>0.9579341728658387</v>
       </c>
       <c r="D17">
-        <v>0.9842798639819877</v>
+        <v>0.9842798639819872</v>
       </c>
       <c r="E17">
-        <v>0.9675404843579577</v>
+        <v>0.9675404843579569</v>
       </c>
       <c r="F17">
-        <v>0.911217165357786</v>
+        <v>0.9112171653577857</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023831319860791</v>
+        <v>1.02383131986079</v>
       </c>
       <c r="J17">
-        <v>0.9871106991130664</v>
+        <v>0.9871106991130658</v>
       </c>
       <c r="K17">
-        <v>0.9985692551206832</v>
+        <v>0.9985692551206828</v>
       </c>
       <c r="L17">
-        <v>0.982142633761715</v>
+        <v>0.9821426337617142</v>
       </c>
       <c r="M17">
-        <v>0.9269841897015888</v>
+        <v>0.9269841897015886</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.960391479856016</v>
+        <v>0.9603914798560161</v>
       </c>
       <c r="D18">
-        <v>0.9862376136236424</v>
+        <v>0.9862376136236422</v>
       </c>
       <c r="E18">
-        <v>0.9696706548435786</v>
+        <v>0.9696706548435785</v>
       </c>
       <c r="F18">
-        <v>0.9155292777114673</v>
+        <v>0.9155292777114681</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.02496139452141</v>
       </c>
       <c r="J18">
-        <v>0.9890391275864682</v>
+        <v>0.9890391275864681</v>
       </c>
       <c r="K18">
         <v>1.000298208980754</v>
       </c>
       <c r="L18">
-        <v>0.9840342875586261</v>
+        <v>0.9840342875586259</v>
       </c>
       <c r="M18">
-        <v>0.9309849016528633</v>
+        <v>0.9309849016528641</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9612212342066672</v>
+        <v>0.9612212342066685</v>
       </c>
       <c r="D19">
-        <v>0.9868986652341961</v>
+        <v>0.986898665234197</v>
       </c>
       <c r="E19">
-        <v>0.9703900026476924</v>
+        <v>0.9703900026476937</v>
       </c>
       <c r="F19">
-        <v>0.9169785453797269</v>
+        <v>0.9169785453797266</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.025342202062082</v>
       </c>
       <c r="J19">
-        <v>0.9896900343357888</v>
+        <v>0.9896900343357904</v>
       </c>
       <c r="K19">
         <v>1.000881661877602</v>
       </c>
       <c r="L19">
-        <v>0.9846727869263239</v>
+        <v>0.9846727869263252</v>
       </c>
       <c r="M19">
-        <v>0.9323294298243585</v>
+        <v>0.9323294298243583</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9574782300822512</v>
+        <v>0.9574782300822496</v>
       </c>
       <c r="D20">
-        <v>0.983916602351307</v>
+        <v>0.9839166023513053</v>
       </c>
       <c r="E20">
-        <v>0.9671452690207826</v>
+        <v>0.9671452690207811</v>
       </c>
       <c r="F20">
-        <v>0.9104136906846202</v>
+        <v>0.9104136906846191</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023621256931098</v>
+        <v>1.023621256931097</v>
       </c>
       <c r="J20">
-        <v>0.986752760346235</v>
+        <v>0.9867527603462334</v>
       </c>
       <c r="K20">
-        <v>0.9982482798998453</v>
+        <v>0.9982482798998438</v>
       </c>
       <c r="L20">
-        <v>0.9817915244071116</v>
+        <v>0.9817915244071103</v>
       </c>
       <c r="M20">
-        <v>0.9262387017741994</v>
+        <v>0.9262387017741982</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9446909685214138</v>
+        <v>0.944690968521413</v>
       </c>
       <c r="D21">
-        <v>0.9737269084055787</v>
+        <v>0.9737269084055782</v>
       </c>
       <c r="E21">
-        <v>0.9560652583716576</v>
+        <v>0.9560652583716568</v>
       </c>
       <c r="F21">
-        <v>0.8874061756114338</v>
+        <v>0.8874061756114335</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.01768009623043</v>
       </c>
       <c r="J21">
-        <v>0.9766980475789485</v>
+        <v>0.9766980475789477</v>
       </c>
       <c r="K21">
-        <v>0.989223734555387</v>
+        <v>0.9892237345553863</v>
       </c>
       <c r="L21">
-        <v>0.9719296967416974</v>
+        <v>0.9719296967416968</v>
       </c>
       <c r="M21">
-        <v>0.904888500490966</v>
+        <v>0.9048885004909658</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9360986935651765</v>
+        <v>0.9360986935651782</v>
       </c>
       <c r="D22">
-        <v>0.9668770309477852</v>
+        <v>0.9668770309477867</v>
       </c>
       <c r="E22">
-        <v>0.9486252162213482</v>
+        <v>0.9486252162213503</v>
       </c>
       <c r="F22">
-        <v>0.8713573516089028</v>
+        <v>0.8713573516089047</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.013631510790376</v>
+        <v>1.013631510790377</v>
       </c>
       <c r="J22">
-        <v>0.9699243901852167</v>
+        <v>0.9699243901852184</v>
       </c>
       <c r="K22">
-        <v>0.9831345113916342</v>
+        <v>0.9831345113916354</v>
       </c>
       <c r="L22">
-        <v>0.9652880654919787</v>
+        <v>0.9652880654919804</v>
       </c>
       <c r="M22">
-        <v>0.8899948216867744</v>
+        <v>0.8899948216867762</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9407118940373831</v>
+        <v>0.9407118940373832</v>
       </c>
       <c r="D23">
-        <v>0.9705551435699238</v>
+        <v>0.9705551435699239</v>
       </c>
       <c r="E23">
-        <v>0.9526192328091853</v>
+        <v>0.9526192328091854</v>
       </c>
       <c r="F23">
-        <v>0.8800393750436786</v>
+        <v>0.8800393750436782</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.01581108928652</v>
       </c>
       <c r="J23">
-        <v>0.9735629465618765</v>
+        <v>0.9735629465618766</v>
       </c>
       <c r="K23">
-        <v>0.9864064370328324</v>
+        <v>0.9864064370328326</v>
       </c>
       <c r="L23">
-        <v>0.9688554166344002</v>
+        <v>0.9688554166344006</v>
       </c>
       <c r="M23">
-        <v>0.898051828490987</v>
+        <v>0.8980518284909867</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.957684404612907</v>
+        <v>0.957684404612909</v>
       </c>
       <c r="D24">
-        <v>0.9840808674263416</v>
+        <v>0.9840808674263437</v>
       </c>
       <c r="E24">
-        <v>0.9673239818363973</v>
+        <v>0.9673239818363992</v>
       </c>
       <c r="F24">
-        <v>0.9107771501145074</v>
+        <v>0.9107771501145082</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023716260964364</v>
+        <v>1.023716260964366</v>
       </c>
       <c r="J24">
-        <v>0.9869146229761725</v>
+        <v>0.9869146229761744</v>
       </c>
       <c r="K24">
-        <v>0.9983934297229485</v>
+        <v>0.9983934297229505</v>
       </c>
       <c r="L24">
-        <v>0.9819502985557448</v>
+        <v>0.9819502985557462</v>
       </c>
       <c r="M24">
-        <v>0.9265759316766972</v>
+        <v>0.9265759316766978</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9754385103353301</v>
+        <v>0.9754385103353326</v>
       </c>
       <c r="D25">
-        <v>0.9982243088312129</v>
+        <v>0.998224308831215</v>
       </c>
       <c r="E25">
-        <v>0.9827192954839417</v>
+        <v>0.9827192954839434</v>
       </c>
       <c r="F25">
-        <v>0.9413261429286249</v>
+        <v>0.9413261429286264</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031806121191634</v>
+        <v>1.031806121191635</v>
       </c>
       <c r="J25">
-        <v>1.000821713559819</v>
+        <v>1.000821713559821</v>
       </c>
       <c r="K25">
-        <v>1.010850252801353</v>
+        <v>1.010850252801355</v>
       </c>
       <c r="L25">
-        <v>0.995591929512966</v>
+        <v>0.9955919295129676</v>
       </c>
       <c r="M25">
-        <v>0.9549091312261576</v>
+        <v>0.9549091312261592</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_35/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9883978694435419</v>
+        <v>0.9909685166531333</v>
       </c>
       <c r="D2">
-        <v>1.008546576798886</v>
+        <v>1.01064479260884</v>
       </c>
       <c r="E2">
-        <v>0.9939618101832849</v>
+        <v>0.9961796490585588</v>
       </c>
       <c r="F2">
-        <v>0.9628294280690979</v>
+        <v>0.9642843141175401</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037596809728421</v>
+        <v>1.03878775594874</v>
       </c>
       <c r="J2">
-        <v>1.010931223867921</v>
+        <v>1.013422754780659</v>
       </c>
       <c r="K2">
-        <v>1.019888114614777</v>
+        <v>1.021957794094891</v>
       </c>
       <c r="L2">
-        <v>1.005505912531569</v>
+        <v>1.007692465283525</v>
       </c>
       <c r="M2">
-        <v>0.9748321025030058</v>
+        <v>0.9762647174377629</v>
+      </c>
+      <c r="N2">
+        <v>1.014861931333663</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9972395506425308</v>
+        <v>0.9997874570326117</v>
       </c>
       <c r="D3">
-        <v>1.015588125735962</v>
+        <v>1.01767068587164</v>
       </c>
       <c r="E3">
-        <v>1.001632725993165</v>
+        <v>1.00383284831879</v>
       </c>
       <c r="F3">
-        <v>0.977185215870311</v>
+        <v>0.9785956071155608</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041489741944748</v>
+        <v>1.042671601873593</v>
       </c>
       <c r="J3">
-        <v>1.017805752215486</v>
+        <v>1.020283917861131</v>
       </c>
       <c r="K3">
-        <v>1.026025364261564</v>
+        <v>1.028082351288407</v>
       </c>
       <c r="L3">
-        <v>1.012244758326166</v>
+        <v>1.014416920922158</v>
       </c>
       <c r="M3">
-        <v>0.9881185861262693</v>
+        <v>0.9895098905370281</v>
+      </c>
+      <c r="N3">
+        <v>1.021732838052695</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002730985945372</v>
+        <v>1.005265936902883</v>
       </c>
       <c r="D4">
-        <v>1.019960905610393</v>
+        <v>1.022034630170836</v>
       </c>
       <c r="E4">
-        <v>1.006396655362701</v>
+        <v>1.008586757505553</v>
       </c>
       <c r="F4">
-        <v>0.9859884800048263</v>
+        <v>0.9873739079633422</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043882626888329</v>
+        <v>1.045059457058154</v>
       </c>
       <c r="J4">
-        <v>1.022065089875551</v>
+        <v>1.024535891990858</v>
       </c>
       <c r="K4">
-        <v>1.029824244344259</v>
+        <v>1.03187419592035</v>
       </c>
       <c r="L4">
-        <v>1.016418486606497</v>
+        <v>1.018582640949765</v>
       </c>
       <c r="M4">
-        <v>0.9962590060216658</v>
+        <v>0.9976271459282795</v>
+      </c>
+      <c r="N4">
+        <v>1.025990850473394</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004988789556018</v>
+        <v>1.007518664203706</v>
       </c>
       <c r="D5">
-        <v>1.021758588894171</v>
+        <v>1.023828870671369</v>
       </c>
       <c r="E5">
-        <v>1.008355175095829</v>
+        <v>1.010541368659406</v>
       </c>
       <c r="F5">
-        <v>0.9895847061735262</v>
+        <v>0.9909604135711744</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044860670842399</v>
+        <v>1.046035563719432</v>
       </c>
       <c r="J5">
-        <v>1.023813854484033</v>
+        <v>1.026281830197163</v>
       </c>
       <c r="K5">
-        <v>1.031383112579805</v>
+        <v>1.033430353153066</v>
       </c>
       <c r="L5">
-        <v>1.018131698187188</v>
+        <v>1.020292759905995</v>
       </c>
       <c r="M5">
-        <v>0.9995826795794316</v>
+        <v>1.000941803141629</v>
+      </c>
+      <c r="N5">
+        <v>1.027739268112215</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00536501814438</v>
+        <v>1.007894060853119</v>
       </c>
       <c r="D6">
-        <v>1.022058133383076</v>
+        <v>1.024127852056424</v>
       </c>
       <c r="E6">
-        <v>1.008681520313519</v>
+        <v>1.010867074361382</v>
       </c>
       <c r="F6">
-        <v>0.9901826943893406</v>
+        <v>0.9915568115186781</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045023311175259</v>
+        <v>1.046197888500835</v>
       </c>
       <c r="J6">
-        <v>1.024105114899525</v>
+        <v>1.02657263085549</v>
       </c>
       <c r="K6">
-        <v>1.031642696338974</v>
+        <v>1.033689495292379</v>
       </c>
       <c r="L6">
-        <v>1.018417012505826</v>
+        <v>1.020577570058508</v>
       </c>
       <c r="M6">
-        <v>1.000135241088153</v>
+        <v>1.001492889836341</v>
+      </c>
+      <c r="N6">
+        <v>1.028030481740832</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002761349270643</v>
+        <v>1.00529623100425</v>
       </c>
       <c r="D7">
-        <v>1.019985081946103</v>
+        <v>1.02205875948147</v>
       </c>
       <c r="E7">
-        <v>1.006422994645832</v>
+        <v>1.008613043417252</v>
       </c>
       <c r="F7">
-        <v>0.9860369302332133</v>
+        <v>0.9874222254274836</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043895802527416</v>
+        <v>1.045072606145366</v>
       </c>
       <c r="J7">
-        <v>1.022088617309012</v>
+        <v>1.024559380645131</v>
       </c>
       <c r="K7">
-        <v>1.029845220280858</v>
+        <v>1.031895134704459</v>
       </c>
       <c r="L7">
-        <v>1.016441537363408</v>
+        <v>1.018605649350881</v>
       </c>
       <c r="M7">
-        <v>0.9963037914081343</v>
+        <v>0.9976718081524095</v>
+      </c>
+      <c r="N7">
+        <v>1.026014372484251</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9914362343369366</v>
+        <v>0.993998797901904</v>
       </c>
       <c r="D8">
-        <v>1.010966453789109</v>
+        <v>1.013059085056562</v>
       </c>
       <c r="E8">
-        <v>0.9965978745575435</v>
+        <v>0.9988093993552344</v>
       </c>
       <c r="F8">
-        <v>0.9677893123311652</v>
+        <v>0.9692282712368823</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03894002546013</v>
+        <v>1.04012770737444</v>
       </c>
       <c r="J8">
-        <v>1.013295803680647</v>
+        <v>1.015782526127413</v>
       </c>
       <c r="K8">
-        <v>1.021999898561457</v>
+        <v>1.02406502124589</v>
       </c>
       <c r="L8">
-        <v>1.007824127864679</v>
+        <v>1.010005522272318</v>
       </c>
       <c r="M8">
-        <v>0.9794240286718189</v>
+        <v>0.9808418541081028</v>
+      </c>
+      <c r="N8">
+        <v>1.017225053826398</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9694957756682421</v>
+        <v>0.9721235676844812</v>
       </c>
       <c r="D9">
-        <v>0.9934904595235061</v>
+        <v>0.9956286581913528</v>
       </c>
       <c r="E9">
-        <v>0.977564951592006</v>
+        <v>0.9798278113045393</v>
       </c>
       <c r="F9">
-        <v>0.9312549853339981</v>
+        <v>0.9328267820775902</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029118240203369</v>
+        <v>1.030333171460414</v>
       </c>
       <c r="J9">
-        <v>0.9961736909592054</v>
+        <v>0.9987006308872406</v>
       </c>
       <c r="K9">
-        <v>1.006690039824131</v>
+        <v>1.008793057755924</v>
       </c>
       <c r="L9">
-        <v>0.9910328207931108</v>
+        <v>0.9932568725155396</v>
       </c>
       <c r="M9">
-        <v>0.9455714180104681</v>
+        <v>0.9471126026857417</v>
+      </c>
+      <c r="N9">
+        <v>1.000118900335664</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9531426480625559</v>
+        <v>0.9558307969678982</v>
       </c>
       <c r="D10">
-        <v>0.9804621542670285</v>
+        <v>0.9826433806696557</v>
       </c>
       <c r="E10">
-        <v>0.963387621852022</v>
+        <v>0.9656985497246021</v>
       </c>
       <c r="F10">
-        <v>0.9027182652174749</v>
+        <v>0.9044237673655616</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021617729979801</v>
+        <v>1.022859464893538</v>
       </c>
       <c r="J10">
-        <v>0.9833471280087184</v>
+        <v>0.9859134815687368</v>
       </c>
       <c r="K10">
-        <v>0.9951933642505375</v>
+        <v>0.9973332487139789</v>
       </c>
       <c r="L10">
-        <v>0.9784509595747398</v>
+        <v>0.9807160332446928</v>
       </c>
       <c r="M10">
-        <v>0.9190981702349893</v>
+        <v>0.9207634267745565</v>
+      </c>
+      <c r="N10">
+        <v>0.9873135917984214</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9455314511427095</v>
+        <v>0.9482518275876354</v>
       </c>
       <c r="D11">
-        <v>0.9743967917345013</v>
+        <v>0.9766012922976421</v>
       </c>
       <c r="E11">
-        <v>0.956793263509753</v>
+        <v>0.9591300159249296</v>
       </c>
       <c r="F11">
-        <v>0.8889486804120079</v>
+        <v>0.8907307688343998</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018073614427751</v>
+        <v>1.019330225382466</v>
       </c>
       <c r="J11">
-        <v>0.977359874919558</v>
+        <v>0.9799479227818571</v>
       </c>
       <c r="K11">
-        <v>0.9898182567784727</v>
+        <v>0.9919783887395992</v>
       </c>
       <c r="L11">
-        <v>0.9725787375611091</v>
+        <v>0.9748661525218331</v>
       </c>
       <c r="M11">
-        <v>0.9063200026538755</v>
+        <v>0.9080562517432593</v>
+      </c>
+      <c r="N11">
+        <v>0.9813395612338048</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9426106487990441</v>
+        <v>0.9453441907454141</v>
       </c>
       <c r="D12">
-        <v>0.9720687393754498</v>
+        <v>0.9742828064547578</v>
       </c>
       <c r="E12">
-        <v>0.9542635097947809</v>
+        <v>0.9566108393894208</v>
       </c>
       <c r="F12">
-        <v>0.8835681700379969</v>
+        <v>0.8853827068090916</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.016704193821709</v>
+        <v>1.01796699339117</v>
       </c>
       <c r="J12">
-        <v>0.9750593478162167</v>
+        <v>0.9776563719541161</v>
       </c>
       <c r="K12">
-        <v>0.9877513622567802</v>
+        <v>0.9899198685344066</v>
       </c>
       <c r="L12">
-        <v>0.9703227331456267</v>
+        <v>0.9726193497978564</v>
       </c>
       <c r="M12">
-        <v>0.9013266784150433</v>
+        <v>0.903092987531306</v>
+      </c>
+      <c r="N12">
+        <v>0.979044756141044</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9432416813597898</v>
+        <v>0.9459723392964001</v>
       </c>
       <c r="D13">
-        <v>0.9725717360948845</v>
+        <v>0.9747837046414299</v>
       </c>
       <c r="E13">
-        <v>0.9548100158701728</v>
+        <v>0.957155027145138</v>
       </c>
       <c r="F13">
-        <v>0.884735435968717</v>
+        <v>0.8865428046163972</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.017000504228996</v>
+        <v>1.018261942582906</v>
       </c>
       <c r="J13">
-        <v>0.9755565091067105</v>
+        <v>0.9781515615092794</v>
       </c>
       <c r="K13">
-        <v>0.9881981107032117</v>
+        <v>0.9903647775425219</v>
       </c>
       <c r="L13">
-        <v>0.9708102540377402</v>
+        <v>0.9731048514522839</v>
       </c>
       <c r="M13">
-        <v>0.9024099477353476</v>
+        <v>0.9041696172833139</v>
+      </c>
+      <c r="N13">
+        <v>0.9795406489221749</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9452920237404818</v>
+        <v>0.9480134620042963</v>
       </c>
       <c r="D14">
-        <v>0.9742059651980591</v>
+        <v>0.9764112360556999</v>
       </c>
       <c r="E14">
-        <v>0.9565858734158698</v>
+        <v>0.9589234783282257</v>
       </c>
       <c r="F14">
-        <v>0.8885097360034447</v>
+        <v>0.8902944156382471</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.017961557677434</v>
+        <v>1.019218665351408</v>
       </c>
       <c r="J14">
-        <v>0.9771713545280607</v>
+        <v>0.9797601239767513</v>
       </c>
       <c r="K14">
-        <v>0.9896489156654612</v>
+        <v>0.9918097208614065</v>
       </c>
       <c r="L14">
-        <v>0.9723938576756362</v>
+        <v>0.9746820132209039</v>
       </c>
       <c r="M14">
-        <v>0.9059126462903812</v>
+        <v>0.9076512962755646</v>
+      </c>
+      <c r="N14">
+        <v>0.9811514957328552</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9465424050253332</v>
+        <v>0.9492583315507775</v>
       </c>
       <c r="D15">
-        <v>0.9752025136830605</v>
+        <v>0.9774037884641419</v>
       </c>
       <c r="E15">
-        <v>0.9576689787500804</v>
+        <v>0.9600021595856011</v>
       </c>
       <c r="F15">
-        <v>0.8907980146101547</v>
+        <v>0.8925692920663294</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.018546372864594</v>
+        <v>1.019800906722022</v>
       </c>
       <c r="J15">
-        <v>0.9781557600708066</v>
+        <v>0.9807407884648951</v>
       </c>
       <c r="K15">
-        <v>0.9905331062392194</v>
+        <v>0.9926904209532396</v>
       </c>
       <c r="L15">
-        <v>0.9733592678842914</v>
+        <v>0.975643582180215</v>
       </c>
       <c r="M15">
-        <v>0.9080362463881171</v>
+        <v>0.9097624777860422</v>
+      </c>
+      <c r="N15">
+        <v>0.9821335528770562</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9536355024030236</v>
+        <v>0.9563216620452881</v>
       </c>
       <c r="D16">
-        <v>0.9808548618444418</v>
+        <v>0.9830346583369008</v>
       </c>
       <c r="E16">
-        <v>0.9638147338558595</v>
+        <v>0.9661240709898171</v>
       </c>
       <c r="F16">
-        <v>0.9035982108788524</v>
+        <v>0.905299111820157</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02184603677314</v>
+        <v>1.02308686615432</v>
       </c>
       <c r="J16">
-        <v>0.9837344483489038</v>
+        <v>0.986299476461895</v>
       </c>
       <c r="K16">
-        <v>0.9955408877374528</v>
+        <v>0.9976795345187746</v>
       </c>
       <c r="L16">
-        <v>0.9788308699821768</v>
+        <v>0.9810945736882226</v>
       </c>
       <c r="M16">
-        <v>0.9199147050205951</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.921575694530793</v>
+      </c>
+      <c r="N16">
+        <v>0.9877001348486016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9579341728658387</v>
+        <v>0.9606034546041485</v>
       </c>
       <c r="D17">
-        <v>0.9842798639819872</v>
+        <v>0.9864475600940387</v>
       </c>
       <c r="E17">
-        <v>0.9675404843579569</v>
+        <v>0.9698363413988484</v>
       </c>
       <c r="F17">
-        <v>0.9112171653577857</v>
+        <v>0.9128795863120406</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02383131986079</v>
+        <v>1.025064526043255</v>
       </c>
       <c r="J17">
-        <v>0.9871106991130658</v>
+        <v>0.9896645494829516</v>
       </c>
       <c r="K17">
-        <v>0.9985692551206828</v>
+        <v>1.000697459936126</v>
       </c>
       <c r="L17">
-        <v>0.9821426337617142</v>
+        <v>0.9843947596829806</v>
       </c>
       <c r="M17">
-        <v>0.9269841897015886</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9286094859852226</v>
+      </c>
+      <c r="N17">
+        <v>0.9910699866593279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9603914798560161</v>
+        <v>0.9630514813250816</v>
       </c>
       <c r="D18">
-        <v>0.9862376136236422</v>
+        <v>0.9883986807887152</v>
       </c>
       <c r="E18">
-        <v>0.9696706548435785</v>
+        <v>0.9719591130728376</v>
       </c>
       <c r="F18">
-        <v>0.9155292777114681</v>
+        <v>0.9171709535463949</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02496139452141</v>
+        <v>1.026190455030098</v>
       </c>
       <c r="J18">
-        <v>0.9890391275864681</v>
+        <v>0.9915868858438667</v>
       </c>
       <c r="K18">
-        <v>1.000298208980754</v>
+        <v>1.00242071871638</v>
       </c>
       <c r="L18">
-        <v>0.9840342875586259</v>
+        <v>0.9862800839305547</v>
       </c>
       <c r="M18">
-        <v>0.9309849016528641</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9325909495265036</v>
+      </c>
+      <c r="N18">
+        <v>0.9929950529583705</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9612212342066685</v>
+        <v>0.9638781603762748</v>
       </c>
       <c r="D19">
-        <v>0.986898665234197</v>
+        <v>0.9890575395693952</v>
       </c>
       <c r="E19">
-        <v>0.9703900026476937</v>
+        <v>0.9726760112243467</v>
       </c>
       <c r="F19">
-        <v>0.9169785453797266</v>
+        <v>0.9186134091906901</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025342202062082</v>
+        <v>1.026569896036493</v>
       </c>
       <c r="J19">
-        <v>0.9896900343357904</v>
+        <v>0.9922357826028875</v>
       </c>
       <c r="K19">
-        <v>1.000881661877602</v>
+        <v>1.003002291878992</v>
       </c>
       <c r="L19">
-        <v>0.9846727869263252</v>
+        <v>0.9869164918118389</v>
       </c>
       <c r="M19">
-        <v>0.9323294298243583</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9339291563227651</v>
+      </c>
+      <c r="N19">
+        <v>0.9936448712252187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9574782300822496</v>
+        <v>0.9601492626388894</v>
       </c>
       <c r="D20">
-        <v>0.9839166023513053</v>
+        <v>0.9860855510371287</v>
       </c>
       <c r="E20">
-        <v>0.9671452690207811</v>
+        <v>0.9694425229986392</v>
       </c>
       <c r="F20">
-        <v>0.9104136906846191</v>
+        <v>0.9120800577150584</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023621256931097</v>
+        <v>1.024855248908038</v>
       </c>
       <c r="J20">
-        <v>0.9867527603462334</v>
+        <v>0.98930776444127</v>
       </c>
       <c r="K20">
-        <v>0.9982482798998438</v>
+        <v>1.000377562902649</v>
       </c>
       <c r="L20">
-        <v>0.9817915244071103</v>
+        <v>0.9840448474381689</v>
       </c>
       <c r="M20">
-        <v>0.9262387017741982</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9278676589955612</v>
+      </c>
+      <c r="N20">
+        <v>0.9907126949419631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.944690968521413</v>
+        <v>0.9474150858853396</v>
       </c>
       <c r="D21">
-        <v>0.9737269084055782</v>
+        <v>0.9759341237937003</v>
       </c>
       <c r="E21">
-        <v>0.9560652583716568</v>
+        <v>0.9584050146874736</v>
       </c>
       <c r="F21">
-        <v>0.8874061756114335</v>
+        <v>0.8891974131322213</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.01768009623043</v>
+        <v>1.018938459059894</v>
       </c>
       <c r="J21">
-        <v>0.9766980475789477</v>
+        <v>0.9792886395395344</v>
       </c>
       <c r="K21">
-        <v>0.9892237345553863</v>
+        <v>0.9913862401044823</v>
       </c>
       <c r="L21">
-        <v>0.9719296967416968</v>
+        <v>0.9742197220919732</v>
       </c>
       <c r="M21">
-        <v>0.9048885004909658</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9066332263910041</v>
+      </c>
+      <c r="N21">
+        <v>0.9806793417336573</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9360986935651782</v>
+        <v>0.9388633495974897</v>
       </c>
       <c r="D22">
-        <v>0.9668770309477867</v>
+        <v>0.9691138424193975</v>
       </c>
       <c r="E22">
-        <v>0.9486252162213503</v>
+        <v>0.9509976018748099</v>
       </c>
       <c r="F22">
-        <v>0.8713573516089047</v>
+        <v>0.8732514543195116</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.013631510790377</v>
+        <v>1.014909195350298</v>
       </c>
       <c r="J22">
-        <v>0.9699243901852184</v>
+        <v>0.9725428722820585</v>
       </c>
       <c r="K22">
-        <v>0.9831345113916354</v>
+        <v>0.9853230365362889</v>
       </c>
       <c r="L22">
-        <v>0.9652880654919804</v>
+        <v>0.9676065872306827</v>
       </c>
       <c r="M22">
-        <v>0.8899948216867762</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8918347933424688</v>
+      </c>
+      <c r="N22">
+        <v>0.9739239947129258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9407118940373832</v>
+        <v>0.9434542494909628</v>
       </c>
       <c r="D23">
-        <v>0.9705551435699239</v>
+        <v>0.9727756338854975</v>
       </c>
       <c r="E23">
-        <v>0.9526192328091854</v>
+        <v>0.9549736516143642</v>
       </c>
       <c r="F23">
-        <v>0.8800393750436782</v>
+        <v>0.8818760306876028</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01581108928652</v>
+        <v>1.017078068077</v>
       </c>
       <c r="J23">
-        <v>0.9735629465618766</v>
+        <v>0.9761660147503136</v>
       </c>
       <c r="K23">
-        <v>0.9864064370328326</v>
+        <v>0.9885805817379993</v>
       </c>
       <c r="L23">
-        <v>0.9688554166344006</v>
+        <v>0.9711582160605299</v>
       </c>
       <c r="M23">
-        <v>0.8980518284909867</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8998386220819939</v>
+      </c>
+      <c r="N23">
+        <v>0.9775522824590659</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.957684404612909</v>
+        <v>0.960354644325646</v>
       </c>
       <c r="D24">
-        <v>0.9840808674263437</v>
+        <v>0.9862492488177738</v>
       </c>
       <c r="E24">
-        <v>0.9673239818363992</v>
+        <v>0.9696206031811313</v>
       </c>
       <c r="F24">
-        <v>0.9107771501145082</v>
+        <v>0.912441728911234</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023716260964366</v>
+        <v>1.024949896956813</v>
       </c>
       <c r="J24">
-        <v>0.9869146229761744</v>
+        <v>0.9894691044462832</v>
       </c>
       <c r="K24">
-        <v>0.9983934297229505</v>
+        <v>1.000522224331478</v>
       </c>
       <c r="L24">
-        <v>0.9819502985557462</v>
+        <v>0.9842030793703996</v>
       </c>
       <c r="M24">
-        <v>0.9265759316766978</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9282032298975439</v>
+      </c>
+      <c r="N24">
+        <v>0.9908742640682896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9754385103353326</v>
+        <v>0.9780469975601436</v>
       </c>
       <c r="D25">
-        <v>0.998224308831215</v>
+        <v>1.000348910124521</v>
       </c>
       <c r="E25">
-        <v>0.9827192954839434</v>
+        <v>0.9849668815297209</v>
       </c>
       <c r="F25">
-        <v>0.9413261429286264</v>
+        <v>0.9428575153941012</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031806121191635</v>
+        <v>1.033012785516965</v>
       </c>
       <c r="J25">
-        <v>1.000821713559821</v>
+        <v>1.003336447382218</v>
       </c>
       <c r="K25">
-        <v>1.010850252801355</v>
+        <v>1.012941812126264</v>
       </c>
       <c r="L25">
-        <v>0.9955919295129676</v>
+        <v>0.9978031379914765</v>
       </c>
       <c r="M25">
-        <v>0.9549091312261592</v>
+        <v>0.9564127790357405</v>
+      </c>
+      <c r="N25">
+        <v>1.004761300221799</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_35/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9909685166531333</v>
+        <v>0.9849676652568345</v>
       </c>
       <c r="D2">
-        <v>1.01064479260884</v>
+        <v>1.006086765656372</v>
       </c>
       <c r="E2">
-        <v>0.9961796490585588</v>
+        <v>0.9928826611729817</v>
       </c>
       <c r="F2">
-        <v>0.9642843141175401</v>
+        <v>0.9625949263842014</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03878775594874</v>
+        <v>1.037404938380964</v>
       </c>
       <c r="J2">
-        <v>1.013422754780659</v>
+        <v>1.007607479227828</v>
       </c>
       <c r="K2">
-        <v>1.021957794094891</v>
+        <v>1.01746194851755</v>
       </c>
       <c r="L2">
-        <v>1.007692465283525</v>
+        <v>1.004442050545189</v>
       </c>
       <c r="M2">
-        <v>0.9762647174377629</v>
+        <v>0.9746011985634194</v>
       </c>
       <c r="N2">
-        <v>1.014861931333663</v>
+        <v>1.009038397422525</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9997874570326117</v>
+        <v>0.9922431043874906</v>
       </c>
       <c r="D3">
-        <v>1.01767068587164</v>
+        <v>1.0117914257445</v>
       </c>
       <c r="E3">
-        <v>1.00383284831879</v>
+        <v>0.9989303761259967</v>
       </c>
       <c r="F3">
-        <v>0.9785956071155608</v>
+        <v>0.9758391223563567</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042671601873593</v>
+        <v>1.040362466995322</v>
       </c>
       <c r="J3">
-        <v>1.020283917861131</v>
+        <v>1.012947487275845</v>
       </c>
       <c r="K3">
-        <v>1.028082351288407</v>
+        <v>1.022275623822834</v>
       </c>
       <c r="L3">
-        <v>1.014416920922158</v>
+        <v>1.009576961308904</v>
       </c>
       <c r="M3">
-        <v>0.9895098905370281</v>
+        <v>0.9867907740628341</v>
       </c>
       <c r="N3">
-        <v>1.021732838052695</v>
+        <v>1.014385988894477</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005265936902883</v>
+        <v>0.996795702414035</v>
       </c>
       <c r="D4">
-        <v>1.022034630170836</v>
+        <v>1.015358978107216</v>
       </c>
       <c r="E4">
-        <v>1.008586757505553</v>
+        <v>1.002720214497662</v>
       </c>
       <c r="F4">
-        <v>0.9873739079633422</v>
+        <v>0.9839903890032604</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045059457058154</v>
+        <v>1.042186540104451</v>
       </c>
       <c r="J4">
-        <v>1.024535891990858</v>
+        <v>1.016281731137995</v>
       </c>
       <c r="K4">
-        <v>1.03187419592035</v>
+        <v>1.025275501629254</v>
       </c>
       <c r="L4">
-        <v>1.018582640949765</v>
+        <v>1.012785919424339</v>
       </c>
       <c r="M4">
-        <v>0.9976271459282795</v>
+        <v>0.9942859551008006</v>
       </c>
       <c r="N4">
-        <v>1.025990850473394</v>
+        <v>1.017724967765355</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007518664203706</v>
+        <v>0.9986748724890732</v>
       </c>
       <c r="D5">
-        <v>1.023828870671369</v>
+        <v>1.01683103478782</v>
       </c>
       <c r="E5">
-        <v>1.010541368659406</v>
+        <v>1.004285775969479</v>
       </c>
       <c r="F5">
-        <v>0.9909604135711744</v>
+        <v>0.9873263253463346</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046035563719432</v>
+        <v>1.04293329836217</v>
       </c>
       <c r="J5">
-        <v>1.026281830197163</v>
+        <v>1.01765626671124</v>
       </c>
       <c r="K5">
-        <v>1.033430353153066</v>
+        <v>1.026510864674034</v>
       </c>
       <c r="L5">
-        <v>1.020292759905995</v>
+        <v>1.014109439933171</v>
       </c>
       <c r="M5">
-        <v>1.000941803141629</v>
+        <v>0.9973516474952153</v>
       </c>
       <c r="N5">
-        <v>1.027739268112215</v>
+        <v>1.019101455336775</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007894060853119</v>
+        <v>0.998988420742742</v>
       </c>
       <c r="D6">
-        <v>1.024127852056424</v>
+        <v>1.01707662350084</v>
       </c>
       <c r="E6">
-        <v>1.010867074361382</v>
+        <v>1.00454706751166</v>
       </c>
       <c r="F6">
-        <v>0.9915568115186781</v>
+        <v>0.9878813617082652</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046197888500835</v>
+        <v>1.04305754155089</v>
       </c>
       <c r="J6">
-        <v>1.02657263085549</v>
+        <v>1.017885512270612</v>
       </c>
       <c r="K6">
-        <v>1.033689495292379</v>
+        <v>1.026716821783139</v>
       </c>
       <c r="L6">
-        <v>1.020577570058508</v>
+        <v>1.014330213620241</v>
       </c>
       <c r="M6">
-        <v>1.001492889836341</v>
+        <v>0.9978616165820807</v>
       </c>
       <c r="N6">
-        <v>1.028030481740832</v>
+        <v>1.019331026451137</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00529623100425</v>
+        <v>0.9968209455249545</v>
       </c>
       <c r="D7">
-        <v>1.02205875948147</v>
+        <v>1.015378754480082</v>
       </c>
       <c r="E7">
-        <v>1.008613043417252</v>
+        <v>1.002741240082066</v>
       </c>
       <c r="F7">
-        <v>0.9874222254274836</v>
+        <v>0.9840353096390401</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045072606145366</v>
+        <v>1.042196595542027</v>
       </c>
       <c r="J7">
-        <v>1.024559380645131</v>
+        <v>1.016300202307971</v>
       </c>
       <c r="K7">
-        <v>1.031895134704459</v>
+        <v>1.025292107805153</v>
       </c>
       <c r="L7">
-        <v>1.018605649350881</v>
+        <v>1.012803702575598</v>
       </c>
       <c r="M7">
-        <v>0.9976718081524095</v>
+        <v>0.9943272436952942</v>
       </c>
       <c r="N7">
-        <v>1.026014372484251</v>
+        <v>1.01774346516651</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.993998797901904</v>
+        <v>0.9874600731293451</v>
       </c>
       <c r="D8">
-        <v>1.013059085056562</v>
+        <v>1.008041509783038</v>
       </c>
       <c r="E8">
-        <v>0.9988093993552344</v>
+        <v>0.994953264277173</v>
       </c>
       <c r="F8">
-        <v>0.9692282712368823</v>
+        <v>0.9671636621248145</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04012770737444</v>
+        <v>1.038423901163087</v>
       </c>
       <c r="J8">
-        <v>1.015782526127413</v>
+        <v>1.009438392696627</v>
       </c>
       <c r="K8">
-        <v>1.02406502124589</v>
+        <v>1.019113644436316</v>
       </c>
       <c r="L8">
-        <v>1.010005522272318</v>
+        <v>1.006202033574117</v>
       </c>
       <c r="M8">
-        <v>0.9808418541081028</v>
+        <v>0.9788075920771425</v>
       </c>
       <c r="N8">
-        <v>1.017225053826398</v>
+        <v>1.010871910998459</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9721235676844812</v>
+        <v>0.9696531109290025</v>
       </c>
       <c r="D9">
-        <v>0.9956286581913528</v>
+        <v>0.9940660330994847</v>
       </c>
       <c r="E9">
-        <v>0.9798278113045393</v>
+        <v>0.9801875438747233</v>
       </c>
       <c r="F9">
-        <v>0.9328267820775902</v>
+        <v>0.9337087304219951</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030333171460414</v>
+        <v>1.031015526462696</v>
       </c>
       <c r="J9">
-        <v>0.9987006308872406</v>
+        <v>0.9963249661257665</v>
       </c>
       <c r="K9">
-        <v>1.008793057755924</v>
+        <v>1.007256124080285</v>
       </c>
       <c r="L9">
-        <v>0.9932568725155396</v>
+        <v>0.9936104570050235</v>
       </c>
       <c r="M9">
-        <v>0.9471126026857417</v>
+        <v>0.9479774335049372</v>
       </c>
       <c r="N9">
-        <v>1.000118900335664</v>
+        <v>0.997739861857736</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9558307969678982</v>
+        <v>0.9566917949416194</v>
       </c>
       <c r="D10">
-        <v>0.9826433806696557</v>
+        <v>0.9838782799037371</v>
       </c>
       <c r="E10">
-        <v>0.9656985497246021</v>
+        <v>0.9694801408050427</v>
       </c>
       <c r="F10">
-        <v>0.9044237673655616</v>
+        <v>0.9079536127127434</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022859464893538</v>
+        <v>1.025436424331223</v>
       </c>
       <c r="J10">
-        <v>0.9859134815687368</v>
+        <v>0.9867356765581177</v>
       </c>
       <c r="K10">
-        <v>0.9973332487139789</v>
+        <v>0.998544848414768</v>
       </c>
       <c r="L10">
-        <v>0.9807160332446928</v>
+        <v>0.9844232074575148</v>
       </c>
       <c r="M10">
-        <v>0.9207634267745565</v>
+        <v>0.924210619216383</v>
       </c>
       <c r="N10">
-        <v>0.9873135917984214</v>
+        <v>0.9881369543989941</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9482518275876354</v>
+        <v>0.9507604430808925</v>
       </c>
       <c r="D11">
-        <v>0.9766012922976421</v>
+        <v>0.9792108079765998</v>
       </c>
       <c r="E11">
-        <v>0.9591300159249296</v>
+        <v>0.9645914107582212</v>
       </c>
       <c r="F11">
-        <v>0.8907307688343998</v>
+        <v>0.8956729899299762</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019330225382466</v>
+        <v>1.022829024754966</v>
       </c>
       <c r="J11">
-        <v>0.9799479227818571</v>
+        <v>0.9823354775574419</v>
       </c>
       <c r="K11">
-        <v>0.9919783887395992</v>
+        <v>0.9945357238041654</v>
       </c>
       <c r="L11">
-        <v>0.9748661525218331</v>
+        <v>0.9802134682968692</v>
       </c>
       <c r="M11">
-        <v>0.9080562517432593</v>
+        <v>0.9128726363337951</v>
       </c>
       <c r="N11">
-        <v>0.9813395612338048</v>
+        <v>0.9837305066110278</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9453441907454141</v>
+        <v>0.9485026990041554</v>
       </c>
       <c r="D12">
-        <v>0.9742828064547578</v>
+        <v>0.9774330736690224</v>
       </c>
       <c r="E12">
-        <v>0.9566108393894208</v>
+        <v>0.9627323604257417</v>
       </c>
       <c r="F12">
-        <v>0.8853827068090916</v>
+        <v>0.8909041322302602</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.01796699339117</v>
+        <v>1.021827116848778</v>
       </c>
       <c r="J12">
-        <v>0.9776563719541161</v>
+        <v>0.9806585537561697</v>
       </c>
       <c r="K12">
-        <v>0.9899198685344066</v>
+        <v>0.9930057787929701</v>
       </c>
       <c r="L12">
-        <v>0.9726193497978564</v>
+        <v>0.9786101583127125</v>
       </c>
       <c r="M12">
-        <v>0.903092987531306</v>
+        <v>0.9084692987348459</v>
       </c>
       <c r="N12">
-        <v>0.979044756141044</v>
+        <v>0.982051201385612</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9459723392964001</v>
+        <v>0.948989587373797</v>
       </c>
       <c r="D13">
-        <v>0.9747837046414299</v>
+        <v>0.9778165015390757</v>
       </c>
       <c r="E13">
-        <v>0.957155027145138</v>
+        <v>0.9631331848945385</v>
       </c>
       <c r="F13">
-        <v>0.8865428046163972</v>
+        <v>0.8919372002000062</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018261942582906</v>
+        <v>1.022043630627328</v>
       </c>
       <c r="J13">
-        <v>0.9781515615092794</v>
+        <v>0.9810202817550555</v>
       </c>
       <c r="K13">
-        <v>0.9903647775425219</v>
+        <v>0.9933359007774536</v>
       </c>
       <c r="L13">
-        <v>0.9731048514522839</v>
+        <v>0.978955958185857</v>
       </c>
       <c r="M13">
-        <v>0.9041696172833139</v>
+        <v>0.9094232029517986</v>
       </c>
       <c r="N13">
-        <v>0.9795406489221749</v>
+        <v>0.9824134430797468</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9480134620042963</v>
+        <v>0.9505749749346871</v>
       </c>
       <c r="D14">
-        <v>0.9764112360556999</v>
+        <v>0.9790647954656974</v>
       </c>
       <c r="E14">
-        <v>0.9589234783282257</v>
+        <v>0.9644386565815983</v>
       </c>
       <c r="F14">
-        <v>0.8902944156382471</v>
+        <v>0.895283288811311</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019218665351408</v>
+        <v>1.022746919864201</v>
       </c>
       <c r="J14">
-        <v>0.9797601239767513</v>
+        <v>0.9821977645751705</v>
       </c>
       <c r="K14">
-        <v>0.9918097208614065</v>
+        <v>0.9944101247843703</v>
       </c>
       <c r="L14">
-        <v>0.9746820132209039</v>
+        <v>0.9800817789388119</v>
       </c>
       <c r="M14">
-        <v>0.9076512962755646</v>
+        <v>0.9125128134090732</v>
       </c>
       <c r="N14">
-        <v>0.9811514957328552</v>
+        <v>0.9835925980605253</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9492583315507775</v>
+        <v>0.9515443260208378</v>
       </c>
       <c r="D15">
-        <v>0.9774037884641419</v>
+        <v>0.9798278854442298</v>
       </c>
       <c r="E15">
-        <v>0.9600021595856011</v>
+        <v>0.9652371025944358</v>
       </c>
       <c r="F15">
-        <v>0.8925692920663294</v>
+        <v>0.8973161059998249</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019800906722022</v>
+        <v>1.02317565164582</v>
       </c>
       <c r="J15">
-        <v>0.9807407884648951</v>
+        <v>0.982917439957899</v>
       </c>
       <c r="K15">
-        <v>0.9926904209532396</v>
+        <v>0.9950664082528261</v>
       </c>
       <c r="L15">
-        <v>0.975643582180215</v>
+        <v>0.9807700180012344</v>
       </c>
       <c r="M15">
-        <v>0.9097624777860422</v>
+        <v>0.9143897561579603</v>
       </c>
       <c r="N15">
-        <v>0.9821335528770562</v>
+        <v>0.9843132954648451</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9563216620452881</v>
+        <v>0.9570781859594497</v>
       </c>
       <c r="D16">
-        <v>0.9830346583369008</v>
+        <v>0.9841822067727356</v>
       </c>
       <c r="E16">
-        <v>0.9661240709898171</v>
+        <v>0.9697988536834483</v>
       </c>
       <c r="F16">
-        <v>0.905299111820157</v>
+        <v>0.9087419187071558</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02308686615432</v>
+        <v>1.025605067567268</v>
       </c>
       <c r="J16">
-        <v>0.986299476461895</v>
+        <v>0.9870220609047212</v>
       </c>
       <c r="K16">
-        <v>0.9976795345187746</v>
+        <v>0.9988055154292032</v>
       </c>
       <c r="L16">
-        <v>0.9810945736882226</v>
+        <v>0.9846973288671683</v>
       </c>
       <c r="M16">
-        <v>0.921575694530793</v>
+        <v>0.9249383278681091</v>
       </c>
       <c r="N16">
-        <v>0.9877001348486016</v>
+        <v>0.9884237454442184</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9606034546041485</v>
+        <v>0.9604597976778556</v>
       </c>
       <c r="D17">
-        <v>0.9864475600940387</v>
+        <v>0.986841492576443</v>
       </c>
       <c r="E17">
-        <v>0.9698363413988484</v>
+        <v>0.9725894319867385</v>
       </c>
       <c r="F17">
-        <v>0.9128795863120406</v>
+        <v>0.9155839294290865</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025064526043255</v>
+        <v>1.027074810286243</v>
       </c>
       <c r="J17">
-        <v>0.9896645494829516</v>
+        <v>0.9895270815965398</v>
       </c>
       <c r="K17">
-        <v>1.000697459936126</v>
+        <v>1.001084239951969</v>
       </c>
       <c r="L17">
-        <v>0.9843947596829806</v>
+        <v>0.9870957655004425</v>
       </c>
       <c r="M17">
-        <v>0.9286094859852226</v>
+        <v>0.9312538197112575</v>
       </c>
       <c r="N17">
-        <v>0.9910699866593279</v>
+        <v>0.9909323235527493</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9630514813250816</v>
+        <v>0.9624019735130457</v>
       </c>
       <c r="D18">
-        <v>0.9883986807887152</v>
+        <v>0.9883683355785929</v>
       </c>
       <c r="E18">
-        <v>0.9719591130728376</v>
+        <v>0.9741931912169915</v>
       </c>
       <c r="F18">
-        <v>0.9171709535463949</v>
+        <v>0.9194689554024519</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026190455030098</v>
+        <v>1.02791396791836</v>
       </c>
       <c r="J18">
-        <v>0.9915868858438667</v>
+        <v>0.9909647035728045</v>
       </c>
       <c r="K18">
-        <v>1.00242071871638</v>
+        <v>1.002390913405977</v>
       </c>
       <c r="L18">
-        <v>0.9862800839305547</v>
+        <v>0.988472766001685</v>
       </c>
       <c r="M18">
-        <v>0.9325909495265036</v>
+        <v>0.9348393630990426</v>
       </c>
       <c r="N18">
-        <v>0.9929950529583705</v>
+        <v>0.9923719871171182</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9638781603762748</v>
+        <v>0.9630592497304786</v>
       </c>
       <c r="D19">
-        <v>0.9890575395693952</v>
+        <v>0.9888849789171034</v>
       </c>
       <c r="E19">
-        <v>0.9726760112243467</v>
+        <v>0.974736110905786</v>
       </c>
       <c r="F19">
-        <v>0.9186134091906901</v>
+        <v>0.9207766565698022</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026569896036493</v>
+        <v>1.028197145386876</v>
       </c>
       <c r="J19">
-        <v>0.9922357826028875</v>
+        <v>0.991451045854586</v>
       </c>
       <c r="K19">
-        <v>1.003002291878992</v>
+        <v>1.002832780165502</v>
       </c>
       <c r="L19">
-        <v>0.9869164918118389</v>
+        <v>0.9889386897489368</v>
       </c>
       <c r="M19">
-        <v>0.9339291563227651</v>
+        <v>0.9360461641782089</v>
       </c>
       <c r="N19">
-        <v>0.9936448712252187</v>
+        <v>0.992859020060724</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9601492626388894</v>
+        <v>0.9601001558478744</v>
       </c>
       <c r="D20">
-        <v>0.9860855510371287</v>
+        <v>0.9865587227385562</v>
       </c>
       <c r="E20">
-        <v>0.9694425229986392</v>
+        <v>0.9722925392569408</v>
       </c>
       <c r="F20">
-        <v>0.9120800577150584</v>
+        <v>0.9148610237392594</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024855248908038</v>
+        <v>1.026919024057241</v>
       </c>
       <c r="J20">
-        <v>0.98930776444127</v>
+        <v>0.9892607825112222</v>
       </c>
       <c r="K20">
-        <v>1.000377562902649</v>
+        <v>1.000842111409807</v>
       </c>
       <c r="L20">
-        <v>0.9840448474381689</v>
+        <v>0.9868407392534481</v>
       </c>
       <c r="M20">
-        <v>0.9278676589955612</v>
+        <v>0.930586596511105</v>
       </c>
       <c r="N20">
-        <v>0.9907126949419631</v>
+        <v>0.9906656462921863</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9474150858853396</v>
+        <v>0.950109686043958</v>
       </c>
       <c r="D21">
-        <v>0.9759341237937003</v>
+        <v>0.9786984714150164</v>
       </c>
       <c r="E21">
-        <v>0.9584050146874736</v>
+        <v>0.964055467876153</v>
       </c>
       <c r="F21">
-        <v>0.8891974131322213</v>
+        <v>0.8943040405162765</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018938459059894</v>
+        <v>1.022540784903374</v>
       </c>
       <c r="J21">
-        <v>0.9792886395395344</v>
+        <v>0.9818522472163045</v>
       </c>
       <c r="K21">
-        <v>0.9913862401044823</v>
+        <v>0.9940949667242472</v>
       </c>
       <c r="L21">
-        <v>0.9742197220919732</v>
+        <v>0.9797513916925902</v>
       </c>
       <c r="M21">
-        <v>0.9066332263910041</v>
+        <v>0.91160863629413</v>
       </c>
       <c r="N21">
-        <v>0.9806793417336573</v>
+        <v>0.9832465900273784</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9388633495974897</v>
+        <v>0.9435078756123241</v>
       </c>
       <c r="D22">
-        <v>0.9691138424193975</v>
+        <v>0.9734977157732707</v>
       </c>
       <c r="E22">
-        <v>0.9509976018748099</v>
+        <v>0.9586231040721818</v>
       </c>
       <c r="F22">
-        <v>0.8732514543195116</v>
+        <v>0.8801499870350733</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014909195350298</v>
+        <v>1.019591299256782</v>
       </c>
       <c r="J22">
-        <v>0.9725428722820585</v>
+        <v>0.9769446277600592</v>
       </c>
       <c r="K22">
-        <v>0.9853230365362889</v>
+        <v>0.9896131270950507</v>
       </c>
       <c r="L22">
-        <v>0.9676065872306827</v>
+        <v>0.9750613583085573</v>
       </c>
       <c r="M22">
-        <v>0.8918347933424688</v>
+        <v>0.8985388622134122</v>
       </c>
       <c r="N22">
-        <v>0.9739239947129258</v>
+        <v>0.9783320011885934</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9434542494909628</v>
+        <v>0.947040681335139</v>
       </c>
       <c r="D23">
-        <v>0.9727756338854975</v>
+        <v>0.9762815355546829</v>
       </c>
       <c r="E23">
-        <v>0.9549736516143642</v>
+        <v>0.9615290520441077</v>
       </c>
       <c r="F23">
-        <v>0.8818760306876028</v>
+        <v>0.8877862458113511</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017078068077</v>
+        <v>1.021175467860137</v>
       </c>
       <c r="J23">
-        <v>0.9761660147503136</v>
+        <v>0.9795720477911749</v>
       </c>
       <c r="K23">
-        <v>0.9885805817379993</v>
+        <v>0.9920138754280442</v>
       </c>
       <c r="L23">
-        <v>0.9711582160605299</v>
+        <v>0.9775716584367804</v>
       </c>
       <c r="M23">
-        <v>0.8998386220819939</v>
+        <v>0.9055902857397604</v>
       </c>
       <c r="N23">
-        <v>0.9775522824590659</v>
+        <v>0.9809631524575227</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.960354644325646</v>
+        <v>0.9602627555422835</v>
       </c>
       <c r="D24">
-        <v>0.9862492488177738</v>
+        <v>0.9866865688664881</v>
       </c>
       <c r="E24">
-        <v>0.9696206031811313</v>
+        <v>0.9724267658961123</v>
       </c>
       <c r="F24">
-        <v>0.912441728911234</v>
+        <v>0.9151879979691258</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024949896956813</v>
+        <v>1.026989472806973</v>
       </c>
       <c r="J24">
-        <v>0.9894691044462832</v>
+        <v>0.9893811838908494</v>
       </c>
       <c r="K24">
-        <v>1.000522224331478</v>
+        <v>1.000951587934863</v>
       </c>
       <c r="L24">
-        <v>0.9842030793703996</v>
+        <v>0.9869560421708728</v>
       </c>
       <c r="M24">
-        <v>0.9282032298975439</v>
+        <v>0.9308883868724972</v>
       </c>
       <c r="N24">
-        <v>0.9908742640682896</v>
+        <v>0.9907862186555825</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9780469975601436</v>
+        <v>0.9744313488960806</v>
       </c>
       <c r="D25">
-        <v>1.000348910124521</v>
+        <v>0.997818393282666</v>
       </c>
       <c r="E25">
-        <v>0.9849668815297209</v>
+        <v>0.9841434026961092</v>
       </c>
       <c r="F25">
-        <v>0.9428575153941012</v>
+        <v>0.9428825666389697</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033012785516965</v>
+        <v>1.033032535619828</v>
       </c>
       <c r="J25">
-        <v>1.003336447382218</v>
+        <v>0.9998509396657201</v>
       </c>
       <c r="K25">
-        <v>1.012941812126264</v>
+        <v>1.010450670552213</v>
       </c>
       <c r="L25">
-        <v>0.9978031379914765</v>
+        <v>0.9969929625457742</v>
       </c>
       <c r="M25">
-        <v>0.9564127790357405</v>
+        <v>0.9564373777149777</v>
       </c>
       <c r="N25">
-        <v>1.004761300221799</v>
+        <v>1.001270842684551</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_35/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9849676652568345</v>
+        <v>1.020292071153478</v>
       </c>
       <c r="D2">
-        <v>1.006086765656372</v>
+        <v>1.041159339452803</v>
       </c>
       <c r="E2">
-        <v>0.9928826611729817</v>
+        <v>1.034862547161058</v>
       </c>
       <c r="F2">
-        <v>0.9625949263842014</v>
+        <v>1.047803907271785</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037404938380964</v>
+        <v>1.058479892265068</v>
       </c>
       <c r="J2">
-        <v>1.007607479227828</v>
+        <v>1.041882338059598</v>
       </c>
       <c r="K2">
-        <v>1.01746194851755</v>
+        <v>1.052073561857169</v>
       </c>
       <c r="L2">
-        <v>1.004442050545189</v>
+        <v>1.045856652241544</v>
       </c>
       <c r="M2">
-        <v>0.9746011985634194</v>
+        <v>1.058635131752213</v>
       </c>
       <c r="N2">
-        <v>1.009038397422525</v>
+        <v>1.017746493406386</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9922431043874906</v>
+        <v>1.024011700560278</v>
       </c>
       <c r="D3">
-        <v>1.0117914257445</v>
+        <v>1.044043357653146</v>
       </c>
       <c r="E3">
-        <v>0.9989303761259967</v>
+        <v>1.037908956225009</v>
       </c>
       <c r="F3">
-        <v>0.9758391223563567</v>
+        <v>1.051121135635134</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040362466995322</v>
+        <v>1.059731681109051</v>
       </c>
       <c r="J3">
-        <v>1.012947487275845</v>
+        <v>1.043868517776509</v>
       </c>
       <c r="K3">
-        <v>1.022275623822834</v>
+        <v>1.054142081823269</v>
       </c>
       <c r="L3">
-        <v>1.009576961308904</v>
+        <v>1.048078716215451</v>
       </c>
       <c r="M3">
-        <v>0.9867907740628341</v>
+        <v>1.061139169751203</v>
       </c>
       <c r="N3">
-        <v>1.014385988894477</v>
+        <v>1.018411610784103</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.996795702414035</v>
+        <v>1.02637638654372</v>
       </c>
       <c r="D4">
-        <v>1.015358978107216</v>
+        <v>1.045879163773629</v>
       </c>
       <c r="E4">
-        <v>1.002720214497662</v>
+        <v>1.03985091506052</v>
       </c>
       <c r="F4">
-        <v>0.9839903890032604</v>
+        <v>1.053234874178448</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042186540104451</v>
+        <v>1.060518274542103</v>
       </c>
       <c r="J4">
-        <v>1.016281731137995</v>
+        <v>1.045128628078364</v>
       </c>
       <c r="K4">
-        <v>1.025275501629254</v>
+        <v>1.055453690138258</v>
       </c>
       <c r="L4">
-        <v>1.012785919424339</v>
+        <v>1.049491037106265</v>
       </c>
       <c r="M4">
-        <v>0.9942859551008006</v>
+        <v>1.062730605402019</v>
       </c>
       <c r="N4">
-        <v>1.017724967765355</v>
+        <v>1.018833535546391</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9986748724890732</v>
+        <v>1.027360697833247</v>
       </c>
       <c r="D5">
-        <v>1.01683103478782</v>
+        <v>1.046643853747624</v>
       </c>
       <c r="E5">
-        <v>1.004285775969479</v>
+        <v>1.040660496318974</v>
       </c>
       <c r="F5">
-        <v>0.9873263253463346</v>
+        <v>1.054115865552723</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04293329836217</v>
+        <v>1.06084345586678</v>
       </c>
       <c r="J5">
-        <v>1.01765626671124</v>
+        <v>1.045652514363307</v>
       </c>
       <c r="K5">
-        <v>1.026510864674034</v>
+        <v>1.055998802772132</v>
       </c>
       <c r="L5">
-        <v>1.014109439933171</v>
+        <v>1.050078819512063</v>
       </c>
       <c r="M5">
-        <v>0.9973516474952153</v>
+        <v>1.063392905986979</v>
       </c>
       <c r="N5">
-        <v>1.019101455336775</v>
+        <v>1.019008934989282</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.998988420742742</v>
+        <v>1.027525401445285</v>
       </c>
       <c r="D6">
-        <v>1.01707662350084</v>
+        <v>1.046771838378735</v>
       </c>
       <c r="E6">
-        <v>1.00454706751166</v>
+        <v>1.040796034125539</v>
       </c>
       <c r="F6">
-        <v>0.9878813617082652</v>
+        <v>1.054263346784472</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04305754155089</v>
+        <v>1.060897735368598</v>
       </c>
       <c r="J6">
-        <v>1.017885512270612</v>
+        <v>1.045740137278504</v>
       </c>
       <c r="K6">
-        <v>1.026716821783139</v>
+        <v>1.056089964944024</v>
       </c>
       <c r="L6">
-        <v>1.014330213620241</v>
+        <v>1.050177165627105</v>
       </c>
       <c r="M6">
-        <v>0.9978616165820807</v>
+        <v>1.063503718712893</v>
       </c>
       <c r="N6">
-        <v>1.019331026451137</v>
+        <v>1.019038270637965</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9968209455249545</v>
+        <v>1.026389577099168</v>
       </c>
       <c r="D7">
-        <v>1.015378754480082</v>
+        <v>1.045889409192432</v>
       </c>
       <c r="E7">
-        <v>1.002741240082066</v>
+        <v>1.039861759269302</v>
       </c>
       <c r="F7">
-        <v>0.9840353096390401</v>
+        <v>1.053246675711544</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042196595542027</v>
+        <v>1.060522641123439</v>
       </c>
       <c r="J7">
-        <v>1.016300202307971</v>
+        <v>1.045135651131903</v>
       </c>
       <c r="K7">
-        <v>1.025292107805153</v>
+        <v>1.055460998478907</v>
       </c>
       <c r="L7">
-        <v>1.012803702575598</v>
+        <v>1.049498914298797</v>
       </c>
       <c r="M7">
-        <v>0.9943272436952942</v>
+        <v>1.062739481357739</v>
       </c>
       <c r="N7">
-        <v>1.01774346516651</v>
+        <v>1.018835886954419</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9874600731293451</v>
+        <v>1.021558046557438</v>
       </c>
       <c r="D8">
-        <v>1.008041509783038</v>
+        <v>1.042140402244978</v>
       </c>
       <c r="E8">
-        <v>0.994953264277173</v>
+        <v>1.035898272597859</v>
       </c>
       <c r="F8">
-        <v>0.9671636621248145</v>
+        <v>1.048931886916703</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038423901163087</v>
+        <v>1.058907845677326</v>
       </c>
       <c r="J8">
-        <v>1.009438392696627</v>
+        <v>1.042558856227084</v>
       </c>
       <c r="K8">
-        <v>1.019113644436316</v>
+        <v>1.052778278102012</v>
       </c>
       <c r="L8">
-        <v>1.006202033574117</v>
+        <v>1.046612980848622</v>
       </c>
       <c r="M8">
-        <v>0.9788075920771425</v>
+        <v>1.059487457841937</v>
       </c>
       <c r="N8">
-        <v>1.010871910998459</v>
+        <v>1.017973050618234</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9696531109290025</v>
+        <v>1.012707673519589</v>
       </c>
       <c r="D9">
-        <v>0.9940660330994847</v>
+        <v>1.035293220602668</v>
       </c>
       <c r="E9">
-        <v>0.9801875438747233</v>
+        <v>1.028681045825462</v>
       </c>
       <c r="F9">
-        <v>0.9337087304219951</v>
+        <v>1.041068106743715</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031015526462696</v>
+        <v>1.055878517686003</v>
       </c>
       <c r="J9">
-        <v>0.9963249661257665</v>
+        <v>1.037819535785009</v>
       </c>
       <c r="K9">
-        <v>1.007256124080285</v>
+        <v>1.047838513727562</v>
       </c>
       <c r="L9">
-        <v>0.9936104570050235</v>
+        <v>1.041325321485564</v>
       </c>
       <c r="M9">
-        <v>0.9479774335049372</v>
+        <v>1.053528256923644</v>
       </c>
       <c r="N9">
-        <v>0.997739861857736</v>
+        <v>1.016385768110874</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9566917949416194</v>
+        <v>1.006561045133111</v>
       </c>
       <c r="D10">
-        <v>0.9838782799037371</v>
+        <v>1.030553945625751</v>
       </c>
       <c r="E10">
-        <v>0.9694801408050427</v>
+        <v>1.023699898200402</v>
       </c>
       <c r="F10">
-        <v>0.9079536127127434</v>
+        <v>1.035635923273153</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025436424331223</v>
+        <v>1.053728516794494</v>
       </c>
       <c r="J10">
-        <v>0.9867356765581177</v>
+        <v>1.034516746790658</v>
       </c>
       <c r="K10">
-        <v>0.998544848414768</v>
+        <v>1.044392615157143</v>
       </c>
       <c r="L10">
-        <v>0.9844232074575148</v>
+        <v>1.037654034152725</v>
       </c>
       <c r="M10">
-        <v>0.924210619216383</v>
+        <v>1.049390249076497</v>
       </c>
       <c r="N10">
-        <v>0.9881369543989941</v>
+        <v>1.015279501209665</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9507604430808925</v>
+        <v>1.003836285599256</v>
       </c>
       <c r="D11">
-        <v>0.9792108079765998</v>
+        <v>1.028457450052102</v>
       </c>
       <c r="E11">
-        <v>0.9645914107582212</v>
+        <v>1.02149970125801</v>
       </c>
       <c r="F11">
-        <v>0.8956729899299762</v>
+        <v>1.033235324151436</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022829024754966</v>
+        <v>1.052764977503685</v>
       </c>
       <c r="J11">
-        <v>0.9823354775574419</v>
+        <v>1.033050336899396</v>
       </c>
       <c r="K11">
-        <v>0.9945357238041654</v>
+        <v>1.042861940295923</v>
       </c>
       <c r="L11">
-        <v>0.9802134682968692</v>
+        <v>1.036027243501796</v>
       </c>
       <c r="M11">
-        <v>0.9128726363337951</v>
+        <v>1.047556556643331</v>
       </c>
       <c r="N11">
-        <v>0.9837305066110278</v>
+        <v>1.014788329256024</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9485026990041554</v>
+        <v>1.002814257991057</v>
       </c>
       <c r="D12">
-        <v>0.9774330736690224</v>
+        <v>1.027671787675965</v>
       </c>
       <c r="E12">
-        <v>0.9627323604257417</v>
+        <v>1.020675664553386</v>
       </c>
       <c r="F12">
-        <v>0.8909041322302602</v>
+        <v>1.032336050822071</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021827116848778</v>
+        <v>1.052402034952366</v>
       </c>
       <c r="J12">
-        <v>0.9806585537561697</v>
+        <v>1.032499989083837</v>
       </c>
       <c r="K12">
-        <v>0.9930057787929701</v>
+        <v>1.042287372133215</v>
       </c>
       <c r="L12">
-        <v>0.9786101583127125</v>
+        <v>1.035417189579225</v>
       </c>
       <c r="M12">
-        <v>0.9084692987348459</v>
+        <v>1.046868901272734</v>
       </c>
       <c r="N12">
-        <v>0.982051201385612</v>
+        <v>1.014603993355386</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.948989587373797</v>
+        <v>1.003033942951839</v>
       </c>
       <c r="D13">
-        <v>0.9778165015390757</v>
+        <v>1.027840632975475</v>
       </c>
       <c r="E13">
-        <v>0.9631331848945385</v>
+        <v>1.020852734880502</v>
       </c>
       <c r="F13">
-        <v>0.8919372002000062</v>
+        <v>1.032529296319506</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022043630627328</v>
+        <v>1.052480117936838</v>
       </c>
       <c r="J13">
-        <v>0.9810202817550555</v>
+        <v>1.032618300040621</v>
       </c>
       <c r="K13">
-        <v>0.9933359007774536</v>
+        <v>1.04241089432153</v>
       </c>
       <c r="L13">
-        <v>0.978955958185857</v>
+        <v>1.035548313916207</v>
       </c>
       <c r="M13">
-        <v>0.9094232029517986</v>
+        <v>1.047016705713279</v>
       </c>
       <c r="N13">
-        <v>0.9824134430797468</v>
+        <v>1.014643620803255</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9505749749346871</v>
+        <v>1.003752009637138</v>
       </c>
       <c r="D14">
-        <v>0.9790647954656974</v>
+        <v>1.02839264992509</v>
       </c>
       <c r="E14">
-        <v>0.9644386565815983</v>
+        <v>1.021431726198531</v>
       </c>
       <c r="F14">
-        <v>0.895283288811311</v>
+        <v>1.033161146485848</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022746919864201</v>
+        <v>1.052735080276475</v>
       </c>
       <c r="J14">
-        <v>0.9821977645751705</v>
+        <v>1.033004961633818</v>
       </c>
       <c r="K14">
-        <v>0.9944101247843703</v>
+        <v>1.042814570123335</v>
       </c>
       <c r="L14">
-        <v>0.9800817789388119</v>
+        <v>1.03597693569767</v>
       </c>
       <c r="M14">
-        <v>0.9125128134090732</v>
+        <v>1.047499849714574</v>
       </c>
       <c r="N14">
-        <v>0.9835925980605253</v>
+        <v>1.014773131006339</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9515443260208378</v>
+        <v>1.004193105019906</v>
       </c>
       <c r="D15">
-        <v>0.9798278854442298</v>
+        <v>1.028731839220257</v>
       </c>
       <c r="E15">
-        <v>0.9652371025944358</v>
+        <v>1.021787554198715</v>
       </c>
       <c r="F15">
-        <v>0.8973161059998249</v>
+        <v>1.033549435794407</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02317565164582</v>
+        <v>1.052891498449307</v>
       </c>
       <c r="J15">
-        <v>0.982917439957899</v>
+        <v>1.033242440492429</v>
       </c>
       <c r="K15">
-        <v>0.9950664082528261</v>
+        <v>1.043062485558047</v>
       </c>
       <c r="L15">
-        <v>0.9807700180012344</v>
+        <v>1.036240249593579</v>
       </c>
       <c r="M15">
-        <v>0.9143897561579603</v>
+        <v>1.047796656497504</v>
       </c>
       <c r="N15">
-        <v>0.9843132954648451</v>
+        <v>1.014852673634956</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9570781859594497</v>
+        <v>1.006740510027611</v>
       </c>
       <c r="D16">
-        <v>0.9841822067727356</v>
+        <v>1.030692126143692</v>
       </c>
       <c r="E16">
-        <v>0.9697988536834483</v>
+        <v>1.023844981922653</v>
       </c>
       <c r="F16">
-        <v>0.9087419187071558</v>
+        <v>1.035794196868047</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025605067567268</v>
+        <v>1.053791765031135</v>
       </c>
       <c r="J16">
-        <v>0.9870220609047212</v>
+        <v>1.034613285768667</v>
       </c>
       <c r="K16">
-        <v>0.9988055154292032</v>
+        <v>1.044493370418852</v>
       </c>
       <c r="L16">
-        <v>0.9846973288671683</v>
+        <v>1.037761198933687</v>
       </c>
       <c r="M16">
-        <v>0.9249383278681091</v>
+        <v>1.04951104170481</v>
       </c>
       <c r="N16">
-        <v>0.9884237454442184</v>
+        <v>1.015311837011583</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9604597976778556</v>
+        <v>1.008321204747918</v>
       </c>
       <c r="D17">
-        <v>0.986841492576443</v>
+        <v>1.031909702732812</v>
       </c>
       <c r="E17">
-        <v>0.9725894319867385</v>
+        <v>1.025123761545032</v>
       </c>
       <c r="F17">
-        <v>0.9155839294290865</v>
+        <v>1.037189098075508</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027074810286243</v>
+        <v>1.054347655884638</v>
       </c>
       <c r="J17">
-        <v>0.9895270815965398</v>
+        <v>1.035463324707266</v>
       </c>
       <c r="K17">
-        <v>1.001084239951969</v>
+        <v>1.04538045248626</v>
       </c>
       <c r="L17">
-        <v>0.9870957655004425</v>
+        <v>1.03870516769015</v>
       </c>
       <c r="M17">
-        <v>0.9312538197112575</v>
+        <v>1.050575041973179</v>
       </c>
       <c r="N17">
-        <v>0.9909323235527493</v>
+        <v>1.015596558566803</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9624019735130457</v>
+        <v>1.009237126915159</v>
       </c>
       <c r="D18">
-        <v>0.9883683355785929</v>
+        <v>1.032615633327895</v>
       </c>
       <c r="E18">
-        <v>0.9741931912169915</v>
+        <v>1.025865491010935</v>
       </c>
       <c r="F18">
-        <v>0.9194689554024519</v>
+        <v>1.037998069403859</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02791396791836</v>
+        <v>1.054668764981459</v>
       </c>
       <c r="J18">
-        <v>0.9909647035728045</v>
+        <v>1.035955652067929</v>
       </c>
       <c r="K18">
-        <v>1.002390913405977</v>
+        <v>1.045894165090729</v>
       </c>
       <c r="L18">
-        <v>0.988472766001685</v>
+        <v>1.039252204479501</v>
       </c>
       <c r="M18">
-        <v>0.9348393630990426</v>
+        <v>1.051191628996074</v>
       </c>
       <c r="N18">
-        <v>0.9923719871171182</v>
+        <v>1.01576146415681</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9630592497304786</v>
+        <v>1.009548415776379</v>
       </c>
       <c r="D19">
-        <v>0.9888849789171034</v>
+        <v>1.032855622497295</v>
       </c>
       <c r="E19">
-        <v>0.974736110905786</v>
+        <v>1.026117703956369</v>
       </c>
       <c r="F19">
-        <v>0.9207766565698022</v>
+        <v>1.038273127936962</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028197145386876</v>
+        <v>1.054777727874395</v>
       </c>
       <c r="J19">
-        <v>0.991451045854586</v>
+        <v>1.036122937801901</v>
       </c>
       <c r="K19">
-        <v>1.002832780165502</v>
+        <v>1.046068705217307</v>
       </c>
       <c r="L19">
-        <v>0.9889386897489368</v>
+        <v>1.039438131757992</v>
       </c>
       <c r="M19">
-        <v>0.9360461641782089</v>
+        <v>1.05140119350558</v>
       </c>
       <c r="N19">
-        <v>0.992859020060724</v>
+        <v>1.015817496624371</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9601001558478744</v>
+        <v>1.00815224208616</v>
       </c>
       <c r="D20">
-        <v>0.9865587227385562</v>
+        <v>1.031779510927335</v>
       </c>
       <c r="E20">
-        <v>0.9722925392569408</v>
+        <v>1.024986992941883</v>
       </c>
       <c r="F20">
-        <v>0.9148610237392594</v>
+        <v>1.037039921623286</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026919024057241</v>
+        <v>1.054288339118419</v>
       </c>
       <c r="J20">
-        <v>0.9892607825112222</v>
+        <v>1.035372485606124</v>
       </c>
       <c r="K20">
-        <v>1.000842111409807</v>
+        <v>1.045285661937667</v>
       </c>
       <c r="L20">
-        <v>0.9868407392534481</v>
+        <v>1.038604258976978</v>
       </c>
       <c r="M20">
-        <v>0.930586596511105</v>
+        <v>1.050461303000684</v>
       </c>
       <c r="N20">
-        <v>0.9906656462921863</v>
+        <v>1.015566131890923</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.950109686043958</v>
+        <v>1.003540834612548</v>
       </c>
       <c r="D21">
-        <v>0.9786984714150164</v>
+        <v>1.028230288218451</v>
       </c>
       <c r="E21">
-        <v>0.964055467876153</v>
+        <v>1.021261417292634</v>
       </c>
       <c r="F21">
-        <v>0.8943040405162765</v>
+        <v>1.032975294270067</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022540784903374</v>
+        <v>1.052660140605319</v>
       </c>
       <c r="J21">
-        <v>0.9818522472163045</v>
+        <v>1.032891257337683</v>
       </c>
       <c r="K21">
-        <v>0.9940949667242472</v>
+        <v>1.042695865249178</v>
       </c>
       <c r="L21">
-        <v>0.9797513916925902</v>
+        <v>1.035850878945457</v>
       </c>
       <c r="M21">
-        <v>0.91160863629413</v>
+        <v>1.047357758420439</v>
       </c>
       <c r="N21">
-        <v>0.9832465900273784</v>
+        <v>1.014735046287352</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9435078756123241</v>
+        <v>1.000583773062792</v>
       </c>
       <c r="D22">
-        <v>0.9734977157732707</v>
+        <v>1.025958510736869</v>
       </c>
       <c r="E22">
-        <v>0.9586231040721818</v>
+        <v>1.01887959326319</v>
       </c>
       <c r="F22">
-        <v>0.8801499870350733</v>
+        <v>1.030375658976634</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019591299256782</v>
+        <v>1.051607182189984</v>
       </c>
       <c r="J22">
-        <v>0.9769446277600592</v>
+        <v>1.031298364966982</v>
       </c>
       <c r="K22">
-        <v>0.9896131270950507</v>
+        <v>1.041032687430135</v>
       </c>
       <c r="L22">
-        <v>0.9750613583085573</v>
+        <v>1.034086095754628</v>
       </c>
       <c r="M22">
-        <v>0.8985388622134122</v>
+        <v>1.045368465813116</v>
       </c>
       <c r="N22">
-        <v>0.9783320011885934</v>
+        <v>1.01420152282639</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.947040681335139</v>
+        <v>1.002156985693632</v>
       </c>
       <c r="D23">
-        <v>0.9762815355546829</v>
+        <v>1.027166729865165</v>
       </c>
       <c r="E23">
-        <v>0.9615290520441077</v>
+        <v>1.020146074572303</v>
       </c>
       <c r="F23">
-        <v>0.8877862458113511</v>
+        <v>1.031758056731584</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021175467860137</v>
+        <v>1.052168198758267</v>
       </c>
       <c r="J23">
-        <v>0.9795720477911749</v>
+        <v>1.032145972881257</v>
       </c>
       <c r="K23">
-        <v>0.9920138754280442</v>
+        <v>1.041917748323517</v>
       </c>
       <c r="L23">
-        <v>0.9775716584367804</v>
+        <v>1.035024903640422</v>
       </c>
       <c r="M23">
-        <v>0.9055902857397604</v>
+        <v>1.046426711625873</v>
       </c>
       <c r="N23">
-        <v>0.9809631524575227</v>
+        <v>1.014485418553429</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9602627555422835</v>
+        <v>1.008228607768359</v>
       </c>
       <c r="D24">
-        <v>0.9866865688664881</v>
+        <v>1.031838352149949</v>
       </c>
       <c r="E24">
-        <v>0.9724267658961123</v>
+        <v>1.025048805626022</v>
       </c>
       <c r="F24">
-        <v>0.9151879979691258</v>
+        <v>1.037107342391954</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026989472806973</v>
+        <v>1.054315151482057</v>
       </c>
       <c r="J24">
-        <v>0.9893811838908494</v>
+        <v>1.035413542643797</v>
       </c>
       <c r="K24">
-        <v>1.000951587934863</v>
+        <v>1.045328505148224</v>
       </c>
       <c r="L24">
-        <v>0.9869560421708728</v>
+        <v>1.038649866280008</v>
       </c>
       <c r="M24">
-        <v>0.9308883868724972</v>
+        <v>1.050512709171846</v>
       </c>
       <c r="N24">
-        <v>0.9907862186555825</v>
+        <v>1.015579883999763</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9744313488960806</v>
+        <v>1.015037597767543</v>
       </c>
       <c r="D25">
-        <v>0.997818393282666</v>
+        <v>1.037093182691337</v>
       </c>
       <c r="E25">
-        <v>0.9841434026961092</v>
+        <v>1.030575786583521</v>
       </c>
       <c r="F25">
-        <v>0.9428825666389697</v>
+        <v>1.043133407609905</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033032535619828</v>
+        <v>1.056684140829224</v>
       </c>
       <c r="J25">
-        <v>0.9998509396657201</v>
+        <v>1.039069272407302</v>
       </c>
       <c r="K25">
-        <v>1.010450670552213</v>
+        <v>1.049141725114373</v>
       </c>
       <c r="L25">
-        <v>0.9969929625457742</v>
+        <v>1.042717295695742</v>
       </c>
       <c r="M25">
-        <v>0.9564373777149777</v>
+        <v>1.055097099172489</v>
       </c>
       <c r="N25">
-        <v>1.001270842684551</v>
+        <v>1.016804353506377</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_35/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.020292071153478</v>
+        <v>1.041701534829099</v>
       </c>
       <c r="D2">
-        <v>1.041159339452803</v>
+        <v>1.051807231337337</v>
       </c>
       <c r="E2">
-        <v>1.034862547161058</v>
+        <v>1.050689735578913</v>
       </c>
       <c r="F2">
-        <v>1.047803907271785</v>
+        <v>1.063351488991097</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058479892265068</v>
+        <v>1.046884152362405</v>
       </c>
       <c r="J2">
-        <v>1.041882338059598</v>
+        <v>1.046781323366449</v>
       </c>
       <c r="K2">
-        <v>1.052073561857169</v>
+        <v>1.05455771043539</v>
       </c>
       <c r="L2">
-        <v>1.045856652241544</v>
+        <v>1.053443314055529</v>
       </c>
       <c r="M2">
-        <v>1.058635131752213</v>
+        <v>1.066070362796151</v>
       </c>
       <c r="N2">
-        <v>1.017746493406386</v>
+        <v>1.019501132096821</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.024011700560278</v>
+        <v>1.04249508081187</v>
       </c>
       <c r="D3">
-        <v>1.044043357653146</v>
+        <v>1.052445151042215</v>
       </c>
       <c r="E3">
-        <v>1.037908956225009</v>
+        <v>1.051387029630809</v>
       </c>
       <c r="F3">
-        <v>1.051121135635134</v>
+        <v>1.064109725067819</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059731681109051</v>
+        <v>1.047097409653571</v>
       </c>
       <c r="J3">
-        <v>1.043868517776509</v>
+        <v>1.04722178243274</v>
       </c>
       <c r="K3">
-        <v>1.054142081823269</v>
+        <v>1.055008799420326</v>
       </c>
       <c r="L3">
-        <v>1.048078716215451</v>
+        <v>1.053953401648132</v>
       </c>
       <c r="M3">
-        <v>1.061139169751203</v>
+        <v>1.066643735282242</v>
       </c>
       <c r="N3">
-        <v>1.018411610784103</v>
+        <v>1.019648030252441</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.02637638654372</v>
+        <v>1.043009244675728</v>
       </c>
       <c r="D4">
-        <v>1.045879163773629</v>
+        <v>1.052858494436539</v>
       </c>
       <c r="E4">
-        <v>1.03985091506052</v>
+        <v>1.051839193833649</v>
       </c>
       <c r="F4">
-        <v>1.053234874178448</v>
+        <v>1.064601333083946</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060518274542103</v>
+        <v>1.047234450090868</v>
       </c>
       <c r="J4">
-        <v>1.045128628078364</v>
+        <v>1.047506780071183</v>
       </c>
       <c r="K4">
-        <v>1.055453690138258</v>
+        <v>1.055300560231129</v>
       </c>
       <c r="L4">
-        <v>1.049491037106265</v>
+        <v>1.054283751888188</v>
       </c>
       <c r="M4">
-        <v>1.062730605402019</v>
+        <v>1.067015056581838</v>
       </c>
       <c r="N4">
-        <v>1.018833535546391</v>
+        <v>1.019743055842762</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.027360697833247</v>
+        <v>1.043225561643893</v>
       </c>
       <c r="D5">
-        <v>1.046643853747624</v>
+        <v>1.05303239770519</v>
       </c>
       <c r="E5">
-        <v>1.040660496318974</v>
+        <v>1.052029513471146</v>
       </c>
       <c r="F5">
-        <v>1.054115865552723</v>
+        <v>1.064808237218747</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.06084345586678</v>
+        <v>1.047291833236413</v>
       </c>
       <c r="J5">
-        <v>1.045652514363307</v>
+        <v>1.047626589604162</v>
       </c>
       <c r="K5">
-        <v>1.055998802772132</v>
+        <v>1.055423185336707</v>
       </c>
       <c r="L5">
-        <v>1.050078819512063</v>
+        <v>1.054422698876066</v>
       </c>
       <c r="M5">
-        <v>1.063392905986979</v>
+        <v>1.067171232755397</v>
       </c>
       <c r="N5">
-        <v>1.019008934989282</v>
+        <v>1.019782997566594</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.027525401445285</v>
+        <v>1.043261891687908</v>
       </c>
       <c r="D6">
-        <v>1.046771838378735</v>
+        <v>1.053061604612707</v>
       </c>
       <c r="E6">
-        <v>1.040796034125539</v>
+        <v>1.052061482393137</v>
       </c>
       <c r="F6">
-        <v>1.054263346784472</v>
+        <v>1.064842990882829</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060897735368598</v>
+        <v>1.047301454684115</v>
       </c>
       <c r="J6">
-        <v>1.045740137278504</v>
+        <v>1.047646705908644</v>
       </c>
       <c r="K6">
-        <v>1.056089964944024</v>
+        <v>1.055443772762696</v>
       </c>
       <c r="L6">
-        <v>1.050177165627105</v>
+        <v>1.054446032614343</v>
       </c>
       <c r="M6">
-        <v>1.063503718712893</v>
+        <v>1.067197459634484</v>
       </c>
       <c r="N6">
-        <v>1.019038270637965</v>
+        <v>1.019789703531044</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.026389577099168</v>
+        <v>1.043012134477565</v>
       </c>
       <c r="D7">
-        <v>1.045889409192432</v>
+        <v>1.052860817617622</v>
       </c>
       <c r="E7">
-        <v>1.039861759269302</v>
+        <v>1.05184173599351</v>
       </c>
       <c r="F7">
-        <v>1.053246675711544</v>
+        <v>1.064604096837731</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060522641123439</v>
+        <v>1.047235217746862</v>
       </c>
       <c r="J7">
-        <v>1.045135651131903</v>
+        <v>1.047508380987386</v>
       </c>
       <c r="K7">
-        <v>1.055460998478907</v>
+        <v>1.055302198877994</v>
       </c>
       <c r="L7">
-        <v>1.049498914298797</v>
+        <v>1.054285608240389</v>
       </c>
       <c r="M7">
-        <v>1.062739481357739</v>
+        <v>1.067017143132049</v>
       </c>
       <c r="N7">
-        <v>1.018835886954419</v>
+        <v>1.019743589574285</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.021558046557438</v>
+        <v>1.041969574122787</v>
       </c>
       <c r="D8">
-        <v>1.042140402244978</v>
+        <v>1.052022700773578</v>
       </c>
       <c r="E8">
-        <v>1.035898272597859</v>
+        <v>1.050925187661419</v>
       </c>
       <c r="F8">
-        <v>1.048931886916703</v>
+        <v>1.063607534512839</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058907845677326</v>
+        <v>1.046956420083795</v>
       </c>
       <c r="J8">
-        <v>1.042558856227084</v>
+        <v>1.046930179580791</v>
       </c>
       <c r="K8">
-        <v>1.052778278102012</v>
+        <v>1.054710182845255</v>
       </c>
       <c r="L8">
-        <v>1.046612980848622</v>
+        <v>1.053615639679671</v>
       </c>
       <c r="M8">
-        <v>1.059487457841937</v>
+        <v>1.066264071276865</v>
       </c>
       <c r="N8">
-        <v>1.017973050618234</v>
+        <v>1.019550782383017</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.012707673519589</v>
+        <v>1.040137791027427</v>
       </c>
       <c r="D9">
-        <v>1.035293220602668</v>
+        <v>1.050550258630301</v>
       </c>
       <c r="E9">
-        <v>1.028681045825462</v>
+        <v>1.049317617554</v>
       </c>
       <c r="F9">
-        <v>1.041068106743715</v>
+        <v>1.061859054014193</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055878517686003</v>
+        <v>1.046457897680662</v>
       </c>
       <c r="J9">
-        <v>1.037819535785009</v>
+        <v>1.045911307354581</v>
       </c>
       <c r="K9">
-        <v>1.047838513727562</v>
+        <v>1.053666090884811</v>
       </c>
       <c r="L9">
-        <v>1.041325321485564</v>
+        <v>1.052437354921933</v>
       </c>
       <c r="M9">
-        <v>1.053528256923644</v>
+        <v>1.064939521214469</v>
       </c>
       <c r="N9">
-        <v>1.016385768110874</v>
+        <v>1.019210843718926</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.006561045133111</v>
+        <v>1.038920306042679</v>
       </c>
       <c r="D10">
-        <v>1.030553945625751</v>
+        <v>1.049571724045355</v>
       </c>
       <c r="E10">
-        <v>1.023699898200402</v>
+        <v>1.048251070488371</v>
       </c>
       <c r="F10">
-        <v>1.035635923273153</v>
+        <v>1.060698631588554</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053728516794494</v>
+        <v>1.046120732720553</v>
       </c>
       <c r="J10">
-        <v>1.034516746790658</v>
+        <v>1.045232135453146</v>
       </c>
       <c r="K10">
-        <v>1.044392615157143</v>
+        <v>1.052969523087623</v>
       </c>
       <c r="L10">
-        <v>1.037654034152725</v>
+        <v>1.051653460994522</v>
       </c>
       <c r="M10">
-        <v>1.049390249076497</v>
+        <v>1.064058245299311</v>
       </c>
       <c r="N10">
-        <v>1.015279501209665</v>
+        <v>1.018984120926386</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.003836285599256</v>
+        <v>1.03839402384779</v>
       </c>
       <c r="D11">
-        <v>1.028457450052102</v>
+        <v>1.049148766335227</v>
       </c>
       <c r="E11">
-        <v>1.02149970125801</v>
+        <v>1.047790494727386</v>
       </c>
       <c r="F11">
-        <v>1.033235324151436</v>
+        <v>1.060197423863214</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052764977503685</v>
+        <v>1.045973605658849</v>
       </c>
       <c r="J11">
-        <v>1.033050336899396</v>
+        <v>1.044938081803183</v>
       </c>
       <c r="K11">
-        <v>1.042861940295923</v>
+        <v>1.052667800013285</v>
       </c>
       <c r="L11">
-        <v>1.036027243501796</v>
+        <v>1.051314432324949</v>
       </c>
       <c r="M11">
-        <v>1.047556556643331</v>
+        <v>1.06367708204159</v>
       </c>
       <c r="N11">
-        <v>1.014788329256024</v>
+        <v>1.018885930627315</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.002814257991057</v>
+        <v>1.038198675869819</v>
       </c>
       <c r="D12">
-        <v>1.027671787675965</v>
+        <v>1.04899177634282</v>
       </c>
       <c r="E12">
-        <v>1.020675664553386</v>
+        <v>1.047619605684348</v>
       </c>
       <c r="F12">
-        <v>1.032336050822071</v>
+        <v>1.060011444943596</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052402034952366</v>
+        <v>1.045918786904871</v>
       </c>
       <c r="J12">
-        <v>1.032499989083837</v>
+        <v>1.04482886342239</v>
       </c>
       <c r="K12">
-        <v>1.042287372133215</v>
+        <v>1.052555712414563</v>
       </c>
       <c r="L12">
-        <v>1.035417189579225</v>
+        <v>1.051188564056284</v>
       </c>
       <c r="M12">
-        <v>1.046868901272734</v>
+        <v>1.063535568187763</v>
       </c>
       <c r="N12">
-        <v>1.014603993355386</v>
+        <v>1.018849456199141</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.003033942951839</v>
+        <v>1.038240572459099</v>
       </c>
       <c r="D13">
-        <v>1.027840632975475</v>
+        <v>1.049025445977634</v>
       </c>
       <c r="E13">
-        <v>1.020852734880502</v>
+        <v>1.047656253364501</v>
       </c>
       <c r="F13">
-        <v>1.032529296319506</v>
+        <v>1.060051329331639</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052480117936838</v>
+        <v>1.045930553356134</v>
       </c>
       <c r="J13">
-        <v>1.032618300040621</v>
+        <v>1.044852290831249</v>
       </c>
       <c r="K13">
-        <v>1.04241089432153</v>
+        <v>1.052579756204096</v>
       </c>
       <c r="L13">
-        <v>1.035548313916207</v>
+        <v>1.051215560392636</v>
       </c>
       <c r="M13">
-        <v>1.047016705713279</v>
+        <v>1.063565920322276</v>
       </c>
       <c r="N13">
-        <v>1.014643620803255</v>
+        <v>1.018857280178388</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.003752009637138</v>
+        <v>1.038377873524007</v>
       </c>
       <c r="D14">
-        <v>1.02839264992509</v>
+        <v>1.049135787129047</v>
       </c>
       <c r="E14">
-        <v>1.021431726198531</v>
+        <v>1.047776365112061</v>
       </c>
       <c r="F14">
-        <v>1.033161146485848</v>
+        <v>1.060182046859248</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052735080276475</v>
+        <v>1.045969077770106</v>
       </c>
       <c r="J14">
-        <v>1.033004961633818</v>
+        <v>1.044929053642476</v>
       </c>
       <c r="K14">
-        <v>1.042814570123335</v>
+        <v>1.052658535098694</v>
       </c>
       <c r="L14">
-        <v>1.03597693569767</v>
+        <v>1.051304026739094</v>
       </c>
       <c r="M14">
-        <v>1.047499849714574</v>
+        <v>1.063665383082055</v>
       </c>
       <c r="N14">
-        <v>1.014773131006339</v>
+        <v>1.018882915681268</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.004193105019906</v>
+        <v>1.03846248740816</v>
       </c>
       <c r="D15">
-        <v>1.028731839220257</v>
+        <v>1.049203787297294</v>
       </c>
       <c r="E15">
-        <v>1.021787554198715</v>
+        <v>1.047850395070415</v>
       </c>
       <c r="F15">
-        <v>1.033549435794407</v>
+        <v>1.060262611743212</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052891498449307</v>
+        <v>1.045992791538249</v>
       </c>
       <c r="J15">
-        <v>1.033242440492429</v>
+        <v>1.044976350612064</v>
       </c>
       <c r="K15">
-        <v>1.043062485558047</v>
+        <v>1.052707071537054</v>
       </c>
       <c r="L15">
-        <v>1.036240249593579</v>
+        <v>1.05135854204797</v>
       </c>
       <c r="M15">
-        <v>1.047796656497504</v>
+        <v>1.063726674322855</v>
       </c>
       <c r="N15">
-        <v>1.014852673634956</v>
+        <v>1.018898710286858</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.006740510027611</v>
+        <v>1.038955252718065</v>
       </c>
       <c r="D16">
-        <v>1.030692126143692</v>
+        <v>1.049599810418696</v>
       </c>
       <c r="E16">
-        <v>1.023844981922653</v>
+        <v>1.048281663817537</v>
       </c>
       <c r="F16">
-        <v>1.035794196868047</v>
+        <v>1.060731921890634</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053791765031135</v>
+        <v>1.046130473278966</v>
       </c>
       <c r="J16">
-        <v>1.034613285768667</v>
+        <v>1.045251651623916</v>
       </c>
       <c r="K16">
-        <v>1.044493370418852</v>
+        <v>1.052989545378475</v>
       </c>
       <c r="L16">
-        <v>1.037761198933687</v>
+        <v>1.051675969828484</v>
       </c>
       <c r="M16">
-        <v>1.04951104170481</v>
+        <v>1.064083551168065</v>
       </c>
       <c r="N16">
-        <v>1.015311837011583</v>
+        <v>1.018990637160123</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.008321204747918</v>
+        <v>1.039264592843603</v>
       </c>
       <c r="D17">
-        <v>1.031909702732812</v>
+        <v>1.049848428613696</v>
       </c>
       <c r="E17">
-        <v>1.025123761545032</v>
+        <v>1.04855252241008</v>
       </c>
       <c r="F17">
-        <v>1.037189098075508</v>
+        <v>1.061026647412581</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054347655884638</v>
+        <v>1.046216534867865</v>
       </c>
       <c r="J17">
-        <v>1.035463324707266</v>
+        <v>1.045424350295138</v>
       </c>
       <c r="K17">
-        <v>1.04538045248626</v>
+        <v>1.05316670680789</v>
       </c>
       <c r="L17">
-        <v>1.03870516769015</v>
+        <v>1.051875192793918</v>
       </c>
       <c r="M17">
-        <v>1.050575041973179</v>
+        <v>1.064307528320566</v>
       </c>
       <c r="N17">
-        <v>1.015596558566803</v>
+        <v>1.019048296037705</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.009237126915159</v>
+        <v>1.039445112108043</v>
       </c>
       <c r="D18">
-        <v>1.032615633327895</v>
+        <v>1.049993516036805</v>
       </c>
       <c r="E18">
-        <v>1.025865491010935</v>
+        <v>1.048710629741223</v>
       </c>
       <c r="F18">
-        <v>1.037998069403859</v>
+        <v>1.061198677520576</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054668764981459</v>
+        <v>1.046266623813858</v>
       </c>
       <c r="J18">
-        <v>1.035955652067929</v>
+        <v>1.045525085528178</v>
       </c>
       <c r="K18">
-        <v>1.045894165090729</v>
+        <v>1.053270031877104</v>
       </c>
       <c r="L18">
-        <v>1.039252204479501</v>
+        <v>1.051991434914924</v>
       </c>
       <c r="M18">
-        <v>1.051191628996074</v>
+        <v>1.064438212258067</v>
       </c>
       <c r="N18">
-        <v>1.01576146415681</v>
+        <v>1.019081925731281</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.009548415776379</v>
+        <v>1.039506679109147</v>
       </c>
       <c r="D19">
-        <v>1.032855622497295</v>
+        <v>1.050042999357558</v>
       </c>
       <c r="E19">
-        <v>1.026117703956369</v>
+        <v>1.04876456056241</v>
       </c>
       <c r="F19">
-        <v>1.038273127936962</v>
+        <v>1.061257355916217</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054777727874395</v>
+        <v>1.046283684279043</v>
       </c>
       <c r="J19">
-        <v>1.036122937801901</v>
+        <v>1.045559434109348</v>
       </c>
       <c r="K19">
-        <v>1.046068705217307</v>
+        <v>1.053305261280503</v>
       </c>
       <c r="L19">
-        <v>1.039438131757992</v>
+        <v>1.052031076996028</v>
       </c>
       <c r="M19">
-        <v>1.05140119350558</v>
+        <v>1.064482779148135</v>
       </c>
       <c r="N19">
-        <v>1.015817496624371</v>
+        <v>1.019093392274953</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.00815224208616</v>
+        <v>1.039231394624788</v>
       </c>
       <c r="D20">
-        <v>1.031779510927335</v>
+        <v>1.049821746706596</v>
       </c>
       <c r="E20">
-        <v>1.024986992941883</v>
+        <v>1.048523449409313</v>
       </c>
       <c r="F20">
-        <v>1.037039921623286</v>
+        <v>1.060995013549604</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054288339118419</v>
+        <v>1.046207312574996</v>
       </c>
       <c r="J20">
-        <v>1.035372485606124</v>
+        <v>1.045405821039729</v>
       </c>
       <c r="K20">
-        <v>1.045285661937667</v>
+        <v>1.053147700106851</v>
       </c>
       <c r="L20">
-        <v>1.038604258976978</v>
+        <v>1.051853814037041</v>
       </c>
       <c r="M20">
-        <v>1.050461303000684</v>
+        <v>1.064283493349732</v>
       </c>
       <c r="N20">
-        <v>1.015566131890923</v>
+        <v>1.019042109963658</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.003540834612548</v>
+        <v>1.038337437994547</v>
       </c>
       <c r="D21">
-        <v>1.028230288218451</v>
+        <v>1.049103291210167</v>
       </c>
       <c r="E21">
-        <v>1.021261417292634</v>
+        <v>1.047740989953763</v>
       </c>
       <c r="F21">
-        <v>1.032975294270067</v>
+        <v>1.060143548488973</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052660140605319</v>
+        <v>1.045957737954089</v>
       </c>
       <c r="J21">
-        <v>1.032891257337683</v>
+        <v>1.044906448724486</v>
       </c>
       <c r="K21">
-        <v>1.042695865249178</v>
+        <v>1.052635337058073</v>
       </c>
       <c r="L21">
-        <v>1.035850878945457</v>
+        <v>1.05127797387869</v>
       </c>
       <c r="M21">
-        <v>1.047357758420439</v>
+        <v>1.063636091910245</v>
       </c>
       <c r="N21">
-        <v>1.014735046287352</v>
+        <v>1.018875366720761</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.000583773062792</v>
+        <v>1.037776163616579</v>
       </c>
       <c r="D22">
-        <v>1.025958510736869</v>
+        <v>1.048652238004649</v>
       </c>
       <c r="E22">
-        <v>1.01887959326319</v>
+        <v>1.04725012290726</v>
       </c>
       <c r="F22">
-        <v>1.030375658976634</v>
+        <v>1.059609310246098</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051607182189984</v>
+        <v>1.045799841929356</v>
       </c>
       <c r="J22">
-        <v>1.031298364966982</v>
+        <v>1.044592510305861</v>
       </c>
       <c r="K22">
-        <v>1.041032687430135</v>
+        <v>1.052313112575298</v>
       </c>
       <c r="L22">
-        <v>1.034086095754628</v>
+        <v>1.050916280246731</v>
       </c>
       <c r="M22">
-        <v>1.045368465813116</v>
+        <v>1.063229434333454</v>
       </c>
       <c r="N22">
-        <v>1.01420152282639</v>
+        <v>1.018770516265005</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.002156985693632</v>
+        <v>1.038073630103705</v>
       </c>
       <c r="D23">
-        <v>1.027166729865165</v>
+        <v>1.048891285824225</v>
       </c>
       <c r="E23">
-        <v>1.020146074572303</v>
+        <v>1.047510236208581</v>
       </c>
       <c r="F23">
-        <v>1.031758056731584</v>
+        <v>1.059892413936711</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052168198758267</v>
+        <v>1.045883638047984</v>
       </c>
       <c r="J23">
-        <v>1.032145972881257</v>
+        <v>1.044758931051593</v>
       </c>
       <c r="K23">
-        <v>1.041917748323517</v>
+        <v>1.05248393709365</v>
       </c>
       <c r="L23">
-        <v>1.035024903640422</v>
+        <v>1.051107986236008</v>
       </c>
       <c r="M23">
-        <v>1.046426711625873</v>
+        <v>1.063444973699883</v>
       </c>
       <c r="N23">
-        <v>1.014485418553429</v>
+        <v>1.01882610048027</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.008228607768359</v>
+        <v>1.039246395204148</v>
       </c>
       <c r="D24">
-        <v>1.031838352149949</v>
+        <v>1.049833802887743</v>
       </c>
       <c r="E24">
-        <v>1.025048805626022</v>
+        <v>1.048536585876129</v>
       </c>
       <c r="F24">
-        <v>1.037107342391954</v>
+        <v>1.061009307154893</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054315151482057</v>
+        <v>1.046211480070081</v>
       </c>
       <c r="J24">
-        <v>1.035413542643797</v>
+        <v>1.045414193603517</v>
       </c>
       <c r="K24">
-        <v>1.045328505148224</v>
+        <v>1.053156288448616</v>
       </c>
       <c r="L24">
-        <v>1.038649866280008</v>
+        <v>1.051863474057559</v>
       </c>
       <c r="M24">
-        <v>1.050512709171846</v>
+        <v>1.064294353589395</v>
       </c>
       <c r="N24">
-        <v>1.015579883999763</v>
+        <v>1.019044905189729</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.015037597767543</v>
+        <v>1.040610706294539</v>
       </c>
       <c r="D25">
-        <v>1.037093182691337</v>
+        <v>1.050930383533744</v>
       </c>
       <c r="E25">
-        <v>1.030575786583521</v>
+        <v>1.049732311153892</v>
       </c>
       <c r="F25">
-        <v>1.043133407609905</v>
+        <v>1.062310165483217</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056684140829224</v>
+        <v>1.046587630651475</v>
       </c>
       <c r="J25">
-        <v>1.039069272407302</v>
+        <v>1.046174702755954</v>
       </c>
       <c r="K25">
-        <v>1.049141725114373</v>
+        <v>1.053936109388732</v>
       </c>
       <c r="L25">
-        <v>1.042717295695742</v>
+        <v>1.052741689386825</v>
       </c>
       <c r="M25">
-        <v>1.055097099172489</v>
+        <v>1.065281647023143</v>
       </c>
       <c r="N25">
-        <v>1.016804353506377</v>
+        <v>1.019298745249171</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_35/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041701534829099</v>
+        <v>1.020292071153477</v>
       </c>
       <c r="D2">
-        <v>1.051807231337337</v>
+        <v>1.041159339452802</v>
       </c>
       <c r="E2">
-        <v>1.050689735578913</v>
+        <v>1.034862547161057</v>
       </c>
       <c r="F2">
-        <v>1.063351488991097</v>
+        <v>1.047803907271785</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046884152362405</v>
+        <v>1.058479892265068</v>
       </c>
       <c r="J2">
-        <v>1.046781323366449</v>
+        <v>1.041882338059598</v>
       </c>
       <c r="K2">
-        <v>1.05455771043539</v>
+        <v>1.052073561857168</v>
       </c>
       <c r="L2">
-        <v>1.053443314055529</v>
+        <v>1.045856652241544</v>
       </c>
       <c r="M2">
-        <v>1.066070362796151</v>
+        <v>1.058635131752213</v>
       </c>
       <c r="N2">
-        <v>1.019501132096821</v>
+        <v>1.017746493406386</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.04249508081187</v>
+        <v>1.024011700560277</v>
       </c>
       <c r="D3">
-        <v>1.052445151042215</v>
+        <v>1.044043357653146</v>
       </c>
       <c r="E3">
-        <v>1.051387029630809</v>
+        <v>1.037908956225008</v>
       </c>
       <c r="F3">
-        <v>1.064109725067819</v>
+        <v>1.051121135635134</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047097409653571</v>
+        <v>1.059731681109051</v>
       </c>
       <c r="J3">
-        <v>1.04722178243274</v>
+        <v>1.043868517776508</v>
       </c>
       <c r="K3">
-        <v>1.055008799420326</v>
+        <v>1.054142081823269</v>
       </c>
       <c r="L3">
-        <v>1.053953401648132</v>
+        <v>1.04807871621545</v>
       </c>
       <c r="M3">
-        <v>1.066643735282242</v>
+        <v>1.061139169751203</v>
       </c>
       <c r="N3">
-        <v>1.019648030252441</v>
+        <v>1.018411610784103</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043009244675728</v>
+        <v>1.026376386543718</v>
       </c>
       <c r="D4">
-        <v>1.052858494436539</v>
+        <v>1.045879163773628</v>
       </c>
       <c r="E4">
-        <v>1.051839193833649</v>
+        <v>1.039850915060519</v>
       </c>
       <c r="F4">
-        <v>1.064601333083946</v>
+        <v>1.053234874178447</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047234450090868</v>
+        <v>1.060518274542102</v>
       </c>
       <c r="J4">
-        <v>1.047506780071183</v>
+        <v>1.045128628078362</v>
       </c>
       <c r="K4">
-        <v>1.055300560231129</v>
+        <v>1.055453690138257</v>
       </c>
       <c r="L4">
-        <v>1.054283751888188</v>
+        <v>1.049491037106264</v>
       </c>
       <c r="M4">
-        <v>1.067015056581838</v>
+        <v>1.062730605402018</v>
       </c>
       <c r="N4">
-        <v>1.019743055842762</v>
+        <v>1.01883353554639</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043225561643893</v>
+        <v>1.027360697833247</v>
       </c>
       <c r="D5">
-        <v>1.05303239770519</v>
+        <v>1.046643853747623</v>
       </c>
       <c r="E5">
-        <v>1.052029513471146</v>
+        <v>1.040660496318974</v>
       </c>
       <c r="F5">
-        <v>1.064808237218747</v>
+        <v>1.054115865552723</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047291833236413</v>
+        <v>1.060843455866779</v>
       </c>
       <c r="J5">
-        <v>1.047626589604162</v>
+        <v>1.045652514363307</v>
       </c>
       <c r="K5">
-        <v>1.055423185336707</v>
+        <v>1.055998802772132</v>
       </c>
       <c r="L5">
-        <v>1.054422698876066</v>
+        <v>1.050078819512063</v>
       </c>
       <c r="M5">
-        <v>1.067171232755397</v>
+        <v>1.063392905986979</v>
       </c>
       <c r="N5">
-        <v>1.019782997566594</v>
+        <v>1.019008934989282</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043261891687908</v>
+        <v>1.027525401445285</v>
       </c>
       <c r="D6">
-        <v>1.053061604612707</v>
+        <v>1.046771838378734</v>
       </c>
       <c r="E6">
-        <v>1.052061482393137</v>
+        <v>1.040796034125539</v>
       </c>
       <c r="F6">
-        <v>1.064842990882829</v>
+        <v>1.054263346784472</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047301454684115</v>
+        <v>1.060897735368598</v>
       </c>
       <c r="J6">
-        <v>1.047646705908644</v>
+        <v>1.045740137278504</v>
       </c>
       <c r="K6">
-        <v>1.055443772762696</v>
+        <v>1.056089964944023</v>
       </c>
       <c r="L6">
-        <v>1.054446032614343</v>
+        <v>1.050177165627104</v>
       </c>
       <c r="M6">
-        <v>1.067197459634484</v>
+        <v>1.063503718712893</v>
       </c>
       <c r="N6">
-        <v>1.019789703531044</v>
+        <v>1.019038270637965</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043012134477565</v>
+        <v>1.026389577099167</v>
       </c>
       <c r="D7">
-        <v>1.052860817617622</v>
+        <v>1.045889409192432</v>
       </c>
       <c r="E7">
-        <v>1.05184173599351</v>
+        <v>1.039861759269302</v>
       </c>
       <c r="F7">
-        <v>1.064604096837731</v>
+        <v>1.053246675711544</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047235217746862</v>
+        <v>1.060522641123439</v>
       </c>
       <c r="J7">
-        <v>1.047508380987386</v>
+        <v>1.045135651131903</v>
       </c>
       <c r="K7">
-        <v>1.055302198877994</v>
+        <v>1.055460998478907</v>
       </c>
       <c r="L7">
-        <v>1.054285608240389</v>
+        <v>1.049498914298797</v>
       </c>
       <c r="M7">
-        <v>1.067017143132049</v>
+        <v>1.062739481357739</v>
       </c>
       <c r="N7">
-        <v>1.019743589574285</v>
+        <v>1.018835886954419</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041969574122787</v>
+        <v>1.021558046557438</v>
       </c>
       <c r="D8">
-        <v>1.052022700773578</v>
+        <v>1.042140402244978</v>
       </c>
       <c r="E8">
-        <v>1.050925187661419</v>
+        <v>1.035898272597859</v>
       </c>
       <c r="F8">
-        <v>1.063607534512839</v>
+        <v>1.048931886916703</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046956420083795</v>
+        <v>1.058907845677326</v>
       </c>
       <c r="J8">
-        <v>1.046930179580791</v>
+        <v>1.042558856227083</v>
       </c>
       <c r="K8">
-        <v>1.054710182845255</v>
+        <v>1.052778278102012</v>
       </c>
       <c r="L8">
-        <v>1.053615639679671</v>
+        <v>1.046612980848622</v>
       </c>
       <c r="M8">
-        <v>1.066264071276865</v>
+        <v>1.059487457841936</v>
       </c>
       <c r="N8">
-        <v>1.019550782383017</v>
+        <v>1.017973050618234</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.040137791027427</v>
+        <v>1.01270767351959</v>
       </c>
       <c r="D9">
-        <v>1.050550258630301</v>
+        <v>1.035293220602668</v>
       </c>
       <c r="E9">
-        <v>1.049317617554</v>
+        <v>1.028681045825463</v>
       </c>
       <c r="F9">
-        <v>1.061859054014193</v>
+        <v>1.041068106743716</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046457897680662</v>
+        <v>1.055878517686003</v>
       </c>
       <c r="J9">
-        <v>1.045911307354581</v>
+        <v>1.037819535785009</v>
       </c>
       <c r="K9">
-        <v>1.053666090884811</v>
+        <v>1.047838513727562</v>
       </c>
       <c r="L9">
-        <v>1.052437354921933</v>
+        <v>1.041325321485564</v>
       </c>
       <c r="M9">
-        <v>1.064939521214469</v>
+        <v>1.053528256923644</v>
       </c>
       <c r="N9">
-        <v>1.019210843718926</v>
+        <v>1.016385768110874</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.038920306042679</v>
+        <v>1.006561045133111</v>
       </c>
       <c r="D10">
-        <v>1.049571724045355</v>
+        <v>1.030553945625751</v>
       </c>
       <c r="E10">
-        <v>1.048251070488371</v>
+        <v>1.023699898200402</v>
       </c>
       <c r="F10">
-        <v>1.060698631588554</v>
+        <v>1.035635923273153</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046120732720553</v>
+        <v>1.053728516794494</v>
       </c>
       <c r="J10">
-        <v>1.045232135453146</v>
+        <v>1.034516746790658</v>
       </c>
       <c r="K10">
-        <v>1.052969523087623</v>
+        <v>1.044392615157143</v>
       </c>
       <c r="L10">
-        <v>1.051653460994522</v>
+        <v>1.037654034152725</v>
       </c>
       <c r="M10">
-        <v>1.064058245299311</v>
+        <v>1.049390249076497</v>
       </c>
       <c r="N10">
-        <v>1.018984120926386</v>
+        <v>1.015279501209665</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.03839402384779</v>
+        <v>1.003836285599256</v>
       </c>
       <c r="D11">
-        <v>1.049148766335227</v>
+        <v>1.028457450052102</v>
       </c>
       <c r="E11">
-        <v>1.047790494727386</v>
+        <v>1.02149970125801</v>
       </c>
       <c r="F11">
-        <v>1.060197423863214</v>
+        <v>1.033235324151436</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045973605658849</v>
+        <v>1.052764977503684</v>
       </c>
       <c r="J11">
-        <v>1.044938081803183</v>
+        <v>1.033050336899395</v>
       </c>
       <c r="K11">
-        <v>1.052667800013285</v>
+        <v>1.042861940295923</v>
       </c>
       <c r="L11">
-        <v>1.051314432324949</v>
+        <v>1.036027243501795</v>
       </c>
       <c r="M11">
-        <v>1.06367708204159</v>
+        <v>1.04755655664333</v>
       </c>
       <c r="N11">
-        <v>1.018885930627315</v>
+        <v>1.014788329256024</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.038198675869819</v>
+        <v>1.002814257991056</v>
       </c>
       <c r="D12">
-        <v>1.04899177634282</v>
+        <v>1.027671787675964</v>
       </c>
       <c r="E12">
-        <v>1.047619605684348</v>
+        <v>1.020675664553385</v>
       </c>
       <c r="F12">
-        <v>1.060011444943596</v>
+        <v>1.032336050822071</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045918786904871</v>
+        <v>1.052402034952366</v>
       </c>
       <c r="J12">
-        <v>1.04482886342239</v>
+        <v>1.032499989083837</v>
       </c>
       <c r="K12">
-        <v>1.052555712414563</v>
+        <v>1.042287372133214</v>
       </c>
       <c r="L12">
-        <v>1.051188564056284</v>
+        <v>1.035417189579224</v>
       </c>
       <c r="M12">
-        <v>1.063535568187763</v>
+        <v>1.046868901272734</v>
       </c>
       <c r="N12">
-        <v>1.018849456199141</v>
+        <v>1.014603993355385</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.038240572459099</v>
+        <v>1.003033942951838</v>
       </c>
       <c r="D13">
-        <v>1.049025445977634</v>
+        <v>1.027840632975475</v>
       </c>
       <c r="E13">
-        <v>1.047656253364501</v>
+        <v>1.020852734880502</v>
       </c>
       <c r="F13">
-        <v>1.060051329331639</v>
+        <v>1.032529296319506</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045930553356134</v>
+        <v>1.052480117936838</v>
       </c>
       <c r="J13">
-        <v>1.044852290831249</v>
+        <v>1.032618300040621</v>
       </c>
       <c r="K13">
-        <v>1.052579756204096</v>
+        <v>1.04241089432153</v>
       </c>
       <c r="L13">
-        <v>1.051215560392636</v>
+        <v>1.035548313916207</v>
       </c>
       <c r="M13">
-        <v>1.063565920322276</v>
+        <v>1.047016705713279</v>
       </c>
       <c r="N13">
-        <v>1.018857280178388</v>
+        <v>1.014643620803255</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.038377873524007</v>
+        <v>1.003752009637139</v>
       </c>
       <c r="D14">
-        <v>1.049135787129047</v>
+        <v>1.028392649925091</v>
       </c>
       <c r="E14">
-        <v>1.047776365112061</v>
+        <v>1.021431726198531</v>
       </c>
       <c r="F14">
-        <v>1.060182046859248</v>
+        <v>1.033161146485849</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045969077770106</v>
+        <v>1.052735080276475</v>
       </c>
       <c r="J14">
-        <v>1.044929053642476</v>
+        <v>1.033004961633818</v>
       </c>
       <c r="K14">
-        <v>1.052658535098694</v>
+        <v>1.042814570123335</v>
       </c>
       <c r="L14">
-        <v>1.051304026739094</v>
+        <v>1.035976935697671</v>
       </c>
       <c r="M14">
-        <v>1.063665383082055</v>
+        <v>1.047499849714574</v>
       </c>
       <c r="N14">
-        <v>1.018882915681268</v>
+        <v>1.014773131006339</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03846248740816</v>
+        <v>1.004193105019906</v>
       </c>
       <c r="D15">
-        <v>1.049203787297294</v>
+        <v>1.028731839220258</v>
       </c>
       <c r="E15">
-        <v>1.047850395070415</v>
+        <v>1.021787554198716</v>
       </c>
       <c r="F15">
-        <v>1.060262611743212</v>
+        <v>1.033549435794408</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045992791538249</v>
+        <v>1.052891498449308</v>
       </c>
       <c r="J15">
-        <v>1.044976350612064</v>
+        <v>1.033242440492429</v>
       </c>
       <c r="K15">
-        <v>1.052707071537054</v>
+        <v>1.043062485558049</v>
       </c>
       <c r="L15">
-        <v>1.05135854204797</v>
+        <v>1.03624024959358</v>
       </c>
       <c r="M15">
-        <v>1.063726674322855</v>
+        <v>1.047796656497505</v>
       </c>
       <c r="N15">
-        <v>1.018898710286858</v>
+        <v>1.014852673634956</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.038955252718065</v>
+        <v>1.006740510027612</v>
       </c>
       <c r="D16">
-        <v>1.049599810418696</v>
+        <v>1.030692126143692</v>
       </c>
       <c r="E16">
-        <v>1.048281663817537</v>
+        <v>1.023844981922653</v>
       </c>
       <c r="F16">
-        <v>1.060731921890634</v>
+        <v>1.035794196868048</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046130473278966</v>
+        <v>1.053791765031135</v>
       </c>
       <c r="J16">
-        <v>1.045251651623916</v>
+        <v>1.034613285768668</v>
       </c>
       <c r="K16">
-        <v>1.052989545378475</v>
+        <v>1.044493370418853</v>
       </c>
       <c r="L16">
-        <v>1.051675969828484</v>
+        <v>1.037761198933687</v>
       </c>
       <c r="M16">
-        <v>1.064083551168065</v>
+        <v>1.04951104170481</v>
       </c>
       <c r="N16">
-        <v>1.018990637160123</v>
+        <v>1.015311837011584</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.039264592843603</v>
+        <v>1.008321204747919</v>
       </c>
       <c r="D17">
-        <v>1.049848428613696</v>
+        <v>1.031909702732813</v>
       </c>
       <c r="E17">
-        <v>1.04855252241008</v>
+        <v>1.025123761545032</v>
       </c>
       <c r="F17">
-        <v>1.061026647412581</v>
+        <v>1.037189098075508</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046216534867865</v>
+        <v>1.054347655884638</v>
       </c>
       <c r="J17">
-        <v>1.045424350295138</v>
+        <v>1.035463324707267</v>
       </c>
       <c r="K17">
-        <v>1.05316670680789</v>
+        <v>1.045380452486261</v>
       </c>
       <c r="L17">
-        <v>1.051875192793918</v>
+        <v>1.03870516769015</v>
       </c>
       <c r="M17">
-        <v>1.064307528320566</v>
+        <v>1.050575041973179</v>
       </c>
       <c r="N17">
-        <v>1.019048296037705</v>
+        <v>1.015596558566803</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.039445112108043</v>
+        <v>1.009237126915159</v>
       </c>
       <c r="D18">
-        <v>1.049993516036805</v>
+        <v>1.032615633327895</v>
       </c>
       <c r="E18">
-        <v>1.048710629741223</v>
+        <v>1.025865491010935</v>
       </c>
       <c r="F18">
-        <v>1.061198677520576</v>
+        <v>1.037998069403859</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046266623813858</v>
+        <v>1.054668764981459</v>
       </c>
       <c r="J18">
-        <v>1.045525085528178</v>
+        <v>1.035955652067928</v>
       </c>
       <c r="K18">
-        <v>1.053270031877104</v>
+        <v>1.045894165090729</v>
       </c>
       <c r="L18">
-        <v>1.051991434914924</v>
+        <v>1.039252204479501</v>
       </c>
       <c r="M18">
-        <v>1.064438212258067</v>
+        <v>1.051191628996074</v>
       </c>
       <c r="N18">
-        <v>1.019081925731281</v>
+        <v>1.01576146415681</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.039506679109147</v>
+        <v>1.009548415776379</v>
       </c>
       <c r="D19">
-        <v>1.050042999357558</v>
+        <v>1.032855622497295</v>
       </c>
       <c r="E19">
-        <v>1.04876456056241</v>
+        <v>1.026117703956369</v>
       </c>
       <c r="F19">
-        <v>1.061257355916217</v>
+        <v>1.038273127936962</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046283684279043</v>
+        <v>1.054777727874395</v>
       </c>
       <c r="J19">
-        <v>1.045559434109348</v>
+        <v>1.036122937801901</v>
       </c>
       <c r="K19">
-        <v>1.053305261280503</v>
+        <v>1.046068705217307</v>
       </c>
       <c r="L19">
-        <v>1.052031076996028</v>
+        <v>1.039438131757992</v>
       </c>
       <c r="M19">
-        <v>1.064482779148135</v>
+        <v>1.051401193505581</v>
       </c>
       <c r="N19">
-        <v>1.019093392274953</v>
+        <v>1.015817496624371</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.039231394624788</v>
+        <v>1.008152242086161</v>
       </c>
       <c r="D20">
-        <v>1.049821746706596</v>
+        <v>1.031779510927336</v>
       </c>
       <c r="E20">
-        <v>1.048523449409313</v>
+        <v>1.024986992941883</v>
       </c>
       <c r="F20">
-        <v>1.060995013549604</v>
+        <v>1.037039921623287</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046207312574996</v>
+        <v>1.054288339118419</v>
       </c>
       <c r="J20">
-        <v>1.045405821039729</v>
+        <v>1.035372485606125</v>
       </c>
       <c r="K20">
-        <v>1.053147700106851</v>
+        <v>1.045285661937667</v>
       </c>
       <c r="L20">
-        <v>1.051853814037041</v>
+        <v>1.038604258976978</v>
       </c>
       <c r="M20">
-        <v>1.064283493349732</v>
+        <v>1.050461303000685</v>
       </c>
       <c r="N20">
-        <v>1.019042109963658</v>
+        <v>1.015566131890923</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.038337437994547</v>
+        <v>1.003540834612548</v>
       </c>
       <c r="D21">
-        <v>1.049103291210167</v>
+        <v>1.02823028821845</v>
       </c>
       <c r="E21">
-        <v>1.047740989953763</v>
+        <v>1.021261417292633</v>
       </c>
       <c r="F21">
-        <v>1.060143548488973</v>
+        <v>1.032975294270067</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045957737954089</v>
+        <v>1.052660140605319</v>
       </c>
       <c r="J21">
-        <v>1.044906448724486</v>
+        <v>1.032891257337682</v>
       </c>
       <c r="K21">
-        <v>1.052635337058073</v>
+        <v>1.042695865249178</v>
       </c>
       <c r="L21">
-        <v>1.05127797387869</v>
+        <v>1.035850878945457</v>
       </c>
       <c r="M21">
-        <v>1.063636091910245</v>
+        <v>1.047357758420439</v>
       </c>
       <c r="N21">
-        <v>1.018875366720761</v>
+        <v>1.014735046287351</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.037776163616579</v>
+        <v>1.000583773062792</v>
       </c>
       <c r="D22">
-        <v>1.048652238004649</v>
+        <v>1.025958510736869</v>
       </c>
       <c r="E22">
-        <v>1.04725012290726</v>
+        <v>1.01887959326319</v>
       </c>
       <c r="F22">
-        <v>1.059609310246098</v>
+        <v>1.030375658976634</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045799841929356</v>
+        <v>1.051607182189984</v>
       </c>
       <c r="J22">
-        <v>1.044592510305861</v>
+        <v>1.031298364966982</v>
       </c>
       <c r="K22">
-        <v>1.052313112575298</v>
+        <v>1.041032687430135</v>
       </c>
       <c r="L22">
-        <v>1.050916280246731</v>
+        <v>1.034086095754628</v>
       </c>
       <c r="M22">
-        <v>1.063229434333454</v>
+        <v>1.045368465813116</v>
       </c>
       <c r="N22">
-        <v>1.018770516265005</v>
+        <v>1.01420152282639</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.038073630103705</v>
+        <v>1.002156985693632</v>
       </c>
       <c r="D23">
-        <v>1.048891285824225</v>
+        <v>1.027166729865165</v>
       </c>
       <c r="E23">
-        <v>1.047510236208581</v>
+        <v>1.020146074572304</v>
       </c>
       <c r="F23">
-        <v>1.059892413936711</v>
+        <v>1.031758056731584</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045883638047984</v>
+        <v>1.052168198758267</v>
       </c>
       <c r="J23">
-        <v>1.044758931051593</v>
+        <v>1.032145972881257</v>
       </c>
       <c r="K23">
-        <v>1.05248393709365</v>
+        <v>1.041917748323517</v>
       </c>
       <c r="L23">
-        <v>1.051107986236008</v>
+        <v>1.035024903640423</v>
       </c>
       <c r="M23">
-        <v>1.063444973699883</v>
+        <v>1.046426711625873</v>
       </c>
       <c r="N23">
-        <v>1.01882610048027</v>
+        <v>1.014485418553429</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.039246395204148</v>
+        <v>1.008228607768358</v>
       </c>
       <c r="D24">
-        <v>1.049833802887743</v>
+        <v>1.031838352149947</v>
       </c>
       <c r="E24">
-        <v>1.048536585876129</v>
+        <v>1.02504880562602</v>
       </c>
       <c r="F24">
-        <v>1.061009307154893</v>
+        <v>1.037107342391953</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046211480070081</v>
+        <v>1.054315151482056</v>
       </c>
       <c r="J24">
-        <v>1.045414193603517</v>
+        <v>1.035413542643796</v>
       </c>
       <c r="K24">
-        <v>1.053156288448616</v>
+        <v>1.045328505148223</v>
       </c>
       <c r="L24">
-        <v>1.051863474057559</v>
+        <v>1.038649866280007</v>
       </c>
       <c r="M24">
-        <v>1.064294353589395</v>
+        <v>1.050512709171845</v>
       </c>
       <c r="N24">
-        <v>1.019044905189729</v>
+        <v>1.015579883999763</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040610706294539</v>
+        <v>1.015037597767543</v>
       </c>
       <c r="D25">
-        <v>1.050930383533744</v>
+        <v>1.037093182691336</v>
       </c>
       <c r="E25">
-        <v>1.049732311153892</v>
+        <v>1.030575786583521</v>
       </c>
       <c r="F25">
-        <v>1.062310165483217</v>
+        <v>1.043133407609905</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046587630651475</v>
+        <v>1.056684140829223</v>
       </c>
       <c r="J25">
-        <v>1.046174702755954</v>
+        <v>1.039069272407301</v>
       </c>
       <c r="K25">
-        <v>1.053936109388732</v>
+        <v>1.049141725114373</v>
       </c>
       <c r="L25">
-        <v>1.052741689386825</v>
+        <v>1.042717295695741</v>
       </c>
       <c r="M25">
-        <v>1.065281647023143</v>
+        <v>1.055097099172488</v>
       </c>
       <c r="N25">
-        <v>1.019298745249171</v>
+        <v>1.016804353506377</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_35/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020292071153477</v>
+        <v>0.9927047268791457</v>
       </c>
       <c r="D2">
-        <v>1.041159339452802</v>
+        <v>1.016447935715053</v>
       </c>
       <c r="E2">
-        <v>1.034862547161057</v>
+        <v>1.000204743487795</v>
       </c>
       <c r="F2">
-        <v>1.047803907271785</v>
+        <v>1.027016078424614</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058479892265068</v>
+        <v>1.04572839018026</v>
       </c>
       <c r="J2">
-        <v>1.041882338059598</v>
+        <v>1.015105849501659</v>
       </c>
       <c r="K2">
-        <v>1.052073561857168</v>
+        <v>1.027682783515962</v>
       </c>
       <c r="L2">
-        <v>1.045856652241544</v>
+        <v>1.01166122664488</v>
       </c>
       <c r="M2">
-        <v>1.058635131752213</v>
+        <v>1.038111442060755</v>
       </c>
       <c r="N2">
-        <v>1.017746493406386</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.00907329974641</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.038735038249677</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.030644258727869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024011700560277</v>
+        <v>0.9962119579754147</v>
       </c>
       <c r="D3">
-        <v>1.044043357653146</v>
+        <v>1.018728833144589</v>
       </c>
       <c r="E3">
-        <v>1.037908956225008</v>
+        <v>1.002922948722614</v>
       </c>
       <c r="F3">
-        <v>1.051121135635134</v>
+        <v>1.030012606173367</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059731681109051</v>
+        <v>1.046509498021657</v>
       </c>
       <c r="J3">
-        <v>1.043868517776508</v>
+        <v>1.016806424229943</v>
       </c>
       <c r="K3">
-        <v>1.054142081823269</v>
+        <v>1.02912755468807</v>
       </c>
       <c r="L3">
-        <v>1.04807871621545</v>
+        <v>1.013518565992294</v>
       </c>
       <c r="M3">
-        <v>1.061139169751203</v>
+        <v>1.040275348476481</v>
       </c>
       <c r="N3">
-        <v>1.018411610784103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.009643034500454</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.040447627255595</v>
+      </c>
+      <c r="Q3">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R3">
+        <v>1.031663165480388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026376386543718</v>
+        <v>0.9984424050531424</v>
       </c>
       <c r="D4">
-        <v>1.045879163773628</v>
+        <v>1.020180943489334</v>
       </c>
       <c r="E4">
-        <v>1.039850915060519</v>
+        <v>1.004657600764578</v>
       </c>
       <c r="F4">
-        <v>1.053234874178447</v>
+        <v>1.031914766105069</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060518274542102</v>
+        <v>1.046991519373844</v>
       </c>
       <c r="J4">
-        <v>1.045128628078362</v>
+        <v>1.017886038364047</v>
       </c>
       <c r="K4">
-        <v>1.055453690138257</v>
+        <v>1.030041754070998</v>
       </c>
       <c r="L4">
-        <v>1.049491037106264</v>
+        <v>1.014700135809122</v>
       </c>
       <c r="M4">
-        <v>1.062730605402018</v>
+        <v>1.041642682179846</v>
       </c>
       <c r="N4">
-        <v>1.01883353554639</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.010004733863109</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.04152977947196</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.032310501416154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027360697833247</v>
+        <v>0.9993734583140826</v>
       </c>
       <c r="D5">
-        <v>1.046643853747623</v>
+        <v>1.020789305325317</v>
       </c>
       <c r="E5">
-        <v>1.040660496318974</v>
+        <v>1.005383406499986</v>
       </c>
       <c r="F5">
-        <v>1.054115865552723</v>
+        <v>1.032706350822699</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060843455866779</v>
+        <v>1.047190329112976</v>
       </c>
       <c r="J5">
-        <v>1.045652514363307</v>
+        <v>1.018337424860602</v>
       </c>
       <c r="K5">
-        <v>1.055998802772132</v>
+        <v>1.030424656190322</v>
       </c>
       <c r="L5">
-        <v>1.050078819512063</v>
+        <v>1.015194308798094</v>
       </c>
       <c r="M5">
-        <v>1.063392905986979</v>
+        <v>1.042210316900028</v>
       </c>
       <c r="N5">
-        <v>1.019008934989282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.010156219977962</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.041979023514167</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.032588493602156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027525401445285</v>
+        <v>0.9995322253451854</v>
       </c>
       <c r="D6">
-        <v>1.046771838378734</v>
+        <v>1.020895338857079</v>
       </c>
       <c r="E6">
-        <v>1.040796034125539</v>
+        <v>1.005507622531406</v>
       </c>
       <c r="F6">
-        <v>1.054263346784472</v>
+        <v>1.03283936322035</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060897735368598</v>
+        <v>1.047225454750808</v>
       </c>
       <c r="J6">
-        <v>1.045740137278504</v>
+        <v>1.018415822855219</v>
       </c>
       <c r="K6">
-        <v>1.056089964944023</v>
+        <v>1.030492828563087</v>
       </c>
       <c r="L6">
-        <v>1.050177165627104</v>
+        <v>1.015279654059299</v>
       </c>
       <c r="M6">
-        <v>1.063503718712893</v>
+        <v>1.042305771922851</v>
       </c>
       <c r="N6">
-        <v>1.019038270637965</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.010182847204401</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.042054569606122</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.032645530363248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026389577099167</v>
+        <v>0.9984628156733848</v>
       </c>
       <c r="D7">
-        <v>1.045889409192432</v>
+        <v>1.020200335833446</v>
       </c>
       <c r="E7">
-        <v>1.039861759269302</v>
+        <v>1.004674494189951</v>
       </c>
       <c r="F7">
-        <v>1.053246675711544</v>
+        <v>1.031926977499026</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060522641123439</v>
+        <v>1.046999715343744</v>
       </c>
       <c r="J7">
-        <v>1.045135651131903</v>
+        <v>1.017899819565237</v>
       </c>
       <c r="K7">
-        <v>1.055460998478907</v>
+        <v>1.030058001939479</v>
       </c>
       <c r="L7">
-        <v>1.049498914298797</v>
+        <v>1.014713845067084</v>
       </c>
       <c r="M7">
-        <v>1.062739481357739</v>
+        <v>1.041651879808659</v>
       </c>
       <c r="N7">
-        <v>1.018835886954419</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.010010221201338</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.041537058768065</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.032342305023242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021558046557438</v>
+        <v>0.9939080015586629</v>
       </c>
       <c r="D8">
-        <v>1.042140402244978</v>
+        <v>1.017237470994437</v>
       </c>
       <c r="E8">
-        <v>1.035898272597859</v>
+        <v>1.001137325358784</v>
       </c>
       <c r="F8">
-        <v>1.048931886916703</v>
+        <v>1.028038497815038</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058907845677326</v>
+        <v>1.046003974292051</v>
       </c>
       <c r="J8">
-        <v>1.042558856227083</v>
+        <v>1.015694407797075</v>
       </c>
       <c r="K8">
-        <v>1.052778278102012</v>
+        <v>1.028188904320264</v>
       </c>
       <c r="L8">
-        <v>1.046612980848622</v>
+        <v>1.01230191285829</v>
       </c>
       <c r="M8">
-        <v>1.059487457841936</v>
+        <v>1.038851605292612</v>
       </c>
       <c r="N8">
-        <v>1.017973050618234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.009271608821972</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.039320829020781</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.031025283615634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01270767351959</v>
+        <v>0.9855584678909316</v>
       </c>
       <c r="D9">
-        <v>1.035293220602668</v>
+        <v>1.011810976942734</v>
       </c>
       <c r="E9">
-        <v>1.028681045825463</v>
+        <v>0.9947005014875022</v>
       </c>
       <c r="F9">
-        <v>1.041068106743716</v>
+        <v>1.020891195574543</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055878517686003</v>
+        <v>1.044058094858804</v>
       </c>
       <c r="J9">
-        <v>1.037819535785009</v>
+        <v>1.01163170724953</v>
       </c>
       <c r="K9">
-        <v>1.047838513727562</v>
+        <v>1.024715292244902</v>
       </c>
       <c r="L9">
-        <v>1.041325321485564</v>
+        <v>1.007880148533357</v>
       </c>
       <c r="M9">
-        <v>1.053528256923644</v>
+        <v>1.033654182803836</v>
       </c>
       <c r="N9">
-        <v>1.016385768110874</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.007909576886128</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.035207399007254</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.028565949376391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.006561045133111</v>
+        <v>0.9797877374447498</v>
       </c>
       <c r="D10">
-        <v>1.030553945625751</v>
+        <v>1.008087852662948</v>
       </c>
       <c r="E10">
-        <v>1.023699898200402</v>
+        <v>0.9902908699119238</v>
       </c>
       <c r="F10">
-        <v>1.035635923273153</v>
+        <v>1.016465105675695</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053728516794494</v>
+        <v>1.042723272693448</v>
       </c>
       <c r="J10">
-        <v>1.034516746790658</v>
+        <v>1.008826889836467</v>
       </c>
       <c r="K10">
-        <v>1.044392615157143</v>
+        <v>1.022312597925195</v>
       </c>
       <c r="L10">
-        <v>1.037654034152725</v>
+        <v>1.004837666727376</v>
       </c>
       <c r="M10">
-        <v>1.049390249076497</v>
+        <v>1.030543307804522</v>
       </c>
       <c r="N10">
-        <v>1.015279501209665</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.006974034908746</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.032797122911875</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.026884060326426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.003836285599256</v>
+        <v>0.9773513453738972</v>
       </c>
       <c r="D11">
-        <v>1.028457450052102</v>
+        <v>1.006590690231833</v>
       </c>
       <c r="E11">
-        <v>1.02149970125801</v>
+        <v>0.9884636989167198</v>
       </c>
       <c r="F11">
-        <v>1.033235324151436</v>
+        <v>1.018742688184737</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052764977503684</v>
+        <v>1.042743975957034</v>
       </c>
       <c r="J11">
-        <v>1.033050336899395</v>
+        <v>1.007697661016046</v>
       </c>
       <c r="K11">
-        <v>1.042861940295923</v>
+        <v>1.021389376963824</v>
       </c>
       <c r="L11">
-        <v>1.036027243501795</v>
+        <v>1.003606502303494</v>
       </c>
       <c r="M11">
-        <v>1.04755655664333</v>
+        <v>1.033319594036045</v>
       </c>
       <c r="N11">
-        <v>1.014788329256024</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.006634638852469</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.035431996198526</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.026264516745505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.002814257991056</v>
+        <v>0.9763974533161833</v>
       </c>
       <c r="D12">
-        <v>1.027671787675964</v>
+        <v>1.005965303025061</v>
       </c>
       <c r="E12">
-        <v>1.020675664553385</v>
+        <v>0.9877507030295558</v>
       </c>
       <c r="F12">
-        <v>1.032336050822071</v>
+        <v>1.020892580268372</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052402034952366</v>
+        <v>1.042845088836798</v>
       </c>
       <c r="J12">
-        <v>1.032499989083837</v>
+        <v>1.007235429656038</v>
       </c>
       <c r="K12">
-        <v>1.042287372133214</v>
+        <v>1.020979102712183</v>
       </c>
       <c r="L12">
-        <v>1.035417189579224</v>
+        <v>1.003116404075031</v>
       </c>
       <c r="M12">
-        <v>1.046868901272734</v>
+        <v>1.035630166758963</v>
       </c>
       <c r="N12">
-        <v>1.014603993355385</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.006509326941796</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.037586425296234</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.025974433042983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.003033942951838</v>
+        <v>0.9765354338426447</v>
       </c>
       <c r="D13">
-        <v>1.027840632975475</v>
+        <v>1.005989157482829</v>
       </c>
       <c r="E13">
-        <v>1.020852734880502</v>
+        <v>0.9878577631940075</v>
       </c>
       <c r="F13">
-        <v>1.032529296319506</v>
+        <v>1.023128045203307</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052480117936838</v>
+        <v>1.04303493958916</v>
       </c>
       <c r="J13">
-        <v>1.032618300040621</v>
+        <v>1.007270767825435</v>
       </c>
       <c r="K13">
-        <v>1.04241089432153</v>
+        <v>1.020958855647352</v>
       </c>
       <c r="L13">
-        <v>1.035548313916207</v>
+        <v>1.003176516150825</v>
       </c>
       <c r="M13">
-        <v>1.047016705713279</v>
+        <v>1.037782575647748</v>
       </c>
       <c r="N13">
-        <v>1.014643620803255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.006546677638013</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.039564976298188</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.025957594025714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003752009637139</v>
+        <v>0.9771221652979339</v>
       </c>
       <c r="D14">
-        <v>1.028392649925091</v>
+        <v>1.00629260610898</v>
       </c>
       <c r="E14">
-        <v>1.021431726198531</v>
+        <v>0.9883001487196987</v>
       </c>
       <c r="F14">
-        <v>1.033161146485849</v>
+        <v>1.024673199621493</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052735080276475</v>
+        <v>1.043190448896179</v>
       </c>
       <c r="J14">
-        <v>1.033004961633818</v>
+        <v>1.007515727130109</v>
       </c>
       <c r="K14">
-        <v>1.042814570123335</v>
+        <v>1.021113635311168</v>
       </c>
       <c r="L14">
-        <v>1.035976935697671</v>
+        <v>1.003463395772076</v>
       </c>
       <c r="M14">
-        <v>1.047499849714574</v>
+        <v>1.039160726989851</v>
       </c>
       <c r="N14">
-        <v>1.014773131006339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.006644825997313</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.040827598121462</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.026068472990863</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.004193105019906</v>
+        <v>0.9775130356470526</v>
       </c>
       <c r="D15">
-        <v>1.028731839220258</v>
+        <v>1.006525259021338</v>
       </c>
       <c r="E15">
-        <v>1.021787554198716</v>
+        <v>0.9885959645110622</v>
       </c>
       <c r="F15">
-        <v>1.033549435794408</v>
+        <v>1.025161918157741</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052891498449308</v>
+        <v>1.043274032695927</v>
       </c>
       <c r="J15">
-        <v>1.033242440492429</v>
+        <v>1.007695215566619</v>
       </c>
       <c r="K15">
-        <v>1.043062485558049</v>
+        <v>1.021253909133989</v>
       </c>
       <c r="L15">
-        <v>1.03624024959358</v>
+        <v>1.003663053252776</v>
       </c>
       <c r="M15">
-        <v>1.047796656497505</v>
+        <v>1.039555039856209</v>
       </c>
       <c r="N15">
-        <v>1.014852673634956</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.006708395137922</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.041176769445275</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.026173597899329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006740510027612</v>
+        <v>0.9799285273168401</v>
       </c>
       <c r="D16">
-        <v>1.030692126143692</v>
+        <v>1.008102378786577</v>
       </c>
       <c r="E16">
-        <v>1.023844981922653</v>
+        <v>0.9904341591274933</v>
       </c>
       <c r="F16">
-        <v>1.035794196868048</v>
+        <v>1.026626410007114</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053791765031135</v>
+        <v>1.043819835993708</v>
       </c>
       <c r="J16">
-        <v>1.034613285768668</v>
+        <v>1.008882344470076</v>
       </c>
       <c r="K16">
-        <v>1.044493370418853</v>
+        <v>1.022290614634903</v>
       </c>
       <c r="L16">
-        <v>1.037761198933687</v>
+        <v>1.004941110003468</v>
       </c>
       <c r="M16">
-        <v>1.04951104170481</v>
+        <v>1.040495684600198</v>
       </c>
       <c r="N16">
-        <v>1.015311837011584</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.007099719263622</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.041881568818412</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.026909808448352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.008321204747919</v>
+        <v>0.9814823463725888</v>
       </c>
       <c r="D17">
-        <v>1.031909702732813</v>
+        <v>1.009163735932197</v>
       </c>
       <c r="E17">
-        <v>1.025123761545032</v>
+        <v>0.9916213663566132</v>
       </c>
       <c r="F17">
-        <v>1.037189098075508</v>
+        <v>1.02696708019677</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054347655884638</v>
+        <v>1.044167689529387</v>
       </c>
       <c r="J17">
-        <v>1.035463324707267</v>
+        <v>1.009671212147328</v>
       </c>
       <c r="K17">
-        <v>1.045380452486261</v>
+        <v>1.023012977027804</v>
       </c>
       <c r="L17">
-        <v>1.03870516769015</v>
+        <v>1.005777915749263</v>
       </c>
       <c r="M17">
-        <v>1.050575041973179</v>
+        <v>1.040518241904282</v>
       </c>
       <c r="N17">
-        <v>1.015596558566803</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.00735062517825</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.041770444852708</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.027423174015644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.009237126915159</v>
+        <v>0.9824164575647903</v>
       </c>
       <c r="D18">
-        <v>1.032615633327895</v>
+        <v>1.009833219158537</v>
       </c>
       <c r="E18">
-        <v>1.025865491010935</v>
+        <v>0.992334319254778</v>
       </c>
       <c r="F18">
-        <v>1.037998069403859</v>
+        <v>1.026056445662339</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054668764981459</v>
+        <v>1.044297205109805</v>
       </c>
       <c r="J18">
-        <v>1.035955652067928</v>
+        <v>1.01016061294031</v>
       </c>
       <c r="K18">
-        <v>1.045894165090729</v>
+        <v>1.023484349991011</v>
       </c>
       <c r="L18">
-        <v>1.039252204479501</v>
+        <v>1.006286697383603</v>
       </c>
       <c r="M18">
-        <v>1.051191628996074</v>
+        <v>1.03944007366996</v>
       </c>
       <c r="N18">
-        <v>1.01576146415681</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.007492469068832</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.040680448686262</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.027744681738053</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.009548415776379</v>
+        <v>0.982733682750613</v>
       </c>
       <c r="D19">
-        <v>1.032855622497295</v>
+        <v>1.010071279660962</v>
       </c>
       <c r="E19">
-        <v>1.026117703956369</v>
+        <v>0.9925695016205612</v>
       </c>
       <c r="F19">
-        <v>1.038273127936962</v>
+        <v>1.023741564541817</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054777727874395</v>
+        <v>1.044120033529986</v>
       </c>
       <c r="J19">
-        <v>1.036122937801901</v>
+        <v>1.010326696917147</v>
       </c>
       <c r="K19">
-        <v>1.046068705217307</v>
+        <v>1.023654781678205</v>
       </c>
       <c r="L19">
-        <v>1.039438131757992</v>
+        <v>1.006452500192993</v>
       </c>
       <c r="M19">
-        <v>1.051401193505581</v>
+        <v>1.037100280370052</v>
       </c>
       <c r="N19">
-        <v>1.015817496624371</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.00752085147774</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.038504397584266</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.027871652479994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.008152242086161</v>
+        <v>0.981301368721456</v>
       </c>
       <c r="D20">
-        <v>1.031779510927336</v>
+        <v>1.00907793467801</v>
       </c>
       <c r="E20">
-        <v>1.024986992941883</v>
+        <v>0.9914477976668453</v>
       </c>
       <c r="F20">
-        <v>1.037039921623287</v>
+        <v>1.017638079586389</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054288339118419</v>
+        <v>1.043090465479716</v>
       </c>
       <c r="J20">
-        <v>1.035372485606125</v>
+        <v>1.009572619179155</v>
       </c>
       <c r="K20">
-        <v>1.045285661937667</v>
+        <v>1.022963015873409</v>
       </c>
       <c r="L20">
-        <v>1.038604258976978</v>
+        <v>1.005642712864039</v>
       </c>
       <c r="M20">
-        <v>1.050461303000685</v>
+        <v>1.031377716357491</v>
       </c>
       <c r="N20">
-        <v>1.015566131890923</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007225506988835</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.033446852188202</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.027386497297951</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.003540834612548</v>
+        <v>0.9769372513234674</v>
       </c>
       <c r="D21">
-        <v>1.02823028821845</v>
+        <v>1.006243184056585</v>
       </c>
       <c r="E21">
-        <v>1.021261417292633</v>
+        <v>0.988119605248694</v>
       </c>
       <c r="F21">
-        <v>1.032975294270067</v>
+        <v>1.013467298375758</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052660140605319</v>
+        <v>1.041925005668723</v>
       </c>
       <c r="J21">
-        <v>1.032891257337682</v>
+        <v>1.007431896438544</v>
       </c>
       <c r="K21">
-        <v>1.042695865249178</v>
+        <v>1.021107234934753</v>
       </c>
       <c r="L21">
-        <v>1.035850878945457</v>
+        <v>1.003329605991751</v>
       </c>
       <c r="M21">
-        <v>1.047357758420439</v>
+        <v>1.028197942932721</v>
       </c>
       <c r="N21">
-        <v>1.014735046287351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.006504423446472</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.030889105705293</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.026077625584426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.000583773062792</v>
+        <v>0.9741426407647676</v>
       </c>
       <c r="D22">
-        <v>1.025958510736869</v>
+        <v>1.00443273582495</v>
       </c>
       <c r="E22">
-        <v>1.01887959326319</v>
+        <v>0.9859970989891887</v>
       </c>
       <c r="F22">
-        <v>1.030375658976634</v>
+        <v>1.011064850386562</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051607182189984</v>
+        <v>1.041202598454885</v>
       </c>
       <c r="J22">
-        <v>1.031298364966982</v>
+        <v>1.006061238557285</v>
       </c>
       <c r="K22">
-        <v>1.041032687430135</v>
+        <v>1.019916887859172</v>
       </c>
       <c r="L22">
-        <v>1.034086095754628</v>
+        <v>1.001851155252155</v>
       </c>
       <c r="M22">
-        <v>1.045368465813116</v>
+        <v>1.026420251726266</v>
       </c>
       <c r="N22">
-        <v>1.01420152282639</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006043856923874</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.029482161787967</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.025222312477963</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.002156985693632</v>
+        <v>0.9756224112079154</v>
       </c>
       <c r="D23">
-        <v>1.027166729865165</v>
+        <v>1.005386170808072</v>
       </c>
       <c r="E23">
-        <v>1.020146074572304</v>
+        <v>0.987119144032286</v>
       </c>
       <c r="F23">
-        <v>1.031758056731584</v>
+        <v>1.012341858581123</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052168198758267</v>
+        <v>1.041583720302446</v>
       </c>
       <c r="J23">
-        <v>1.032145972881257</v>
+        <v>1.006783906853508</v>
       </c>
       <c r="K23">
-        <v>1.041917748323517</v>
+        <v>1.020541319616987</v>
       </c>
       <c r="L23">
-        <v>1.035024903640423</v>
+        <v>1.002631324524637</v>
       </c>
       <c r="M23">
-        <v>1.046426711625873</v>
+        <v>1.027365479494285</v>
       </c>
       <c r="N23">
-        <v>1.014485418553429</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.006285730228395</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.030230257455575</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.02565407175598</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.008228607768358</v>
+        <v>0.9813462726590956</v>
       </c>
       <c r="D24">
-        <v>1.031838352149947</v>
+        <v>1.009088681711139</v>
       </c>
       <c r="E24">
-        <v>1.02504880562602</v>
+        <v>0.991477617220921</v>
       </c>
       <c r="F24">
-        <v>1.037107342391953</v>
+        <v>1.017266842645152</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054315151482056</v>
+        <v>1.043031690963786</v>
       </c>
       <c r="J24">
-        <v>1.035413542643796</v>
+        <v>1.009581785538548</v>
       </c>
       <c r="K24">
-        <v>1.045328505148223</v>
+        <v>1.022958047938145</v>
       </c>
       <c r="L24">
-        <v>1.038649866280007</v>
+        <v>1.005656066865576</v>
       </c>
       <c r="M24">
-        <v>1.050512709171845</v>
+        <v>1.03099736977774</v>
       </c>
       <c r="N24">
-        <v>1.015579883999763</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007223790886323</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.033104690906626</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.027355263994257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.015037597767543</v>
+        <v>0.9877679015948028</v>
       </c>
       <c r="D25">
-        <v>1.037093182691336</v>
+        <v>1.013253926053328</v>
       </c>
       <c r="E25">
-        <v>1.030575786583521</v>
+        <v>0.9963995479995796</v>
       </c>
       <c r="F25">
-        <v>1.043133407609905</v>
+        <v>1.022777712871772</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056684140829223</v>
+        <v>1.044591586429024</v>
       </c>
       <c r="J25">
-        <v>1.039069272407301</v>
+        <v>1.012714055329047</v>
       </c>
       <c r="K25">
-        <v>1.049141725114373</v>
+        <v>1.025649917928883</v>
       </c>
       <c r="L25">
-        <v>1.042717295695741</v>
+        <v>1.009054014664412</v>
       </c>
       <c r="M25">
-        <v>1.055097099172488</v>
+        <v>1.035032432659023</v>
       </c>
       <c r="N25">
-        <v>1.016804353506377</v>
+        <v>1.00827393100115</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.036298198605575</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.029255701525118</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_35/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9927047268791457</v>
+        <v>0.9932433770327476</v>
       </c>
       <c r="D2">
-        <v>1.016447935715053</v>
+        <v>1.016732998405907</v>
       </c>
       <c r="E2">
-        <v>1.000204743487795</v>
+        <v>1.000671198154794</v>
       </c>
       <c r="F2">
-        <v>1.027016078424614</v>
+        <v>1.027057120355108</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04572839018026</v>
+        <v>1.045868117695468</v>
       </c>
       <c r="J2">
-        <v>1.015105849501659</v>
+        <v>1.015628072858896</v>
       </c>
       <c r="K2">
-        <v>1.027682783515962</v>
+        <v>1.027964036005953</v>
       </c>
       <c r="L2">
-        <v>1.01166122664488</v>
+        <v>1.012121190034473</v>
       </c>
       <c r="M2">
-        <v>1.038111442060755</v>
+        <v>1.0381519493054</v>
       </c>
       <c r="N2">
-        <v>1.00907329974641</v>
+        <v>1.01143842813854</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.038735038249677</v>
+        <v>1.03876709709592</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.030644258727869</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.030851998721781</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019605886685751</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,105 +501,123 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9962119579754147</v>
+        <v>0.9966247297662063</v>
       </c>
       <c r="D3">
-        <v>1.018728833144589</v>
+        <v>1.018852060759998</v>
       </c>
       <c r="E3">
-        <v>1.002922948722614</v>
+        <v>1.003280624395118</v>
       </c>
       <c r="F3">
-        <v>1.030012606173367</v>
+        <v>1.030030227835842</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046509498021657</v>
+        <v>1.046569949478125</v>
       </c>
       <c r="J3">
-        <v>1.016806424229943</v>
+        <v>1.017207832885996</v>
       </c>
       <c r="K3">
-        <v>1.02912755468807</v>
+        <v>1.029249277084469</v>
       </c>
       <c r="L3">
-        <v>1.013518565992294</v>
+        <v>1.013871700411992</v>
       </c>
       <c r="M3">
-        <v>1.040275348476481</v>
+        <v>1.040292760670752</v>
       </c>
       <c r="N3">
-        <v>1.009643034500454</v>
+        <v>1.011859209852378</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.040447627255595</v>
+        <v>1.040461407840776</v>
       </c>
       <c r="Q3">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.031663165480388</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.03175782390409</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019846920563802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>0.9984424050531424</v>
+        <v>0.9987760009162054</v>
       </c>
       <c r="D4">
-        <v>1.020180943489334</v>
+        <v>1.020201837420403</v>
       </c>
       <c r="E4">
-        <v>1.004657600764578</v>
+        <v>1.004946738459548</v>
       </c>
       <c r="F4">
-        <v>1.031914766105069</v>
+        <v>1.031917741435196</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046991519373844</v>
+        <v>1.047001774855635</v>
       </c>
       <c r="J4">
-        <v>1.017886038364047</v>
+        <v>1.018211068623075</v>
       </c>
       <c r="K4">
-        <v>1.030041754070998</v>
+        <v>1.030062408008676</v>
       </c>
       <c r="L4">
-        <v>1.014700135809122</v>
+        <v>1.014985825103509</v>
       </c>
       <c r="M4">
-        <v>1.041642682179846</v>
+        <v>1.041645624283858</v>
       </c>
       <c r="N4">
-        <v>1.010004733863109</v>
+        <v>1.012126466407712</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.04152977947196</v>
+        <v>1.041532107946698</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.032310501416154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.032333775408887</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.019996859121579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9993734583140826</v>
+        <v>0.9996742118210113</v>
       </c>
       <c r="D5">
-        <v>1.020789305325317</v>
+        <v>1.020767681637904</v>
       </c>
       <c r="E5">
-        <v>1.005383406499986</v>
+        <v>1.00564408600847</v>
       </c>
       <c r="F5">
-        <v>1.032706350822699</v>
+        <v>1.03270327686805</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047190329112976</v>
+        <v>1.047179712967373</v>
       </c>
       <c r="J5">
-        <v>1.018337424860602</v>
+        <v>1.018630685558301</v>
       </c>
       <c r="K5">
-        <v>1.030424656190322</v>
+        <v>1.030403274334401</v>
       </c>
       <c r="L5">
-        <v>1.015194308798094</v>
+        <v>1.015451962560925</v>
       </c>
       <c r="M5">
-        <v>1.042210316900028</v>
+        <v>1.042207276355753</v>
       </c>
       <c r="N5">
-        <v>1.010156219977962</v>
+        <v>1.012238459649127</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.041979023514167</v>
+        <v>1.041976617132155</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.032588493602156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.032582753880254</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020059475116061</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9995322253451854</v>
+        <v>0.9998273992591992</v>
       </c>
       <c r="D6">
-        <v>1.020895338857079</v>
+        <v>1.020866549007205</v>
       </c>
       <c r="E6">
-        <v>1.005507622531406</v>
+        <v>1.005763461609475</v>
       </c>
       <c r="F6">
-        <v>1.03283936322035</v>
+        <v>1.032835271719098</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.047225454750808</v>
+        <v>1.047211319821826</v>
       </c>
       <c r="J6">
-        <v>1.018415822855219</v>
+        <v>1.018703680578012</v>
       </c>
       <c r="K6">
-        <v>1.030492828563087</v>
+        <v>1.030464359228664</v>
       </c>
       <c r="L6">
-        <v>1.015279654059299</v>
+        <v>1.015532537246807</v>
       </c>
       <c r="M6">
-        <v>1.042305771922851</v>
+        <v>1.042301724687525</v>
       </c>
       <c r="N6">
-        <v>1.010182847204401</v>
+        <v>1.012258186849616</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.042054569606122</v>
+        <v>1.042051366497602</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.032645530363248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.03263564674335</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020071126825625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9984628156733848</v>
+        <v>0.9988032052893107</v>
       </c>
       <c r="D7">
-        <v>1.020200335833446</v>
+        <v>1.020225443625308</v>
       </c>
       <c r="E7">
-        <v>1.004674494189951</v>
+        <v>1.004969669385924</v>
       </c>
       <c r="F7">
-        <v>1.031926977499026</v>
+        <v>1.031930552805273</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046999715343744</v>
+        <v>1.04701203917994</v>
       </c>
       <c r="J7">
-        <v>1.017899819565237</v>
+        <v>1.018231472901912</v>
       </c>
       <c r="K7">
-        <v>1.030058001939479</v>
+        <v>1.030082821447812</v>
       </c>
       <c r="L7">
-        <v>1.014713845067084</v>
+        <v>1.015005501211065</v>
       </c>
       <c r="M7">
-        <v>1.041651879808659</v>
+        <v>1.041655415203233</v>
       </c>
       <c r="N7">
-        <v>1.010010221201338</v>
+        <v>1.012158477863049</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.041537058768065</v>
+        <v>1.041539856791806</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.032342305023242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.032370520718071</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020002376364025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9939080015586629</v>
+        <v>0.9944262910535816</v>
       </c>
       <c r="D8">
-        <v>1.017237470994437</v>
+        <v>1.017482317236768</v>
       </c>
       <c r="E8">
-        <v>1.001137325358784</v>
+        <v>1.001586763949608</v>
       </c>
       <c r="F8">
-        <v>1.028038497815038</v>
+        <v>1.028073667313402</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046003974292051</v>
+        <v>1.046124022228157</v>
       </c>
       <c r="J8">
-        <v>1.015694407797075</v>
+        <v>1.016197419511611</v>
       </c>
       <c r="K8">
-        <v>1.028188904320264</v>
+        <v>1.028430574167607</v>
       </c>
       <c r="L8">
-        <v>1.01230191285829</v>
+        <v>1.01274528432467</v>
       </c>
       <c r="M8">
-        <v>1.038851605292612</v>
+        <v>1.038886330310149</v>
       </c>
       <c r="N8">
-        <v>1.009271608821972</v>
+        <v>1.011669672695259</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.039320829020781</v>
+        <v>1.039348311588446</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.031025283615634</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.031207297777961</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.01969693349967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9855584678909316</v>
+        <v>0.9863852650995558</v>
       </c>
       <c r="D9">
-        <v>1.011810976942734</v>
+        <v>1.012446652272528</v>
       </c>
       <c r="E9">
-        <v>0.9947005014875022</v>
+        <v>0.9954158215204336</v>
       </c>
       <c r="F9">
-        <v>1.020891195574543</v>
+        <v>1.020984054314642</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044058094858804</v>
+        <v>1.044369197636229</v>
       </c>
       <c r="J9">
-        <v>1.01163170724953</v>
+        <v>1.012428128068353</v>
       </c>
       <c r="K9">
-        <v>1.024715292244902</v>
+        <v>1.025340968089194</v>
       </c>
       <c r="L9">
-        <v>1.007880148533357</v>
+        <v>1.008583714271248</v>
       </c>
       <c r="M9">
-        <v>1.033654182803836</v>
+        <v>1.033745612829205</v>
       </c>
       <c r="N9">
-        <v>1.007909576886128</v>
+        <v>1.010674679588976</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.035207399007254</v>
+        <v>1.035279760274918</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.028565949376391</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.029019213301365</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019101988316851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9797877374447498</v>
+        <v>0.9808648277081957</v>
       </c>
       <c r="D10">
-        <v>1.008087852662948</v>
+        <v>1.009017397984966</v>
       </c>
       <c r="E10">
-        <v>0.9902908699119238</v>
+        <v>0.991221567444722</v>
       </c>
       <c r="F10">
-        <v>1.016465105675695</v>
+        <v>1.016602163672909</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042723272693448</v>
+        <v>1.04317758063518</v>
       </c>
       <c r="J10">
-        <v>1.008826889836467</v>
+        <v>1.009858765548268</v>
       </c>
       <c r="K10">
-        <v>1.022312597925195</v>
+        <v>1.023225727108462</v>
       </c>
       <c r="L10">
-        <v>1.004837666727376</v>
+        <v>1.005751148940287</v>
       </c>
       <c r="M10">
-        <v>1.030543307804522</v>
+        <v>1.030677994226955</v>
       </c>
       <c r="N10">
-        <v>1.006974034908746</v>
+        <v>1.0101106536116</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.032797122911875</v>
+        <v>1.032903712595107</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.026884060326426</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.027542256275294</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018687144421242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9773513453738972</v>
+        <v>0.9785756637470612</v>
       </c>
       <c r="D11">
-        <v>1.006590690231833</v>
+        <v>1.007670004224884</v>
       </c>
       <c r="E11">
-        <v>0.9884636989167198</v>
+        <v>0.9895198281054969</v>
       </c>
       <c r="F11">
-        <v>1.018742688184737</v>
+        <v>1.018898769427686</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042743975957034</v>
+        <v>1.043270349713801</v>
       </c>
       <c r="J11">
-        <v>1.007697661016046</v>
+        <v>1.008867702657519</v>
       </c>
       <c r="K11">
-        <v>1.021389376963824</v>
+        <v>1.022448710694629</v>
       </c>
       <c r="L11">
-        <v>1.003606502303494</v>
+        <v>1.004642128923016</v>
       </c>
       <c r="M11">
-        <v>1.033319594036045</v>
+        <v>1.033472871415821</v>
       </c>
       <c r="N11">
-        <v>1.006634638852469</v>
+        <v>1.010102032473057</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.035431996198526</v>
+        <v>1.035553236794155</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.026264516745505</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.027029300123085</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.01855455528959</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9763974533161833</v>
+        <v>0.9776849644962452</v>
       </c>
       <c r="D12">
-        <v>1.005965303025061</v>
+        <v>1.007110283719224</v>
       </c>
       <c r="E12">
-        <v>0.9877507030295558</v>
+        <v>0.9888596461602658</v>
       </c>
       <c r="F12">
-        <v>1.020892580268372</v>
+        <v>1.021055724948545</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042845088836798</v>
+        <v>1.043402806927507</v>
       </c>
       <c r="J12">
-        <v>1.007235429656038</v>
+        <v>1.008464710584167</v>
       </c>
       <c r="K12">
-        <v>1.020979102712183</v>
+        <v>1.022102518054268</v>
       </c>
       <c r="L12">
-        <v>1.003116404075031</v>
+        <v>1.004203435947449</v>
       </c>
       <c r="M12">
-        <v>1.035630166758963</v>
+        <v>1.035790350658005</v>
       </c>
       <c r="N12">
-        <v>1.006509326941796</v>
+        <v>1.010116374892293</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.037586425296234</v>
+        <v>1.037713085858087</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.025974433042983</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.026784530943514</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018491853293095</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9765354338426447</v>
+        <v>0.9778142257178856</v>
       </c>
       <c r="D13">
-        <v>1.005989157482829</v>
+        <v>1.007131570724581</v>
       </c>
       <c r="E13">
-        <v>0.9878577631940075</v>
+        <v>0.9889573969012923</v>
       </c>
       <c r="F13">
-        <v>1.023128045203307</v>
+        <v>1.023288796119389</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04303493958916</v>
+        <v>1.043591055129253</v>
       </c>
       <c r="J13">
-        <v>1.007270767825435</v>
+        <v>1.008491959272503</v>
       </c>
       <c r="K13">
-        <v>1.020958855647352</v>
+        <v>1.022079825332764</v>
       </c>
       <c r="L13">
-        <v>1.003176516150825</v>
+        <v>1.004254501720468</v>
       </c>
       <c r="M13">
-        <v>1.037782575647748</v>
+        <v>1.037940435447988</v>
       </c>
       <c r="N13">
-        <v>1.006546677638013</v>
+        <v>1.010118084285937</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.039564976298188</v>
+        <v>1.039689767887994</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.025957594025714</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.026765721316202</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018484790038474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9771221652979339</v>
+        <v>0.9783637415528167</v>
       </c>
       <c r="D14">
-        <v>1.00629260610898</v>
+        <v>1.007403849354096</v>
       </c>
       <c r="E14">
-        <v>0.9883001487196987</v>
+        <v>0.9893665768631862</v>
       </c>
       <c r="F14">
-        <v>1.024673199621493</v>
+        <v>1.024828397419022</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043190448896179</v>
+        <v>1.043731305690905</v>
       </c>
       <c r="J14">
-        <v>1.007515727130109</v>
+        <v>1.008702146829046</v>
       </c>
       <c r="K14">
-        <v>1.021113635311168</v>
+        <v>1.022204265213732</v>
       </c>
       <c r="L14">
-        <v>1.003463395772076</v>
+        <v>1.004509085435633</v>
       </c>
       <c r="M14">
-        <v>1.039160726989851</v>
+        <v>1.039313174911533</v>
       </c>
       <c r="N14">
-        <v>1.006644825997313</v>
+        <v>1.010113737112995</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.040827598121462</v>
+        <v>1.040948095334911</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.026068472990863</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.026855284699093</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018503410775391</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9775130356470526</v>
+        <v>0.9787293412061741</v>
       </c>
       <c r="D15">
-        <v>1.006525259021338</v>
+        <v>1.007612924051656</v>
       </c>
       <c r="E15">
-        <v>0.9885959645110622</v>
+        <v>0.9896403743238584</v>
       </c>
       <c r="F15">
-        <v>1.025161918157741</v>
+        <v>1.025313549301424</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043274032695927</v>
+        <v>1.043803437202281</v>
       </c>
       <c r="J15">
-        <v>1.007695215566619</v>
+        <v>1.008857952688338</v>
       </c>
       <c r="K15">
-        <v>1.021253909133989</v>
+        <v>1.0223215478747</v>
       </c>
       <c r="L15">
-        <v>1.003663053252776</v>
+        <v>1.004687307885131</v>
       </c>
       <c r="M15">
-        <v>1.039555039856209</v>
+        <v>1.039704005914977</v>
       </c>
       <c r="N15">
-        <v>1.006708395137922</v>
+        <v>1.010115868732645</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041176769445275</v>
+        <v>1.041294511460632</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.026173597899329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.026944721325074</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018524913249636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9799285273168401</v>
+        <v>0.9809906714422959</v>
       </c>
       <c r="D16">
-        <v>1.008102378786577</v>
+        <v>1.009033124475389</v>
       </c>
       <c r="E16">
-        <v>0.9904341591274933</v>
+        <v>0.9913459172212571</v>
       </c>
       <c r="F16">
-        <v>1.026626410007114</v>
+        <v>1.026755961204548</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043819835993708</v>
+        <v>1.044273150732067</v>
       </c>
       <c r="J16">
-        <v>1.008882344470076</v>
+        <v>1.009900062207076</v>
       </c>
       <c r="K16">
-        <v>1.022290614634903</v>
+        <v>1.023204971834438</v>
       </c>
       <c r="L16">
-        <v>1.004941110003468</v>
+        <v>1.005836058751296</v>
       </c>
       <c r="M16">
-        <v>1.040495684600198</v>
+        <v>1.040623057343454</v>
       </c>
       <c r="N16">
-        <v>1.007099719263622</v>
+        <v>1.010182374732078</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.041881568818412</v>
+        <v>1.041982246440252</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.026909808448352</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.027572848657063</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018701372774132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9814823463725888</v>
+        <v>0.9824532288362235</v>
       </c>
       <c r="D17">
-        <v>1.009163735932197</v>
+        <v>1.009994811785653</v>
       </c>
       <c r="E17">
-        <v>0.9916213663566132</v>
+        <v>0.9924550883067169</v>
       </c>
       <c r="F17">
-        <v>1.02696708019677</v>
+        <v>1.027083061939209</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044167689529387</v>
+        <v>1.044572691612228</v>
       </c>
       <c r="J17">
-        <v>1.009671212147328</v>
+        <v>1.010602813342382</v>
       </c>
       <c r="K17">
-        <v>1.023012977027804</v>
+        <v>1.023829836205989</v>
       </c>
       <c r="L17">
-        <v>1.005777915749263</v>
+        <v>1.0065967131899</v>
       </c>
       <c r="M17">
-        <v>1.040518241904282</v>
+        <v>1.040632325331111</v>
       </c>
       <c r="N17">
-        <v>1.00735062517825</v>
+        <v>1.010266131715363</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.041770444852708</v>
+        <v>1.041860627298905</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.027423174015644</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.028017520793855</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018829396446111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9824164575647903</v>
+        <v>0.9833348785965048</v>
       </c>
       <c r="D18">
-        <v>1.009833219158537</v>
+        <v>1.010602389095979</v>
       </c>
       <c r="E18">
-        <v>0.992334319254778</v>
+        <v>0.9931238294015412</v>
       </c>
       <c r="F18">
-        <v>1.026056445662339</v>
+        <v>1.02616464959447</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044297205109805</v>
+        <v>1.044672301662972</v>
       </c>
       <c r="J18">
-        <v>1.01016061294031</v>
+        <v>1.011042602155224</v>
       </c>
       <c r="K18">
-        <v>1.023484349991011</v>
+        <v>1.024240587128255</v>
       </c>
       <c r="L18">
-        <v>1.006286697383603</v>
+        <v>1.007062319571673</v>
       </c>
       <c r="M18">
-        <v>1.03944007366996</v>
+        <v>1.039546529888286</v>
       </c>
       <c r="N18">
-        <v>1.007492469068832</v>
+        <v>1.010326906920902</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040680448686262</v>
+        <v>1.04076461932191</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.027744681738053</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.028295028755026</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018913634133564</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.982733682750613</v>
+        <v>0.9836369802286222</v>
       </c>
       <c r="D19">
-        <v>1.010071279660962</v>
+        <v>1.01081928148362</v>
       </c>
       <c r="E19">
-        <v>0.9925695016205612</v>
+        <v>0.9933473243962142</v>
       </c>
       <c r="F19">
-        <v>1.023741564541817</v>
+        <v>1.023848274483302</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044120033529986</v>
+        <v>1.044485153409914</v>
       </c>
       <c r="J19">
-        <v>1.010326696917147</v>
+        <v>1.01119440480215</v>
       </c>
       <c r="K19">
-        <v>1.023654781678205</v>
+        <v>1.024390281205278</v>
       </c>
       <c r="L19">
-        <v>1.006452500192993</v>
+        <v>1.007216722364563</v>
       </c>
       <c r="M19">
-        <v>1.037100280370052</v>
+        <v>1.037205265944046</v>
       </c>
       <c r="N19">
-        <v>1.00752085147774</v>
+        <v>1.010336964710243</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038504397584266</v>
+        <v>1.038587432564354</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.027871652479994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.028407956592135</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018939942605584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.981301368721456</v>
+        <v>0.9822915030823615</v>
       </c>
       <c r="D20">
-        <v>1.00907793467801</v>
+        <v>1.009916774360248</v>
       </c>
       <c r="E20">
-        <v>0.9914477976668453</v>
+        <v>0.9923030610550828</v>
       </c>
       <c r="F20">
-        <v>1.017638079586389</v>
+        <v>1.017761444420086</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043090465479716</v>
+        <v>1.043500578694298</v>
       </c>
       <c r="J20">
-        <v>1.009572619179155</v>
+        <v>1.010522547926142</v>
       </c>
       <c r="K20">
-        <v>1.022963015873409</v>
+        <v>1.023787462106185</v>
       </c>
       <c r="L20">
-        <v>1.005642712864039</v>
+        <v>1.00648261566434</v>
       </c>
       <c r="M20">
-        <v>1.031377716357491</v>
+        <v>1.031499008172868</v>
       </c>
       <c r="N20">
-        <v>1.007225506988835</v>
+        <v>1.010190167061255</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.033446852188202</v>
+        <v>1.033542842653082</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.027386497297951</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.027986079430159</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.01879981294327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9769372513234674</v>
+        <v>0.978222416053889</v>
       </c>
       <c r="D21">
-        <v>1.006243184056585</v>
+        <v>1.007374902357355</v>
       </c>
       <c r="E21">
-        <v>0.988119605248694</v>
+        <v>0.9892318534244329</v>
       </c>
       <c r="F21">
-        <v>1.013467298375758</v>
+        <v>1.013635730743188</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041925005668723</v>
+        <v>1.042477950136352</v>
       </c>
       <c r="J21">
-        <v>1.007431896438544</v>
+        <v>1.008659735438071</v>
       </c>
       <c r="K21">
-        <v>1.021107234934753</v>
+        <v>1.022217889143675</v>
       </c>
       <c r="L21">
-        <v>1.003329605991751</v>
+        <v>1.004420144289524</v>
       </c>
       <c r="M21">
-        <v>1.028197942932721</v>
+        <v>1.028363294426724</v>
       </c>
       <c r="N21">
-        <v>1.006504423446472</v>
+        <v>1.010109546554558</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.030889105705293</v>
+        <v>1.031019972089957</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.026077625584426</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.026879903966781</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018488417987526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9741426407647676</v>
+        <v>0.9756149921368789</v>
       </c>
       <c r="D22">
-        <v>1.00443273582495</v>
+        <v>1.005750414213949</v>
       </c>
       <c r="E22">
-        <v>0.9859970989891887</v>
+        <v>0.9872721857495007</v>
       </c>
       <c r="F22">
-        <v>1.011064850386562</v>
+        <v>1.011262191743461</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041202598454885</v>
+        <v>1.041846081038269</v>
       </c>
       <c r="J22">
-        <v>1.006061238557285</v>
+        <v>1.007464073352472</v>
       </c>
       <c r="K22">
-        <v>1.019916887859172</v>
+        <v>1.021208808567616</v>
       </c>
       <c r="L22">
-        <v>1.001851155252155</v>
+        <v>1.003100071257937</v>
       </c>
       <c r="M22">
-        <v>1.026420251726266</v>
+        <v>1.0266137959324</v>
       </c>
       <c r="N22">
-        <v>1.006043856923874</v>
+        <v>1.010048385698026</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.029482161787967</v>
+        <v>1.029635341422702</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.025222312477963</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.02615146341902</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018286089063207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9756224112079154</v>
+        <v>0.9769836324415416</v>
       </c>
       <c r="D23">
-        <v>1.005386170808072</v>
+        <v>1.006597253687332</v>
       </c>
       <c r="E23">
-        <v>0.987119144032286</v>
+        <v>0.9882973190635677</v>
       </c>
       <c r="F23">
-        <v>1.012341858581123</v>
+        <v>1.01252262952127</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041583720302446</v>
+        <v>1.042175302048315</v>
       </c>
       <c r="J23">
-        <v>1.006783906853508</v>
+        <v>1.008082751330923</v>
       </c>
       <c r="K23">
-        <v>1.020541319616987</v>
+        <v>1.021729330712476</v>
       </c>
       <c r="L23">
-        <v>1.002631324524637</v>
+        <v>1.003785948292458</v>
       </c>
       <c r="M23">
-        <v>1.027365479494285</v>
+        <v>1.027542863617906</v>
       </c>
       <c r="N23">
-        <v>1.006285730228395</v>
+        <v>1.010036492491118</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.030230257455575</v>
+        <v>1.03037064712025</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.02565407175598</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.026508810571302</v>
+      </c>
+      <c r="S23">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T23">
+        <v>1.018389063857786</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9813462726590956</v>
+        <v>0.9823354351548934</v>
       </c>
       <c r="D24">
-        <v>1.009088681711139</v>
+        <v>1.009926081177528</v>
       </c>
       <c r="E24">
-        <v>0.991477617220921</v>
+        <v>0.9923322721717582</v>
       </c>
       <c r="F24">
-        <v>1.017266842645152</v>
+        <v>1.017390270669245</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043031690963786</v>
+        <v>1.043441173454435</v>
       </c>
       <c r="J24">
-        <v>1.009581785538548</v>
+        <v>1.010530843735723</v>
       </c>
       <c r="K24">
-        <v>1.022958047938145</v>
+        <v>1.0237810975119</v>
       </c>
       <c r="L24">
-        <v>1.005656066865576</v>
+        <v>1.006495393182246</v>
       </c>
       <c r="M24">
-        <v>1.03099736977774</v>
+        <v>1.031118724432739</v>
       </c>
       <c r="N24">
-        <v>1.007223790886323</v>
+        <v>1.010185028408873</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.033104690906626</v>
+        <v>1.033200735971736</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.027355263994257</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.027951191765112</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018794651010732</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9877679015948028</v>
+        <v>0.9885029469735357</v>
       </c>
       <c r="D25">
-        <v>1.013253926053328</v>
+        <v>1.013779813078649</v>
       </c>
       <c r="E25">
-        <v>0.9963995479995796</v>
+        <v>0.9970356550830732</v>
       </c>
       <c r="F25">
-        <v>1.022777712871772</v>
+        <v>1.022854185166189</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044591586429024</v>
+        <v>1.044849076553167</v>
       </c>
       <c r="J25">
-        <v>1.012714055329047</v>
+        <v>1.013423525881325</v>
       </c>
       <c r="K25">
-        <v>1.025649917928883</v>
+        <v>1.026167916048414</v>
       </c>
       <c r="L25">
-        <v>1.009054014664412</v>
+        <v>1.009680163648592</v>
       </c>
       <c r="M25">
-        <v>1.035032432659023</v>
+        <v>1.035107784108516</v>
       </c>
       <c r="N25">
-        <v>1.00827393100115</v>
+        <v>1.010908086836915</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.036298198605575</v>
+        <v>1.036357834573494</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.029255701525118</v>
+        <v>1.029635625928109</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019264718389154</v>
       </c>
     </row>
   </sheetData>
